--- a/1спринт/2часть/Филипчик_ТК_часть2.xlsx
+++ b/1спринт/2часть/Филипчик_ТК_часть2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Yandex.Student\Y.Routes\1спринт\2часть\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FED2914-4D9D-477A-8B4F-829D7EFFB368}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A606BF5-C519-448C-A16C-199EED3AFBCC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="156">
   <si>
     <t>Удали содержимое и используй как шаблон</t>
   </si>
@@ -109,9 +109,6 @@
     <t>Выбери время начала поездки 10.30</t>
   </si>
   <si>
-    <t>На карте отображается выбранный маршрут, показывается стоимость и время поездки:  26 рублей, 2 минуты.</t>
-  </si>
-  <si>
     <t>В поле откуда введи адрес «Усачева, 3»</t>
   </si>
   <si>
@@ -124,9 +121,6 @@
     <t>Выбери транспорт «Такси»</t>
   </si>
   <si>
-    <t>Открыть сайт Яндекс.Маршруты</t>
-  </si>
-  <si>
     <t>Расчет времени и стоимости поездки из пункта Б в Пункт А (путь одинаковый туда и обратно) корректен</t>
   </si>
   <si>
@@ -139,14 +133,824 @@
     <t xml:space="preserve">В поле куда введи адрес  «Усачева, 3» </t>
   </si>
   <si>
-    <t>В поле откуда введи адрес «Комсомольский проспект 18»</t>
+    <t>В поле откуда введи адрес «м. Пироговоская, 25»</t>
+  </si>
+  <si>
+    <t xml:space="preserve">В поле куда введи адрес  «Комсомольский пропект, 18» </t>
+  </si>
+  <si>
+    <t>В поле откуда введи адрес «Комсомольский проспект, 18»</t>
+  </si>
+  <si>
+    <t>В поле куда введи адрес   «м. Пироговоская, 25»</t>
+  </si>
+  <si>
+    <t>В поле откуда введи адрес «Комсомольский пропект, 18»</t>
+  </si>
+  <si>
+    <t>В поле "куда" введи адрес "м. Пироговская, 25"</t>
+  </si>
+  <si>
+    <t>В поле "откуда" введи адрес "м. Пироговская, 25"</t>
+  </si>
+  <si>
+    <t>Выбери режим "Свой"</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">На карте отображается точки А  и Б, выбранный маршрут, показывается стоимость и время поездки:  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>26 рублей, 2 минуты</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>, появляется кнопка вызова такси.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">На карте отображается точки А и Б, выбранный маршрут, показывается стоимость и время поездки:  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>26 рублей, 2 минуты</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>, появляется кнопка вызова такси.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">На карте отображается точки А и Б, выбранный маршрут, показывается стоимость и время поездки:  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>57 рублей, 5 минут</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>, появляется кнопка вызова такси.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">На карте отображается точки А и Б, выбранный маршрут, показывается стоимость и время поездки:  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>43 рубля, 4 минуты</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>, появляется кнопка вызова такси.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">На карте отображается точки А и Б(находятся друг на друге), выбранный маршрут (нулевой), показывается стоимость и время поездки, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>0 рублей, 0 минут.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> Появляется кнопка вызова такси.</t>
+    </r>
+  </si>
+  <si>
+    <t>В полях "Откуда" и "Куда" введен один и тот же адрес</t>
+  </si>
+  <si>
+    <t>Проверка того, что берется валидное значение расстояние (0)</t>
+  </si>
+  <si>
+    <t>Проверка того, что берется валидное значение расстояние (2,4 км)</t>
+  </si>
+  <si>
+    <t>В поле "откуда" введи адрес "Фрунзенская набережная, 46"</t>
+  </si>
+  <si>
+    <t>В поле "куда" введи адрес "Зубовский Бульвар, 37"</t>
+  </si>
+  <si>
+    <t>В поле "откуда" введи адрес "Усачева, 3"</t>
+  </si>
+  <si>
+    <t>В поле "куда" введи адрес "Комсомольский проспект, 18"</t>
+  </si>
+  <si>
+    <t>Выбери время начала поездки 22.01</t>
+  </si>
+  <si>
+    <t>Стоимость и время поездки корректно рассчитывается ночью (22.01)</t>
+  </si>
+  <si>
+    <t>В поле "откуда" введи адрес Хамовнический вал, 34"</t>
+  </si>
+  <si>
+    <t>В поле "куда" введи адрес "3-ая Фрунзенская улица, 12"</t>
+  </si>
+  <si>
+    <t>YR002</t>
+  </si>
+  <si>
+    <t>YR003</t>
+  </si>
+  <si>
+    <t>YR004</t>
+  </si>
+  <si>
+    <t>YR005</t>
+  </si>
+  <si>
+    <t>YR006</t>
+  </si>
+  <si>
+    <t>YR007</t>
+  </si>
+  <si>
+    <t>YR008</t>
+  </si>
+  <si>
+    <t>YR009</t>
+  </si>
+  <si>
+    <t>YR010</t>
+  </si>
+  <si>
+    <t>YR011</t>
+  </si>
+  <si>
+    <t>Стоимость и время поездки корректно рассчитывается ночью (22.02)</t>
+  </si>
+  <si>
+    <t>Выбери время начала поездки 22.02</t>
+  </si>
+  <si>
+    <t>Выбери время начала поездки 07.59</t>
+  </si>
+  <si>
+    <t>Выбери время начала поездки 08.00</t>
+  </si>
+  <si>
+    <t>Стоимость и время поездки корректно рассчитывается ночью (07.59)</t>
+  </si>
+  <si>
+    <t>Стоимость и время поездки корректно рассчитывается ночью (08.00)</t>
+  </si>
+  <si>
+    <t>Стоимость и время поездки корректно рассчитывается утром (08.01)</t>
+  </si>
+  <si>
+    <t>Выбери время начала поездки 08.01</t>
+  </si>
+  <si>
+    <t>Стоимость и время поездки корректно рассчитывается утром (12.00)</t>
+  </si>
+  <si>
+    <t>Стоимость и время поездки корректно рассчитывается утром (11.59)</t>
+  </si>
+  <si>
+    <t>Стоимость и время поездки корректно рассчитывается утром (08.02)</t>
+  </si>
+  <si>
+    <t>Стоимость и время поездки корректно рассчитывается днем (12.01)</t>
+  </si>
+  <si>
+    <t>Стоимость и время поездки корректно рассчитывается днем (12.02)</t>
+  </si>
+  <si>
+    <t>Стоимость и время поездки корректно рассчитывается днем (17.59)</t>
+  </si>
+  <si>
+    <t>Стоимость и время поездки корректно рассчитывается днем (18.00)</t>
+  </si>
+  <si>
+    <t>Выбери время начала поездки 12.00</t>
+  </si>
+  <si>
+    <t>Выбери время начала поездки 08.02</t>
+  </si>
+  <si>
+    <t>Выбери время начала поездки 11.59</t>
+  </si>
+  <si>
+    <t>Выбери время начала поездки 12.01</t>
+  </si>
+  <si>
+    <t>Выбери время начала поездки 12.02</t>
+  </si>
+  <si>
+    <t>Выбери время начала поездки 17.59</t>
+  </si>
+  <si>
+    <t>Выбери время начала поездки 18.00</t>
+  </si>
+  <si>
+    <t>Стоимость и время поездки корректно рассчитывается ночью (22.40)</t>
+  </si>
+  <si>
+    <t>Выбери время начала поездки 22.40</t>
+  </si>
+  <si>
+    <t>Стоимость и время поездки корректно рассчитывается утром (10.03)</t>
+  </si>
+  <si>
+    <t>Выбери время начала поездки 10.03</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">На карте отображается точки А и Б, выбранный маршрут, показывается стоимость и время поездки, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>32 рубля, 3 минуты.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> Появляется кнопка вызова такси.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">На карте отображается точки А и Б, выбранный маршрут, показывается стоимость и время поездки, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>32 рубля, 3 минуты</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>. Появляется кнопка вызова такси.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">На карте отображается точки А и Б, выбранный маршрут, показывается стоимость и время поездки, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>22 рубля, 2 минуты.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> Появляется кнопка вызова такси.</t>
+    </r>
+  </si>
+  <si>
+    <t>Проверка того, что берется валидное значение расстояния (3,9 км)</t>
+  </si>
+  <si>
+    <t>Проверка того, что берется валидное значение расстояния (0,89 км)</t>
+  </si>
+  <si>
+    <t>Проверка того, что берется валидное значение расстояния (4.7 км)</t>
+  </si>
+  <si>
+    <t>Выбери время начала поездки 14.40</t>
+  </si>
+  <si>
+    <t>Стоимость и время поездки корректно рассчитывается днем (14.40)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">На карте отображается точки А и Б, выбранный маршрут , показывается стоимость и время поездки, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>27 рублей, 2 минуты.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> Появляется кнопка вызова такси.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">На карте отображается точки А и Б), выбранный маршрут, показывается стоимость и время поездки, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>27 рублей, 2 минуты.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> Появляется кнопка вызова такси.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">На карте отображается точки А и Б, выбранный маршрут, показывается стоимость и время поездки, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>27 рублей, 2 минуты.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> Появляется кнопка вызова такси.</t>
+    </r>
+  </si>
+  <si>
+    <t>Стоимость и время поездки корректно рассчитывается вечером (18.01)</t>
+  </si>
+  <si>
+    <t>Стоимость и время поездки корректно рассчитывается вечером (18.02)</t>
+  </si>
+  <si>
+    <t>Стоимость и время поездки корректно рассчитывается вечером (21.59)</t>
+  </si>
+  <si>
+    <t>Стоимость и время поездки корректно рассчитывается вечером (22.00)</t>
+  </si>
+  <si>
+    <t>Стоимость и время поездки корректно рассчитывается вечером (20.08)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">На карте отображается точки А и Б, выбранный маршрут , показывается стоимость и время поездки, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>48 рублей, 4 минуты.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> Появляется кнопка вызова такси.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">На карте отображается точки А и Б, выбранный маршрут, показывается стоимость и время поездки, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>48 рублей, 4 минуты.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> Появляется кнопка вызова такси.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">На карте отображается точки А и Б), выбранный маршрут, показывается стоимость и время поездки, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>48 рублей, 4 минуты.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> Появляется кнопка вызова такси.</t>
+    </r>
+  </si>
+  <si>
+    <t>Выбери время начала поездки 20.08</t>
+  </si>
+  <si>
+    <t>Выбери время начала поездки 22.00</t>
+  </si>
+  <si>
+    <t>Выбери время начала поездки 21.59</t>
+  </si>
+  <si>
+    <t>Выбери время начала поездки 18.02</t>
+  </si>
+  <si>
+    <t>Выбери время начала поездки 18.01</t>
+  </si>
+  <si>
+    <t>YR012</t>
+  </si>
+  <si>
+    <t>YR013</t>
+  </si>
+  <si>
+    <t>YR014</t>
+  </si>
+  <si>
+    <t>YR015</t>
+  </si>
+  <si>
+    <t>YR016</t>
+  </si>
+  <si>
+    <t>YR017</t>
+  </si>
+  <si>
+    <t>YR018</t>
+  </si>
+  <si>
+    <t>YR019</t>
+  </si>
+  <si>
+    <t>YR020</t>
+  </si>
+  <si>
+    <t>YR021</t>
+  </si>
+  <si>
+    <t>YR022</t>
+  </si>
+  <si>
+    <t>YR023</t>
+  </si>
+  <si>
+    <t>YR024</t>
+  </si>
+  <si>
+    <t>YR025</t>
+  </si>
+  <si>
+    <t>YR026</t>
+  </si>
+  <si>
+    <t>YR027</t>
+  </si>
+  <si>
+    <t>YR028</t>
+  </si>
+  <si>
+    <t>YR029</t>
+  </si>
+  <si>
+    <t>YR030</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">На карте отображается точки А и Б, выбранный маршрут , показывается стоимость и время поездки, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>89 рублей, 8 минут.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> Появляется кнопка вызова такси.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">На карте отображается точки А и Б, выбранный маршрут, показывается стоимость и время поездки, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>45 рублей, 4 минуты.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> Появляется кнопка вызова такси.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">На карте отображается точки А и Б, выбранный маршрут, показывается стоимость и время поездки, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>17 рублей, 2 минуты.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> Появляется кнопка вызова такси.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">На карте отображается точки А и Б, выбранный маршрут, показывается стоимость и время поездки, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>74 рубля, 7 минут.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> Появляется кнопка вызова такси.</t>
+    </r>
+  </si>
+  <si>
+    <t>Выбери время начала поездки 07.58</t>
+  </si>
+  <si>
+    <t>В поле "откуда" введи адрес: "Фрунзенская набережная, 46"</t>
+  </si>
+  <si>
+    <t>В поле "куда" введи адрес "Зубовский бульвар, 37 "</t>
+  </si>
+  <si>
+    <t>Стоимость и время поездки при попадании в два интервала времени рассчитывается по  интервалу, когда поездка была начата (ночь, 07.58)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Стоимость и время поездки при попадании в два интервала времени рассчитывается по  интервалу, когда поездка была начата(утро, 11.55) </t>
+  </si>
+  <si>
+    <t>Выбери время начала поездки 11.55</t>
+  </si>
+  <si>
+    <t>Выбери время начал поездки 17.57</t>
+  </si>
+  <si>
+    <t>Выбери время начала поездки 21.56</t>
+  </si>
+  <si>
+    <t>Стоимость и время поездки при попадании в два интервала времени рассчитывается по  интервалу, когда поездка была начата(день, 17.57)</t>
+  </si>
+  <si>
+    <t>Стоимость и время поездки при попадании в два интервала времени рассчитывается по  интервалу, когда поездка была начата(вечер, 21.56)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">На карте отображается точки А и Б, выбранный маршрут, показывается стоимость и время поездки, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>62 рубля, 6 минут.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> Появляется кнопка вызова такси.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">На карте отображается точки А и Б, выбранный маршрут, показывается стоимость и время поездки, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>89 рублей, 8 минут.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> Появляется кнопка вызова такси.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">На карте отображается точки А и Б, выбранный маршрут, показывается стоимость и время поездки, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>103 рубля, 9 минут.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> Появляется кнопка вызова такси.</t>
+    </r>
+  </si>
+  <si>
+    <t>YR031</t>
+  </si>
+  <si>
+    <t>YR032</t>
+  </si>
+  <si>
+    <t>YR033</t>
+  </si>
+  <si>
+    <t>YR034</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -189,6 +993,19 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -210,7 +1027,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -260,28 +1077,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -294,87 +1089,81 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -759,1313 +1548,3361 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K1075"/>
+  <dimension ref="A1:K1140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.109375" customWidth="1"/>
-    <col min="2" max="2" width="41.109375" customWidth="1"/>
-    <col min="3" max="3" width="43.6640625" customWidth="1"/>
-    <col min="5" max="5" width="44.88671875" customWidth="1"/>
-    <col min="6" max="6" width="25.5546875" customWidth="1"/>
-    <col min="10" max="10" width="15.44140625" customWidth="1"/>
-    <col min="11" max="11" width="29.5546875" customWidth="1"/>
+    <col min="1" max="1" width="13.109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="41.109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="43.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" style="2"/>
+    <col min="5" max="5" width="47.33203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="25.5546875" style="2" customWidth="1"/>
+    <col min="7" max="9" width="14.44140625" style="2"/>
+    <col min="10" max="10" width="15.44140625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="29.5546875" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="14.44140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-    </row>
-    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I2" s="14"/>
-    </row>
-    <row r="3" spans="1:11" ht="47.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="5"/>
+    </row>
+    <row r="3" spans="1:11" ht="47.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="H3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="17" t="s">
+      <c r="I3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="17" t="s">
+      <c r="J3" s="9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
+      <c r="K3" s="3"/>
+    </row>
+    <row r="4" spans="1:11" ht="57.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="10">
         <v>1</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="13">
         <v>1</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="10"/>
-      <c r="I4" s="7" t="s">
+      <c r="H4" s="12"/>
+      <c r="I4" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="J4" s="12" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
+      <c r="K4" s="3"/>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="10"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
-      <c r="D5" s="6">
+      <c r="D5" s="18">
         <v>2</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-    </row>
-    <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="3"/>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="10"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-    </row>
-    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="3"/>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="10"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-    </row>
-    <row r="8" spans="1:11" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="3"/>
+    </row>
+    <row r="8" spans="1:11" ht="61.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="10"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="20" t="s">
+      <c r="E8" s="12"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+    <row r="9" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="18">
+      <c r="C9" s="12"/>
+      <c r="D9" s="13">
         <v>1</v>
       </c>
-      <c r="E9" s="18"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-    </row>
-    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="18">
+      <c r="E9" s="13"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="3"/>
+    </row>
+    <row r="10" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="10"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="13">
         <v>2</v>
       </c>
-      <c r="E10" s="18"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-    </row>
-    <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="18">
+      <c r="E10" s="13"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="3"/>
+    </row>
+    <row r="11" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="10"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="13">
         <v>3</v>
       </c>
-      <c r="E11" s="18"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-    </row>
-    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="18">
+      <c r="E11" s="13"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="3"/>
+    </row>
+    <row r="12" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="10"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="13">
         <v>4</v>
       </c>
-      <c r="E12" s="18"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-    </row>
-    <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="18">
+      <c r="E12" s="13"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="3"/>
+    </row>
+    <row r="13" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="10"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="13">
         <v>5</v>
       </c>
-      <c r="E13" s="18"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-    </row>
-    <row r="14" spans="1:11" ht="45.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="3" t="s">
+      <c r="E13" s="13"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="3"/>
+    </row>
+    <row r="14" spans="1:11" ht="45.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="18">
+      <c r="C14" s="19"/>
+      <c r="D14" s="13">
         <v>1</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="E14" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="3"/>
+    </row>
+    <row r="15" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="19"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="13">
+        <v>2</v>
+      </c>
+      <c r="E15" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-    </row>
-    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="18">
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="3"/>
+    </row>
+    <row r="16" spans="1:11" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="19"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="13">
+        <v>3</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="3"/>
+    </row>
+    <row r="17" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="19"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="13">
+        <v>4</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="3"/>
+    </row>
+    <row r="18" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="19"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="13">
+        <v>5</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="3"/>
+    </row>
+    <row r="19" spans="1:11" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="22"/>
+      <c r="D19" s="13">
+        <v>1</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="3"/>
+    </row>
+    <row r="20" spans="1:11" ht="35.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="22"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="13">
         <v>2</v>
       </c>
-      <c r="E15" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-    </row>
-    <row r="16" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="18">
+      <c r="E20" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F20" s="23"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="3"/>
+    </row>
+    <row r="21" spans="1:11" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="22"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="13">
         <v>3</v>
       </c>
-      <c r="E16" s="18" t="s">
+      <c r="E21" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F21" s="23"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="3"/>
+    </row>
+    <row r="22" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="22"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="13">
+        <v>4</v>
+      </c>
+      <c r="E22" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-    </row>
-    <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="18">
+      <c r="F22" s="23"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="3"/>
+    </row>
+    <row r="23" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="22"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="13">
+        <v>5</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F23" s="23"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="3"/>
+    </row>
+    <row r="24" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="22"/>
+      <c r="D24" s="13">
+        <v>1</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="3"/>
+    </row>
+    <row r="25" spans="1:11" ht="35.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="19"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="13">
+        <v>2</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F25" s="23"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="3"/>
+    </row>
+    <row r="26" spans="1:11" ht="31.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="19"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="13">
+        <v>3</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F26" s="23"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="3"/>
+    </row>
+    <row r="27" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="19"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="13">
         <v>4</v>
       </c>
-      <c r="E17" s="18" t="s">
+      <c r="E27" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F27" s="23"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="3"/>
+    </row>
+    <row r="28" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="19"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="13">
+        <v>5</v>
+      </c>
+      <c r="E28" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-    </row>
-    <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="18">
+      <c r="F28" s="23"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="3"/>
+    </row>
+    <row r="29" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="22"/>
+      <c r="D29" s="13">
+        <v>1</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F29" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="3"/>
+    </row>
+    <row r="30" spans="1:11" ht="31.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="22"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="13">
+        <v>2</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F30" s="23"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="24"/>
+      <c r="J30" s="24"/>
+      <c r="K30" s="3"/>
+    </row>
+    <row r="31" spans="1:11" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="22"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="13">
+        <v>3</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F31" s="23"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="24"/>
+      <c r="J31" s="24"/>
+      <c r="K31" s="3"/>
+    </row>
+    <row r="32" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="22"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="13">
+        <v>4</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F32" s="23"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="24"/>
+      <c r="J32" s="24"/>
+      <c r="K32" s="3"/>
+    </row>
+    <row r="33" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="22"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="13">
         <v>5</v>
       </c>
-      <c r="E18" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-    </row>
-    <row r="19" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="29"/>
-      <c r="B19" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="29"/>
-      <c r="D19" s="18">
+      <c r="E33" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F33" s="23"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="24"/>
+      <c r="J33" s="24"/>
+      <c r="K33" s="3"/>
+    </row>
+    <row r="34" spans="1:11" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="B34" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34" s="22"/>
+      <c r="D34" s="13">
         <v>1</v>
       </c>
-      <c r="E19" s="18" t="s">
+      <c r="E34" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F19" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="23"/>
-    </row>
-    <row r="20" spans="1:10" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="30"/>
-      <c r="B20" s="26"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="18">
+      <c r="F34" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="G34" s="24"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="24"/>
+      <c r="J34" s="24"/>
+      <c r="K34" s="3"/>
+    </row>
+    <row r="35" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="19"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="13">
         <v>2</v>
       </c>
-      <c r="E20" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="F20" s="26"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="23"/>
-    </row>
-    <row r="21" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="30"/>
-      <c r="B21" s="26"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="18">
+      <c r="E35" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F35" s="23"/>
+      <c r="G35" s="24"/>
+      <c r="H35" s="24"/>
+      <c r="I35" s="24"/>
+      <c r="J35" s="24"/>
+      <c r="K35" s="3"/>
+    </row>
+    <row r="36" spans="1:11" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="19"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="13">
         <v>3</v>
       </c>
-      <c r="E21" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="F21" s="26"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="23"/>
-    </row>
-    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="30"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="18">
+      <c r="E36" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F36" s="23"/>
+      <c r="G36" s="24"/>
+      <c r="H36" s="24"/>
+      <c r="I36" s="24"/>
+      <c r="J36" s="24"/>
+      <c r="K36" s="3"/>
+    </row>
+    <row r="37" spans="1:11" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="19"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="13">
         <v>4</v>
       </c>
-      <c r="E22" s="18" t="s">
+      <c r="E37" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F37" s="23"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="24"/>
+      <c r="I37" s="24"/>
+      <c r="J37" s="24"/>
+      <c r="K37" s="3"/>
+    </row>
+    <row r="38" spans="1:11" ht="37.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="19"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="13">
+        <v>5</v>
+      </c>
+      <c r="E38" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F22" s="26"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23"/>
-    </row>
-    <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="28"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="18">
+      <c r="F38" s="23"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="24"/>
+      <c r="J38" s="24"/>
+      <c r="K38" s="3"/>
+    </row>
+    <row r="39" spans="1:11" ht="36.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B39" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C39" s="22"/>
+      <c r="D39" s="13">
+        <v>1</v>
+      </c>
+      <c r="E39" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F39" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="G39" s="24"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="24"/>
+      <c r="J39" s="24"/>
+      <c r="K39" s="3"/>
+    </row>
+    <row r="40" spans="1:11" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="22"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="13">
+        <v>2</v>
+      </c>
+      <c r="E40" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F40" s="23"/>
+      <c r="G40" s="24"/>
+      <c r="H40" s="24"/>
+      <c r="I40" s="24"/>
+      <c r="J40" s="24"/>
+      <c r="K40" s="3"/>
+    </row>
+    <row r="41" spans="1:11" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="22"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="13">
+        <v>3</v>
+      </c>
+      <c r="E41" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F41" s="23"/>
+      <c r="G41" s="24"/>
+      <c r="H41" s="24"/>
+      <c r="I41" s="24"/>
+      <c r="J41" s="24"/>
+      <c r="K41" s="3"/>
+    </row>
+    <row r="42" spans="1:11" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="22"/>
+      <c r="B42" s="23"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="13">
+        <v>4</v>
+      </c>
+      <c r="E42" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F42" s="23"/>
+      <c r="G42" s="24"/>
+      <c r="H42" s="24"/>
+      <c r="I42" s="24"/>
+      <c r="J42" s="24"/>
+      <c r="K42" s="3"/>
+    </row>
+    <row r="43" spans="1:11" ht="32.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="22"/>
+      <c r="B43" s="23"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="13">
         <v>5</v>
       </c>
-      <c r="E23" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="F23" s="27"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="23"/>
-      <c r="J23" s="23"/>
-    </row>
-    <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="21"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="23"/>
-    </row>
-    <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="21"/>
-      <c r="B25" s="22"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="23"/>
-      <c r="J25" s="23"/>
-    </row>
-    <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="21"/>
-      <c r="B26" s="22"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="23"/>
-      <c r="J26" s="23"/>
-    </row>
-    <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="21"/>
-      <c r="B27" s="22"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="23"/>
-    </row>
-    <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="21"/>
-      <c r="B28" s="22"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="23"/>
-      <c r="J28" s="23"/>
-    </row>
-    <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="21"/>
-      <c r="B29" s="22"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="23"/>
-      <c r="I29" s="23"/>
-      <c r="J29" s="23"/>
-    </row>
-    <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="21"/>
-      <c r="B30" s="22"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="23"/>
-      <c r="I30" s="23"/>
-      <c r="J30" s="23"/>
-    </row>
-    <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="21"/>
-      <c r="B31" s="22"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="23"/>
-      <c r="I31" s="23"/>
-      <c r="J31" s="23"/>
-    </row>
-    <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="21"/>
-      <c r="B32" s="22"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="23"/>
-      <c r="I32" s="23"/>
-      <c r="J32" s="23"/>
-    </row>
-    <row r="33" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="21"/>
-      <c r="B33" s="22"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="23"/>
-      <c r="I33" s="23"/>
-      <c r="J33" s="23"/>
-    </row>
-    <row r="34" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="21"/>
-      <c r="B34" s="22"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="23"/>
-      <c r="I34" s="23"/>
-      <c r="J34" s="23"/>
-    </row>
-    <row r="35" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="21"/>
-      <c r="B35" s="22"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="23"/>
-      <c r="I35" s="23"/>
-      <c r="J35" s="23"/>
-    </row>
-    <row r="36" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="21"/>
-      <c r="B36" s="22"/>
-      <c r="C36" s="23"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="23"/>
-      <c r="H36" s="23"/>
-      <c r="I36" s="23"/>
-      <c r="J36" s="23"/>
-    </row>
-    <row r="37" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="21"/>
-      <c r="B37" s="22"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="23"/>
-      <c r="G37" s="23"/>
-      <c r="H37" s="23"/>
-      <c r="I37" s="23"/>
-      <c r="J37" s="23"/>
-    </row>
-    <row r="38" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="21"/>
-      <c r="B38" s="22"/>
-      <c r="C38" s="23"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="23"/>
-      <c r="G38" s="23"/>
-      <c r="H38" s="23"/>
-      <c r="I38" s="23"/>
-      <c r="J38" s="23"/>
-    </row>
-    <row r="39" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="21"/>
-      <c r="B39" s="22"/>
-      <c r="C39" s="23"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="23"/>
-      <c r="H39" s="23"/>
-      <c r="I39" s="23"/>
-      <c r="J39" s="23"/>
-    </row>
-    <row r="40" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="21"/>
-      <c r="B40" s="22"/>
-      <c r="C40" s="23"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="23"/>
-      <c r="G40" s="23"/>
-      <c r="H40" s="23"/>
-      <c r="I40" s="23"/>
-      <c r="J40" s="23"/>
-    </row>
-    <row r="41" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="21"/>
-      <c r="B41" s="22"/>
-      <c r="C41" s="23"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="23"/>
-      <c r="G41" s="23"/>
-      <c r="H41" s="23"/>
-      <c r="I41" s="23"/>
-      <c r="J41" s="23"/>
-    </row>
-    <row r="42" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="21"/>
-      <c r="B42" s="22"/>
-      <c r="C42" s="23"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="23"/>
-      <c r="G42" s="23"/>
-      <c r="H42" s="23"/>
-      <c r="I42" s="23"/>
-      <c r="J42" s="23"/>
-    </row>
-    <row r="43" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="21"/>
-      <c r="B43" s="22"/>
-      <c r="C43" s="23"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="18"/>
+      <c r="E43" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="F43" s="23"/>
-      <c r="G43" s="23"/>
-      <c r="H43" s="23"/>
-      <c r="I43" s="23"/>
-      <c r="J43" s="23"/>
-    </row>
-    <row r="44" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="21"/>
-      <c r="B44" s="22"/>
-      <c r="C44" s="23"/>
-      <c r="D44" s="18"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="23"/>
-      <c r="G44" s="23"/>
-      <c r="H44" s="23"/>
-      <c r="I44" s="23"/>
-      <c r="J44" s="23"/>
-    </row>
-    <row r="45" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="21"/>
-      <c r="B45" s="22"/>
-      <c r="C45" s="23"/>
-      <c r="D45" s="18"/>
-      <c r="E45" s="18"/>
+      <c r="G43" s="24"/>
+      <c r="H43" s="24"/>
+      <c r="I43" s="24"/>
+      <c r="J43" s="24"/>
+      <c r="K43" s="3"/>
+    </row>
+    <row r="44" spans="1:11" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="B44" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="C44" s="22"/>
+      <c r="D44" s="13">
+        <v>1</v>
+      </c>
+      <c r="E44" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F44" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="G44" s="24"/>
+      <c r="H44" s="24"/>
+      <c r="I44" s="24"/>
+      <c r="J44" s="24"/>
+      <c r="K44" s="3"/>
+    </row>
+    <row r="45" spans="1:11" ht="26.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="19"/>
+      <c r="B45" s="23"/>
+      <c r="C45" s="22"/>
+      <c r="D45" s="13">
+        <v>2</v>
+      </c>
+      <c r="E45" s="13" t="s">
+        <v>48</v>
+      </c>
       <c r="F45" s="23"/>
-      <c r="G45" s="23"/>
-      <c r="H45" s="23"/>
-      <c r="I45" s="23"/>
-      <c r="J45" s="23"/>
-    </row>
-    <row r="46" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="21"/>
-      <c r="B46" s="22"/>
-      <c r="C46" s="23"/>
-      <c r="D46" s="18"/>
-      <c r="E46" s="18"/>
+      <c r="G45" s="24"/>
+      <c r="H45" s="24"/>
+      <c r="I45" s="24"/>
+      <c r="J45" s="24"/>
+      <c r="K45" s="3"/>
+    </row>
+    <row r="46" spans="1:11" ht="32.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="19"/>
+      <c r="B46" s="23"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="13">
+        <v>3</v>
+      </c>
+      <c r="E46" s="13" t="s">
+        <v>49</v>
+      </c>
       <c r="F46" s="23"/>
-      <c r="G46" s="23"/>
-      <c r="H46" s="23"/>
-      <c r="I46" s="23"/>
-      <c r="J46" s="23"/>
-    </row>
-    <row r="47" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="21"/>
-      <c r="B47" s="22"/>
-      <c r="C47" s="23"/>
-      <c r="D47" s="18"/>
-      <c r="E47" s="18"/>
+      <c r="G46" s="24"/>
+      <c r="H46" s="24"/>
+      <c r="I46" s="24"/>
+      <c r="J46" s="24"/>
+      <c r="K46" s="3"/>
+    </row>
+    <row r="47" spans="1:11" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="19"/>
+      <c r="B47" s="23"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="13">
+        <v>4</v>
+      </c>
+      <c r="E47" s="13" t="s">
+        <v>39</v>
+      </c>
       <c r="F47" s="23"/>
-      <c r="G47" s="23"/>
-      <c r="H47" s="23"/>
-      <c r="I47" s="23"/>
-      <c r="J47" s="23"/>
-    </row>
-    <row r="48" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="21"/>
-      <c r="B48" s="22"/>
-      <c r="C48" s="23"/>
-      <c r="D48" s="18"/>
-      <c r="E48" s="18"/>
+      <c r="G47" s="24"/>
+      <c r="H47" s="24"/>
+      <c r="I47" s="24"/>
+      <c r="J47" s="24"/>
+      <c r="K47" s="3"/>
+    </row>
+    <row r="48" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="19"/>
+      <c r="B48" s="23"/>
+      <c r="C48" s="22"/>
+      <c r="D48" s="13">
+        <v>5</v>
+      </c>
+      <c r="E48" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="F48" s="23"/>
-      <c r="G48" s="23"/>
-      <c r="H48" s="23"/>
-      <c r="I48" s="23"/>
-      <c r="J48" s="23"/>
-    </row>
-    <row r="49" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="21"/>
-      <c r="B49" s="22"/>
-      <c r="C49" s="23"/>
-      <c r="D49" s="18"/>
-      <c r="E49" s="18"/>
-      <c r="F49" s="23"/>
-      <c r="G49" s="23"/>
-      <c r="H49" s="23"/>
-      <c r="I49" s="23"/>
-      <c r="J49" s="23"/>
-    </row>
-    <row r="50" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="21"/>
-      <c r="B50" s="22"/>
-      <c r="C50" s="23"/>
-      <c r="D50" s="18"/>
-      <c r="E50" s="18"/>
+      <c r="G48" s="24"/>
+      <c r="H48" s="24"/>
+      <c r="I48" s="24"/>
+      <c r="J48" s="24"/>
+      <c r="K48" s="3"/>
+    </row>
+    <row r="49" spans="1:11" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="B49" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C49" s="22"/>
+      <c r="D49" s="13">
+        <v>1</v>
+      </c>
+      <c r="E49" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F49" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="G49" s="24"/>
+      <c r="H49" s="24"/>
+      <c r="I49" s="24"/>
+      <c r="J49" s="24"/>
+      <c r="K49" s="3"/>
+    </row>
+    <row r="50" spans="1:11" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="22"/>
+      <c r="B50" s="23"/>
+      <c r="C50" s="22"/>
+      <c r="D50" s="13">
+        <v>2</v>
+      </c>
+      <c r="E50" s="13" t="s">
+        <v>38</v>
+      </c>
       <c r="F50" s="23"/>
-      <c r="G50" s="23"/>
-      <c r="H50" s="23"/>
-      <c r="I50" s="23"/>
-      <c r="J50" s="23"/>
-    </row>
-    <row r="51" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="21"/>
-      <c r="B51" s="22"/>
-      <c r="C51" s="23"/>
-      <c r="D51" s="18"/>
-      <c r="E51" s="18"/>
+      <c r="G50" s="24"/>
+      <c r="H50" s="24"/>
+      <c r="I50" s="24"/>
+      <c r="J50" s="24"/>
+      <c r="K50" s="3"/>
+    </row>
+    <row r="51" spans="1:11" ht="32.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="22"/>
+      <c r="B51" s="23"/>
+      <c r="C51" s="22"/>
+      <c r="D51" s="13">
+        <v>3</v>
+      </c>
+      <c r="E51" s="13" t="s">
+        <v>49</v>
+      </c>
       <c r="F51" s="23"/>
-      <c r="G51" s="23"/>
-      <c r="H51" s="23"/>
-      <c r="I51" s="23"/>
-      <c r="J51" s="23"/>
-    </row>
-    <row r="52" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="21"/>
-      <c r="B52" s="22"/>
-      <c r="C52" s="23"/>
-      <c r="D52" s="18"/>
-      <c r="E52" s="18"/>
+      <c r="G51" s="24"/>
+      <c r="H51" s="24"/>
+      <c r="I51" s="24"/>
+      <c r="J51" s="24"/>
+      <c r="K51" s="3"/>
+    </row>
+    <row r="52" spans="1:11" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="22"/>
+      <c r="B52" s="23"/>
+      <c r="C52" s="22"/>
+      <c r="D52" s="13">
+        <v>4</v>
+      </c>
+      <c r="E52" s="13" t="s">
+        <v>39</v>
+      </c>
       <c r="F52" s="23"/>
-      <c r="G52" s="23"/>
-      <c r="H52" s="23"/>
-      <c r="I52" s="23"/>
-      <c r="J52" s="23"/>
-    </row>
-    <row r="53" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="21"/>
-      <c r="B53" s="22"/>
-      <c r="C53" s="23"/>
-      <c r="D53" s="18"/>
-      <c r="E53" s="18"/>
+      <c r="G52" s="24"/>
+      <c r="H52" s="24"/>
+      <c r="I52" s="24"/>
+      <c r="J52" s="24"/>
+      <c r="K52" s="3"/>
+    </row>
+    <row r="53" spans="1:11" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="22"/>
+      <c r="B53" s="23"/>
+      <c r="C53" s="22"/>
+      <c r="D53" s="13">
+        <v>5</v>
+      </c>
+      <c r="E53" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="F53" s="23"/>
-      <c r="G53" s="23"/>
-      <c r="H53" s="23"/>
-      <c r="I53" s="23"/>
-      <c r="J53" s="23"/>
-    </row>
-    <row r="54" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="21"/>
-      <c r="B54" s="22"/>
-      <c r="C54" s="23"/>
-      <c r="D54" s="18"/>
-      <c r="E54" s="18"/>
-      <c r="F54" s="23"/>
-      <c r="G54" s="23"/>
-      <c r="H54" s="23"/>
-      <c r="I54" s="23"/>
-      <c r="J54" s="23"/>
-    </row>
-    <row r="55" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="21"/>
-      <c r="B55" s="22"/>
-      <c r="C55" s="23"/>
-      <c r="D55" s="18"/>
-      <c r="E55" s="18"/>
+      <c r="G53" s="24"/>
+      <c r="H53" s="24"/>
+      <c r="I53" s="24"/>
+      <c r="J53" s="24"/>
+      <c r="K53" s="3"/>
+    </row>
+    <row r="54" spans="1:11" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="B54" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="C54" s="22"/>
+      <c r="D54" s="13">
+        <v>1</v>
+      </c>
+      <c r="E54" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F54" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="G54" s="24"/>
+      <c r="H54" s="24"/>
+      <c r="I54" s="24"/>
+      <c r="J54" s="24"/>
+      <c r="K54" s="3"/>
+    </row>
+    <row r="55" spans="1:11" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="19"/>
+      <c r="B55" s="23"/>
+      <c r="C55" s="22"/>
+      <c r="D55" s="13">
+        <v>2</v>
+      </c>
+      <c r="E55" s="13" t="s">
+        <v>50</v>
+      </c>
       <c r="F55" s="23"/>
-      <c r="G55" s="23"/>
-      <c r="H55" s="23"/>
-      <c r="I55" s="23"/>
-      <c r="J55" s="23"/>
-    </row>
-    <row r="56" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="21"/>
-      <c r="B56" s="22"/>
-      <c r="C56" s="23"/>
-      <c r="D56" s="18"/>
-      <c r="E56" s="18"/>
+      <c r="G55" s="24"/>
+      <c r="H55" s="24"/>
+      <c r="I55" s="24"/>
+      <c r="J55" s="24"/>
+      <c r="K55" s="3"/>
+    </row>
+    <row r="56" spans="1:11" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="19"/>
+      <c r="B56" s="23"/>
+      <c r="C56" s="22"/>
+      <c r="D56" s="13">
+        <v>3</v>
+      </c>
+      <c r="E56" s="13" t="s">
+        <v>37</v>
+      </c>
       <c r="F56" s="23"/>
-      <c r="G56" s="23"/>
-      <c r="H56" s="23"/>
-      <c r="I56" s="23"/>
-      <c r="J56" s="23"/>
-    </row>
-    <row r="57" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="21"/>
-      <c r="B57" s="22"/>
-      <c r="C57" s="23"/>
-      <c r="D57" s="18"/>
-      <c r="E57" s="18"/>
+      <c r="G56" s="24"/>
+      <c r="H56" s="24"/>
+      <c r="I56" s="24"/>
+      <c r="J56" s="24"/>
+      <c r="K56" s="3"/>
+    </row>
+    <row r="57" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="19"/>
+      <c r="B57" s="23"/>
+      <c r="C57" s="22"/>
+      <c r="D57" s="13">
+        <v>4</v>
+      </c>
+      <c r="E57" s="13" t="s">
+        <v>39</v>
+      </c>
       <c r="F57" s="23"/>
-      <c r="G57" s="23"/>
-      <c r="H57" s="23"/>
-      <c r="I57" s="23"/>
-      <c r="J57" s="23"/>
-    </row>
-    <row r="58" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="21"/>
-      <c r="B58" s="22"/>
-      <c r="C58" s="23"/>
-      <c r="D58" s="18"/>
-      <c r="E58" s="18"/>
+      <c r="G57" s="24"/>
+      <c r="H57" s="24"/>
+      <c r="I57" s="24"/>
+      <c r="J57" s="24"/>
+      <c r="K57" s="3"/>
+    </row>
+    <row r="58" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="19"/>
+      <c r="B58" s="23"/>
+      <c r="C58" s="22"/>
+      <c r="D58" s="13">
+        <v>5</v>
+      </c>
+      <c r="E58" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="F58" s="23"/>
-      <c r="G58" s="23"/>
-      <c r="H58" s="23"/>
-      <c r="I58" s="23"/>
-      <c r="J58" s="23"/>
-    </row>
-    <row r="59" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="21"/>
-      <c r="B59" s="22"/>
-      <c r="C59" s="23"/>
-      <c r="D59" s="18"/>
-      <c r="E59" s="18"/>
-      <c r="F59" s="23"/>
-      <c r="G59" s="23"/>
-      <c r="H59" s="23"/>
-      <c r="I59" s="23"/>
-      <c r="J59" s="23"/>
-    </row>
-    <row r="60" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="21"/>
-      <c r="B60" s="22"/>
-      <c r="C60" s="23"/>
-      <c r="D60" s="18"/>
-      <c r="E60" s="18"/>
+      <c r="G58" s="24"/>
+      <c r="H58" s="24"/>
+      <c r="I58" s="24"/>
+      <c r="J58" s="24"/>
+      <c r="K58" s="3"/>
+    </row>
+    <row r="59" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="B59" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="C59" s="22"/>
+      <c r="D59" s="13">
+        <v>1</v>
+      </c>
+      <c r="E59" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F59" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="G59" s="24"/>
+      <c r="H59" s="24"/>
+      <c r="I59" s="24"/>
+      <c r="J59" s="24"/>
+      <c r="K59" s="3"/>
+    </row>
+    <row r="60" spans="1:11" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="22"/>
+      <c r="B60" s="23"/>
+      <c r="C60" s="22"/>
+      <c r="D60" s="13">
+        <v>2</v>
+      </c>
+      <c r="E60" s="13" t="s">
+        <v>48</v>
+      </c>
       <c r="F60" s="23"/>
-      <c r="G60" s="23"/>
-      <c r="H60" s="23"/>
-      <c r="I60" s="23"/>
-      <c r="J60" s="23"/>
-    </row>
-    <row r="61" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="21"/>
-      <c r="B61" s="22"/>
-      <c r="C61" s="23"/>
-      <c r="D61" s="18"/>
-      <c r="E61" s="18"/>
+      <c r="G60" s="24"/>
+      <c r="H60" s="24"/>
+      <c r="I60" s="24"/>
+      <c r="J60" s="24"/>
+      <c r="K60" s="3"/>
+    </row>
+    <row r="61" spans="1:11" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="22"/>
+      <c r="B61" s="23"/>
+      <c r="C61" s="22"/>
+      <c r="D61" s="13">
+        <v>3</v>
+      </c>
+      <c r="E61" s="13" t="s">
+        <v>51</v>
+      </c>
       <c r="F61" s="23"/>
-      <c r="G61" s="23"/>
-      <c r="H61" s="23"/>
-      <c r="I61" s="23"/>
-      <c r="J61" s="23"/>
-    </row>
-    <row r="62" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="21"/>
-      <c r="B62" s="22"/>
-      <c r="C62" s="23"/>
-      <c r="D62" s="18"/>
-      <c r="E62" s="18"/>
+      <c r="G61" s="24"/>
+      <c r="H61" s="24"/>
+      <c r="I61" s="24"/>
+      <c r="J61" s="24"/>
+      <c r="K61" s="3"/>
+    </row>
+    <row r="62" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="22"/>
+      <c r="B62" s="23"/>
+      <c r="C62" s="22"/>
+      <c r="D62" s="13">
+        <v>4</v>
+      </c>
+      <c r="E62" s="13" t="s">
+        <v>39</v>
+      </c>
       <c r="F62" s="23"/>
-      <c r="G62" s="23"/>
-      <c r="H62" s="23"/>
-      <c r="I62" s="23"/>
-      <c r="J62" s="23"/>
-    </row>
-    <row r="63" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="21"/>
-      <c r="B63" s="22"/>
-      <c r="C63" s="23"/>
-      <c r="D63" s="18"/>
-      <c r="E63" s="18"/>
+      <c r="G62" s="24"/>
+      <c r="H62" s="24"/>
+      <c r="I62" s="24"/>
+      <c r="J62" s="24"/>
+      <c r="K62" s="3"/>
+    </row>
+    <row r="63" spans="1:11" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="22"/>
+      <c r="B63" s="23"/>
+      <c r="C63" s="22"/>
+      <c r="D63" s="13">
+        <v>5</v>
+      </c>
+      <c r="E63" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="F63" s="23"/>
-      <c r="G63" s="23"/>
-      <c r="H63" s="23"/>
-      <c r="I63" s="23"/>
-      <c r="J63" s="23"/>
-    </row>
-    <row r="64" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="21"/>
-      <c r="B64" s="22"/>
-      <c r="C64" s="23"/>
-      <c r="D64" s="18"/>
-      <c r="E64" s="18"/>
-      <c r="F64" s="23"/>
-      <c r="G64" s="23"/>
-      <c r="H64" s="23"/>
-      <c r="I64" s="23"/>
-      <c r="J64" s="23"/>
-    </row>
-    <row r="65" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="21"/>
-      <c r="B65" s="22"/>
-      <c r="C65" s="23"/>
-      <c r="D65" s="18"/>
-      <c r="E65" s="18"/>
+      <c r="G63" s="24"/>
+      <c r="H63" s="24"/>
+      <c r="I63" s="24"/>
+      <c r="J63" s="24"/>
+      <c r="K63" s="3"/>
+    </row>
+    <row r="64" spans="1:11" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="B64" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C64" s="22"/>
+      <c r="D64" s="13">
+        <v>1</v>
+      </c>
+      <c r="E64" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F64" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="G64" s="24"/>
+      <c r="H64" s="24"/>
+      <c r="I64" s="24"/>
+      <c r="J64" s="24"/>
+      <c r="K64" s="3"/>
+    </row>
+    <row r="65" spans="1:11" ht="26.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="19"/>
+      <c r="B65" s="23"/>
+      <c r="C65" s="22"/>
+      <c r="D65" s="13">
+        <v>2</v>
+      </c>
+      <c r="E65" s="13" t="s">
+        <v>54</v>
+      </c>
       <c r="F65" s="23"/>
-      <c r="G65" s="23"/>
-      <c r="H65" s="23"/>
-      <c r="I65" s="23"/>
-      <c r="J65" s="23"/>
-    </row>
-    <row r="66" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="21"/>
-      <c r="B66" s="22"/>
-      <c r="C66" s="23"/>
-      <c r="D66" s="18"/>
-      <c r="E66" s="18"/>
+      <c r="G65" s="24"/>
+      <c r="H65" s="24"/>
+      <c r="I65" s="24"/>
+      <c r="J65" s="24"/>
+      <c r="K65" s="3"/>
+    </row>
+    <row r="66" spans="1:11" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="19"/>
+      <c r="B66" s="23"/>
+      <c r="C66" s="22"/>
+      <c r="D66" s="13">
+        <v>3</v>
+      </c>
+      <c r="E66" s="13" t="s">
+        <v>55</v>
+      </c>
       <c r="F66" s="23"/>
-      <c r="G66" s="23"/>
-      <c r="H66" s="23"/>
-      <c r="I66" s="23"/>
-      <c r="J66" s="23"/>
-    </row>
-    <row r="67" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="21"/>
-      <c r="B67" s="22"/>
-      <c r="C67" s="23"/>
-      <c r="D67" s="18"/>
-      <c r="E67" s="18"/>
+      <c r="G66" s="24"/>
+      <c r="H66" s="24"/>
+      <c r="I66" s="24"/>
+      <c r="J66" s="24"/>
+      <c r="K66" s="3"/>
+    </row>
+    <row r="67" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="19"/>
+      <c r="B67" s="23"/>
+      <c r="C67" s="22"/>
+      <c r="D67" s="13">
+        <v>4</v>
+      </c>
+      <c r="E67" s="13" t="s">
+        <v>39</v>
+      </c>
       <c r="F67" s="23"/>
-      <c r="G67" s="23"/>
-      <c r="H67" s="23"/>
-      <c r="I67" s="23"/>
-      <c r="J67" s="23"/>
-    </row>
-    <row r="68" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="21"/>
-      <c r="B68" s="22"/>
-      <c r="C68" s="23"/>
-      <c r="D68" s="18"/>
-      <c r="E68" s="18"/>
+      <c r="G67" s="24"/>
+      <c r="H67" s="24"/>
+      <c r="I67" s="24"/>
+      <c r="J67" s="24"/>
+      <c r="K67" s="3"/>
+    </row>
+    <row r="68" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="19"/>
+      <c r="B68" s="23"/>
+      <c r="C68" s="22"/>
+      <c r="D68" s="13">
+        <v>5</v>
+      </c>
+      <c r="E68" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="F68" s="23"/>
-      <c r="G68" s="23"/>
-      <c r="H68" s="23"/>
-      <c r="I68" s="23"/>
-      <c r="J68" s="23"/>
-    </row>
-    <row r="69" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="21"/>
-      <c r="B69" s="22"/>
-      <c r="C69" s="23"/>
-      <c r="D69" s="18"/>
-      <c r="E69" s="18"/>
-      <c r="F69" s="23"/>
-      <c r="G69" s="23"/>
-      <c r="H69" s="23"/>
-      <c r="I69" s="23"/>
-      <c r="J69" s="23"/>
-    </row>
-    <row r="70" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="21"/>
-      <c r="B70" s="22"/>
-      <c r="C70" s="23"/>
-      <c r="D70" s="18"/>
-      <c r="E70" s="18"/>
+      <c r="G68" s="24"/>
+      <c r="H68" s="24"/>
+      <c r="I68" s="24"/>
+      <c r="J68" s="24"/>
+      <c r="K68" s="3"/>
+    </row>
+    <row r="69" spans="1:11" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="B69" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="C69" s="22"/>
+      <c r="D69" s="13">
+        <v>1</v>
+      </c>
+      <c r="E69" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="F69" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="G69" s="24"/>
+      <c r="H69" s="24"/>
+      <c r="I69" s="24"/>
+      <c r="J69" s="24"/>
+      <c r="K69" s="3"/>
+    </row>
+    <row r="70" spans="1:11" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="22"/>
+      <c r="B70" s="23"/>
+      <c r="C70" s="22"/>
+      <c r="D70" s="13">
+        <v>2</v>
+      </c>
+      <c r="E70" s="13" t="s">
+        <v>54</v>
+      </c>
       <c r="F70" s="23"/>
-      <c r="G70" s="23"/>
-      <c r="H70" s="23"/>
-      <c r="I70" s="23"/>
-      <c r="J70" s="23"/>
-    </row>
-    <row r="71" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="21"/>
-      <c r="B71" s="22"/>
-      <c r="C71" s="23"/>
-      <c r="D71" s="18"/>
-      <c r="E71" s="18"/>
+      <c r="G70" s="24"/>
+      <c r="H70" s="24"/>
+      <c r="I70" s="24"/>
+      <c r="J70" s="24"/>
+      <c r="K70" s="3"/>
+    </row>
+    <row r="71" spans="1:11" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="22"/>
+      <c r="B71" s="23"/>
+      <c r="C71" s="22"/>
+      <c r="D71" s="13">
+        <v>3</v>
+      </c>
+      <c r="E71" s="13" t="s">
+        <v>55</v>
+      </c>
       <c r="F71" s="23"/>
-      <c r="G71" s="23"/>
-      <c r="H71" s="23"/>
-      <c r="I71" s="23"/>
-      <c r="J71" s="23"/>
-    </row>
-    <row r="72" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="21"/>
-      <c r="B72" s="22"/>
-      <c r="C72" s="23"/>
-      <c r="D72" s="18"/>
-      <c r="E72" s="18"/>
+      <c r="G71" s="24"/>
+      <c r="H71" s="24"/>
+      <c r="I71" s="24"/>
+      <c r="J71" s="24"/>
+      <c r="K71" s="3"/>
+    </row>
+    <row r="72" spans="1:11" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="22"/>
+      <c r="B72" s="23"/>
+      <c r="C72" s="22"/>
+      <c r="D72" s="13">
+        <v>4</v>
+      </c>
+      <c r="E72" s="13" t="s">
+        <v>39</v>
+      </c>
       <c r="F72" s="23"/>
-      <c r="G72" s="23"/>
-      <c r="H72" s="23"/>
-      <c r="I72" s="23"/>
-      <c r="J72" s="23"/>
-    </row>
-    <row r="73" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="21"/>
-      <c r="B73" s="22"/>
-      <c r="C73" s="23"/>
-      <c r="D73" s="18"/>
-      <c r="E73" s="18"/>
+      <c r="G72" s="24"/>
+      <c r="H72" s="24"/>
+      <c r="I72" s="24"/>
+      <c r="J72" s="24"/>
+      <c r="K72" s="3"/>
+    </row>
+    <row r="73" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="22"/>
+      <c r="B73" s="23"/>
+      <c r="C73" s="22"/>
+      <c r="D73" s="13">
+        <v>5</v>
+      </c>
+      <c r="E73" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="F73" s="23"/>
-      <c r="G73" s="23"/>
-      <c r="H73" s="23"/>
-      <c r="I73" s="23"/>
-      <c r="J73" s="23"/>
-    </row>
-    <row r="74" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="21"/>
-      <c r="B74" s="22"/>
-      <c r="C74" s="23"/>
-      <c r="D74" s="18"/>
-      <c r="E74" s="18"/>
-      <c r="F74" s="23"/>
-      <c r="G74" s="23"/>
-      <c r="H74" s="23"/>
-      <c r="I74" s="23"/>
-      <c r="J74" s="23"/>
-    </row>
-    <row r="75" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="21"/>
-      <c r="B75" s="22"/>
-      <c r="C75" s="23"/>
-      <c r="D75" s="18"/>
-      <c r="E75" s="18"/>
+      <c r="G73" s="24"/>
+      <c r="H73" s="24"/>
+      <c r="I73" s="24"/>
+      <c r="J73" s="24"/>
+      <c r="K73" s="3"/>
+    </row>
+    <row r="74" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="B74" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="C74" s="22"/>
+      <c r="D74" s="13">
+        <v>1</v>
+      </c>
+      <c r="E74" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="F74" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="G74" s="24"/>
+      <c r="H74" s="24"/>
+      <c r="I74" s="24"/>
+      <c r="J74" s="24"/>
+      <c r="K74" s="3"/>
+    </row>
+    <row r="75" spans="1:11" ht="35.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="19"/>
+      <c r="B75" s="23"/>
+      <c r="C75" s="22"/>
+      <c r="D75" s="13">
+        <v>2</v>
+      </c>
+      <c r="E75" s="13" t="s">
+        <v>54</v>
+      </c>
       <c r="F75" s="23"/>
-      <c r="G75" s="23"/>
-      <c r="H75" s="23"/>
-      <c r="I75" s="23"/>
-      <c r="J75" s="23"/>
-    </row>
-    <row r="76" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="21"/>
-      <c r="B76" s="22"/>
-      <c r="C76" s="23"/>
-      <c r="D76" s="18"/>
-      <c r="E76" s="18"/>
+      <c r="G75" s="24"/>
+      <c r="H75" s="24"/>
+      <c r="I75" s="24"/>
+      <c r="J75" s="24"/>
+      <c r="K75" s="3"/>
+    </row>
+    <row r="76" spans="1:11" ht="31.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="19"/>
+      <c r="B76" s="23"/>
+      <c r="C76" s="22"/>
+      <c r="D76" s="13">
+        <v>3</v>
+      </c>
+      <c r="E76" s="13" t="s">
+        <v>55</v>
+      </c>
       <c r="F76" s="23"/>
-      <c r="G76" s="23"/>
-      <c r="H76" s="23"/>
-      <c r="I76" s="23"/>
-      <c r="J76" s="23"/>
-    </row>
-    <row r="77" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="21"/>
-      <c r="B77" s="22"/>
-      <c r="C77" s="23"/>
-      <c r="D77" s="18"/>
-      <c r="E77" s="18"/>
+      <c r="G76" s="24"/>
+      <c r="H76" s="24"/>
+      <c r="I76" s="24"/>
+      <c r="J76" s="24"/>
+      <c r="K76" s="3"/>
+    </row>
+    <row r="77" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="19"/>
+      <c r="B77" s="23"/>
+      <c r="C77" s="22"/>
+      <c r="D77" s="13">
+        <v>4</v>
+      </c>
+      <c r="E77" s="13" t="s">
+        <v>39</v>
+      </c>
       <c r="F77" s="23"/>
-      <c r="G77" s="23"/>
-      <c r="H77" s="23"/>
-      <c r="I77" s="23"/>
-      <c r="J77" s="23"/>
-    </row>
-    <row r="78" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="21"/>
-      <c r="B78" s="22"/>
-      <c r="C78" s="23"/>
-      <c r="D78" s="18"/>
-      <c r="E78" s="18"/>
+      <c r="G77" s="24"/>
+      <c r="H77" s="24"/>
+      <c r="I77" s="24"/>
+      <c r="J77" s="24"/>
+      <c r="K77" s="3"/>
+    </row>
+    <row r="78" spans="1:11" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="19"/>
+      <c r="B78" s="23"/>
+      <c r="C78" s="22"/>
+      <c r="D78" s="13">
+        <v>5</v>
+      </c>
+      <c r="E78" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="F78" s="23"/>
-      <c r="G78" s="23"/>
-      <c r="H78" s="23"/>
-      <c r="I78" s="23"/>
-      <c r="J78" s="23"/>
-    </row>
-    <row r="79" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="21"/>
-      <c r="B79" s="22"/>
-      <c r="C79" s="23"/>
-      <c r="D79" s="18"/>
-      <c r="E79" s="18"/>
-      <c r="F79" s="23"/>
-      <c r="G79" s="23"/>
-      <c r="H79" s="23"/>
-      <c r="I79" s="23"/>
-      <c r="J79" s="23"/>
-    </row>
-    <row r="80" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="21"/>
-      <c r="B80" s="22"/>
-      <c r="C80" s="23"/>
-      <c r="D80" s="18"/>
-      <c r="E80" s="18"/>
+      <c r="G78" s="24"/>
+      <c r="H78" s="24"/>
+      <c r="I78" s="24"/>
+      <c r="J78" s="24"/>
+      <c r="K78" s="3"/>
+    </row>
+    <row r="79" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="B79" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="C79" s="22"/>
+      <c r="D79" s="13">
+        <v>1</v>
+      </c>
+      <c r="E79" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="F79" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="G79" s="24"/>
+      <c r="H79" s="24"/>
+      <c r="I79" s="24"/>
+      <c r="J79" s="24"/>
+      <c r="K79" s="3"/>
+    </row>
+    <row r="80" spans="1:11" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="22"/>
+      <c r="B80" s="23"/>
+      <c r="C80" s="22"/>
+      <c r="D80" s="13">
+        <v>2</v>
+      </c>
+      <c r="E80" s="13" t="s">
+        <v>54</v>
+      </c>
       <c r="F80" s="23"/>
-      <c r="G80" s="23"/>
-      <c r="H80" s="23"/>
-      <c r="I80" s="23"/>
-      <c r="J80" s="23"/>
-    </row>
-    <row r="81" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="21"/>
-      <c r="B81" s="22"/>
-      <c r="C81" s="23"/>
-      <c r="D81" s="18"/>
-      <c r="E81" s="18"/>
+      <c r="G80" s="24"/>
+      <c r="H80" s="24"/>
+      <c r="I80" s="24"/>
+      <c r="J80" s="24"/>
+      <c r="K80" s="3"/>
+    </row>
+    <row r="81" spans="1:11" ht="31.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="22"/>
+      <c r="B81" s="23"/>
+      <c r="C81" s="22"/>
+      <c r="D81" s="13">
+        <v>3</v>
+      </c>
+      <c r="E81" s="13" t="s">
+        <v>55</v>
+      </c>
       <c r="F81" s="23"/>
-      <c r="G81" s="23"/>
-      <c r="H81" s="23"/>
-      <c r="I81" s="23"/>
-      <c r="J81" s="23"/>
-    </row>
-    <row r="82" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="21"/>
-      <c r="B82" s="22"/>
-      <c r="C82" s="23"/>
-      <c r="D82" s="18"/>
-      <c r="E82" s="18"/>
+      <c r="G81" s="24"/>
+      <c r="H81" s="24"/>
+      <c r="I81" s="24"/>
+      <c r="J81" s="24"/>
+      <c r="K81" s="3"/>
+    </row>
+    <row r="82" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="22"/>
+      <c r="B82" s="23"/>
+      <c r="C82" s="22"/>
+      <c r="D82" s="13">
+        <v>4</v>
+      </c>
+      <c r="E82" s="13" t="s">
+        <v>39</v>
+      </c>
       <c r="F82" s="23"/>
-      <c r="G82" s="23"/>
-      <c r="H82" s="23"/>
-      <c r="I82" s="23"/>
-      <c r="J82" s="23"/>
-    </row>
-    <row r="83" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="21"/>
-      <c r="B83" s="22"/>
-      <c r="C83" s="23"/>
-      <c r="D83" s="18"/>
-      <c r="E83" s="18"/>
+      <c r="G82" s="24"/>
+      <c r="H82" s="24"/>
+      <c r="I82" s="24"/>
+      <c r="J82" s="24"/>
+      <c r="K82" s="3"/>
+    </row>
+    <row r="83" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="22"/>
+      <c r="B83" s="23"/>
+      <c r="C83" s="22"/>
+      <c r="D83" s="13">
+        <v>5</v>
+      </c>
+      <c r="E83" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="F83" s="23"/>
-      <c r="G83" s="23"/>
-      <c r="H83" s="23"/>
-      <c r="I83" s="23"/>
-      <c r="J83" s="23"/>
-    </row>
-    <row r="84" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="21"/>
-      <c r="B84" s="22"/>
-      <c r="C84" s="23"/>
-      <c r="D84" s="18"/>
-      <c r="E84" s="18"/>
-      <c r="F84" s="23"/>
-      <c r="G84" s="23"/>
-      <c r="H84" s="23"/>
-      <c r="I84" s="23"/>
-      <c r="J84" s="23"/>
-    </row>
-    <row r="85" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="21"/>
-      <c r="B85" s="22"/>
-      <c r="C85" s="23"/>
-      <c r="D85" s="18"/>
-      <c r="E85" s="18"/>
+      <c r="G83" s="24"/>
+      <c r="H83" s="24"/>
+      <c r="I83" s="24"/>
+      <c r="J83" s="24"/>
+      <c r="K83" s="3"/>
+    </row>
+    <row r="84" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="B84" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="C84" s="22"/>
+      <c r="D84" s="13">
+        <v>1</v>
+      </c>
+      <c r="E84" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="F84" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="G84" s="24"/>
+      <c r="H84" s="24"/>
+      <c r="I84" s="24"/>
+      <c r="J84" s="24"/>
+      <c r="K84" s="3"/>
+    </row>
+    <row r="85" spans="1:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="19"/>
+      <c r="B85" s="23"/>
+      <c r="C85" s="22"/>
+      <c r="D85" s="13">
+        <v>2</v>
+      </c>
+      <c r="E85" s="13" t="s">
+        <v>54</v>
+      </c>
       <c r="F85" s="23"/>
-      <c r="G85" s="23"/>
-      <c r="H85" s="23"/>
-      <c r="I85" s="23"/>
-      <c r="J85" s="23"/>
-    </row>
-    <row r="86" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="21"/>
-      <c r="B86" s="22"/>
-      <c r="C86" s="23"/>
-      <c r="D86" s="18"/>
-      <c r="E86" s="18"/>
+      <c r="G85" s="24"/>
+      <c r="H85" s="24"/>
+      <c r="I85" s="24"/>
+      <c r="J85" s="24"/>
+      <c r="K85" s="3"/>
+    </row>
+    <row r="86" spans="1:11" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="19"/>
+      <c r="B86" s="23"/>
+      <c r="C86" s="22"/>
+      <c r="D86" s="13">
+        <v>3</v>
+      </c>
+      <c r="E86" s="13" t="s">
+        <v>55</v>
+      </c>
       <c r="F86" s="23"/>
-      <c r="G86" s="23"/>
-      <c r="H86" s="23"/>
-      <c r="I86" s="23"/>
-      <c r="J86" s="23"/>
-    </row>
-    <row r="87" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="21"/>
-      <c r="B87" s="22"/>
-      <c r="C87" s="23"/>
-      <c r="D87" s="18"/>
-      <c r="E87" s="18"/>
+      <c r="G86" s="24"/>
+      <c r="H86" s="24"/>
+      <c r="I86" s="24"/>
+      <c r="J86" s="24"/>
+      <c r="K86" s="3"/>
+    </row>
+    <row r="87" spans="1:11" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="19"/>
+      <c r="B87" s="23"/>
+      <c r="C87" s="22"/>
+      <c r="D87" s="13">
+        <v>4</v>
+      </c>
+      <c r="E87" s="13" t="s">
+        <v>39</v>
+      </c>
       <c r="F87" s="23"/>
-      <c r="G87" s="23"/>
-      <c r="H87" s="23"/>
-      <c r="I87" s="23"/>
-      <c r="J87" s="23"/>
-    </row>
-    <row r="88" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="21"/>
-      <c r="B88" s="22"/>
-      <c r="C88" s="23"/>
-      <c r="D88" s="18"/>
-      <c r="E88" s="18"/>
+      <c r="G87" s="24"/>
+      <c r="H87" s="24"/>
+      <c r="I87" s="24"/>
+      <c r="J87" s="24"/>
+      <c r="K87" s="3"/>
+    </row>
+    <row r="88" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="19"/>
+      <c r="B88" s="23"/>
+      <c r="C88" s="22"/>
+      <c r="D88" s="13">
+        <v>5</v>
+      </c>
+      <c r="E88" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="F88" s="23"/>
-      <c r="G88" s="23"/>
-      <c r="H88" s="23"/>
-      <c r="I88" s="23"/>
-      <c r="J88" s="23"/>
-    </row>
-    <row r="89" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E89" s="24"/>
-    </row>
-    <row r="90" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" spans="1:10" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="B95" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="C95" s="14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="B96" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="C96" s="14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="97" spans="2:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="B97" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="C97" s="14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="98" spans="2:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="B98" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="C98" s="14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="99" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="102" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="103" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="105" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="106" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="108" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="109" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="G88" s="24"/>
+      <c r="H88" s="24"/>
+      <c r="I88" s="24"/>
+      <c r="J88" s="24"/>
+      <c r="K88" s="3"/>
+    </row>
+    <row r="89" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="B89" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="C89" s="22"/>
+      <c r="D89" s="13">
+        <v>1</v>
+      </c>
+      <c r="E89" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="F89" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="G89" s="24"/>
+      <c r="H89" s="24"/>
+      <c r="I89" s="24"/>
+      <c r="J89" s="24"/>
+      <c r="K89" s="3"/>
+    </row>
+    <row r="90" spans="1:11" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="22"/>
+      <c r="B90" s="23"/>
+      <c r="C90" s="22"/>
+      <c r="D90" s="13">
+        <v>2</v>
+      </c>
+      <c r="E90" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F90" s="23"/>
+      <c r="G90" s="24"/>
+      <c r="H90" s="24"/>
+      <c r="I90" s="24"/>
+      <c r="J90" s="24"/>
+      <c r="K90" s="3"/>
+    </row>
+    <row r="91" spans="1:11" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="22"/>
+      <c r="B91" s="23"/>
+      <c r="C91" s="22"/>
+      <c r="D91" s="13">
+        <v>3</v>
+      </c>
+      <c r="E91" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F91" s="23"/>
+      <c r="G91" s="24"/>
+      <c r="H91" s="24"/>
+      <c r="I91" s="24"/>
+      <c r="J91" s="24"/>
+      <c r="K91" s="3"/>
+    </row>
+    <row r="92" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="22"/>
+      <c r="B92" s="23"/>
+      <c r="C92" s="22"/>
+      <c r="D92" s="13">
+        <v>4</v>
+      </c>
+      <c r="E92" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F92" s="23"/>
+      <c r="G92" s="24"/>
+      <c r="H92" s="24"/>
+      <c r="I92" s="24"/>
+      <c r="J92" s="24"/>
+      <c r="K92" s="3"/>
+    </row>
+    <row r="93" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="22"/>
+      <c r="B93" s="23"/>
+      <c r="C93" s="22"/>
+      <c r="D93" s="13">
+        <v>5</v>
+      </c>
+      <c r="E93" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F93" s="23"/>
+      <c r="G93" s="24"/>
+      <c r="H93" s="24"/>
+      <c r="I93" s="24"/>
+      <c r="J93" s="24"/>
+      <c r="K93" s="3"/>
+    </row>
+    <row r="94" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="B94" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="C94" s="22"/>
+      <c r="D94" s="13">
+        <v>1</v>
+      </c>
+      <c r="E94" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="F94" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="G94" s="24"/>
+      <c r="H94" s="24"/>
+      <c r="I94" s="24"/>
+      <c r="J94" s="24"/>
+      <c r="K94" s="3"/>
+    </row>
+    <row r="95" spans="1:11" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="19"/>
+      <c r="B95" s="23"/>
+      <c r="C95" s="22"/>
+      <c r="D95" s="13">
+        <v>2</v>
+      </c>
+      <c r="E95" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F95" s="23"/>
+      <c r="G95" s="24"/>
+      <c r="H95" s="24"/>
+      <c r="I95" s="24"/>
+      <c r="J95" s="24"/>
+      <c r="K95" s="3"/>
+    </row>
+    <row r="96" spans="1:11" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="19"/>
+      <c r="B96" s="23"/>
+      <c r="C96" s="22"/>
+      <c r="D96" s="13">
+        <v>3</v>
+      </c>
+      <c r="E96" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F96" s="23"/>
+      <c r="G96" s="24"/>
+      <c r="H96" s="24"/>
+      <c r="I96" s="24"/>
+      <c r="J96" s="24"/>
+      <c r="K96" s="3"/>
+    </row>
+    <row r="97" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="19"/>
+      <c r="B97" s="23"/>
+      <c r="C97" s="22"/>
+      <c r="D97" s="13">
+        <v>4</v>
+      </c>
+      <c r="E97" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F97" s="23"/>
+      <c r="G97" s="24"/>
+      <c r="H97" s="24"/>
+      <c r="I97" s="24"/>
+      <c r="J97" s="24"/>
+      <c r="K97" s="3"/>
+    </row>
+    <row r="98" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="19"/>
+      <c r="B98" s="23"/>
+      <c r="C98" s="22"/>
+      <c r="D98" s="13">
+        <v>5</v>
+      </c>
+      <c r="E98" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F98" s="23"/>
+      <c r="G98" s="24"/>
+      <c r="H98" s="24"/>
+      <c r="I98" s="24"/>
+      <c r="J98" s="24"/>
+      <c r="K98" s="3"/>
+    </row>
+    <row r="99" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="B99" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C99" s="22"/>
+      <c r="D99" s="13">
+        <v>1</v>
+      </c>
+      <c r="E99" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="F99" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="G99" s="24"/>
+      <c r="H99" s="24"/>
+      <c r="I99" s="24"/>
+      <c r="J99" s="24"/>
+      <c r="K99" s="3"/>
+    </row>
+    <row r="100" spans="1:11" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="22"/>
+      <c r="B100" s="23"/>
+      <c r="C100" s="22"/>
+      <c r="D100" s="13">
+        <v>2</v>
+      </c>
+      <c r="E100" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F100" s="23"/>
+      <c r="G100" s="24"/>
+      <c r="H100" s="24"/>
+      <c r="I100" s="24"/>
+      <c r="J100" s="24"/>
+      <c r="K100" s="3"/>
+    </row>
+    <row r="101" spans="1:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="22"/>
+      <c r="B101" s="23"/>
+      <c r="C101" s="22"/>
+      <c r="D101" s="13">
+        <v>3</v>
+      </c>
+      <c r="E101" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F101" s="23"/>
+      <c r="G101" s="24"/>
+      <c r="H101" s="24"/>
+      <c r="I101" s="24"/>
+      <c r="J101" s="24"/>
+      <c r="K101" s="3"/>
+    </row>
+    <row r="102" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="22"/>
+      <c r="B102" s="23"/>
+      <c r="C102" s="22"/>
+      <c r="D102" s="13">
+        <v>4</v>
+      </c>
+      <c r="E102" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F102" s="23"/>
+      <c r="G102" s="24"/>
+      <c r="H102" s="24"/>
+      <c r="I102" s="24"/>
+      <c r="J102" s="24"/>
+      <c r="K102" s="3"/>
+    </row>
+    <row r="103" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="22"/>
+      <c r="B103" s="23"/>
+      <c r="C103" s="22"/>
+      <c r="D103" s="13">
+        <v>5</v>
+      </c>
+      <c r="E103" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F103" s="23"/>
+      <c r="G103" s="24"/>
+      <c r="H103" s="24"/>
+      <c r="I103" s="24"/>
+      <c r="J103" s="24"/>
+      <c r="K103" s="3"/>
+    </row>
+    <row r="104" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="B104" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="C104" s="22"/>
+      <c r="D104" s="13">
+        <v>1</v>
+      </c>
+      <c r="E104" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="F104" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="G104" s="24"/>
+      <c r="H104" s="24"/>
+      <c r="I104" s="24"/>
+      <c r="J104" s="24"/>
+      <c r="K104" s="3"/>
+    </row>
+    <row r="105" spans="1:11" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="19"/>
+      <c r="B105" s="23"/>
+      <c r="C105" s="22"/>
+      <c r="D105" s="13">
+        <v>2</v>
+      </c>
+      <c r="E105" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F105" s="23"/>
+      <c r="G105" s="24"/>
+      <c r="H105" s="24"/>
+      <c r="I105" s="24"/>
+      <c r="J105" s="24"/>
+      <c r="K105" s="3"/>
+    </row>
+    <row r="106" spans="1:11" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="19"/>
+      <c r="B106" s="23"/>
+      <c r="C106" s="22"/>
+      <c r="D106" s="13">
+        <v>3</v>
+      </c>
+      <c r="E106" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F106" s="23"/>
+      <c r="G106" s="24"/>
+      <c r="H106" s="24"/>
+      <c r="I106" s="24"/>
+      <c r="J106" s="24"/>
+      <c r="K106" s="3"/>
+    </row>
+    <row r="107" spans="1:11" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="19"/>
+      <c r="B107" s="23"/>
+      <c r="C107" s="22"/>
+      <c r="D107" s="13">
+        <v>4</v>
+      </c>
+      <c r="E107" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F107" s="23"/>
+      <c r="G107" s="24"/>
+      <c r="H107" s="24"/>
+      <c r="I107" s="24"/>
+      <c r="J107" s="24"/>
+      <c r="K107" s="3"/>
+    </row>
+    <row r="108" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="19"/>
+      <c r="B108" s="23"/>
+      <c r="C108" s="22"/>
+      <c r="D108" s="13">
+        <v>5</v>
+      </c>
+      <c r="E108" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F108" s="23"/>
+      <c r="G108" s="24"/>
+      <c r="H108" s="24"/>
+      <c r="I108" s="24"/>
+      <c r="J108" s="24"/>
+      <c r="K108" s="3"/>
+    </row>
+    <row r="109" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="B109" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="C109" s="22"/>
+      <c r="D109" s="13">
+        <v>1</v>
+      </c>
+      <c r="E109" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="F109" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="G109" s="24"/>
+      <c r="H109" s="24"/>
+      <c r="I109" s="24"/>
+      <c r="J109" s="24"/>
+      <c r="K109" s="3"/>
+    </row>
+    <row r="110" spans="1:11" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="22"/>
+      <c r="B110" s="23"/>
+      <c r="C110" s="22"/>
+      <c r="D110" s="13">
+        <v>2</v>
+      </c>
+      <c r="E110" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F110" s="23"/>
+      <c r="G110" s="24"/>
+      <c r="H110" s="24"/>
+      <c r="I110" s="24"/>
+      <c r="J110" s="24"/>
+      <c r="K110" s="3"/>
+    </row>
+    <row r="111" spans="1:11" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="22"/>
+      <c r="B111" s="23"/>
+      <c r="C111" s="22"/>
+      <c r="D111" s="13">
+        <v>3</v>
+      </c>
+      <c r="E111" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F111" s="23"/>
+      <c r="G111" s="24"/>
+      <c r="H111" s="24"/>
+      <c r="I111" s="24"/>
+      <c r="J111" s="24"/>
+      <c r="K111" s="3"/>
+    </row>
+    <row r="112" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="22"/>
+      <c r="B112" s="23"/>
+      <c r="C112" s="22"/>
+      <c r="D112" s="13">
+        <v>4</v>
+      </c>
+      <c r="E112" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F112" s="23"/>
+      <c r="G112" s="24"/>
+      <c r="H112" s="24"/>
+      <c r="I112" s="24"/>
+      <c r="J112" s="24"/>
+      <c r="K112" s="3"/>
+    </row>
+    <row r="113" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="22"/>
+      <c r="B113" s="23"/>
+      <c r="C113" s="22"/>
+      <c r="D113" s="13">
+        <v>5</v>
+      </c>
+      <c r="E113" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F113" s="23"/>
+      <c r="G113" s="24"/>
+      <c r="H113" s="24"/>
+      <c r="I113" s="24"/>
+      <c r="J113" s="24"/>
+      <c r="K113" s="3"/>
+    </row>
+    <row r="114" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="B114" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C114" s="22"/>
+      <c r="D114" s="13">
+        <v>1</v>
+      </c>
+      <c r="E114" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="F114" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="G114" s="24"/>
+      <c r="H114" s="24"/>
+      <c r="I114" s="24"/>
+      <c r="J114" s="24"/>
+      <c r="K114" s="3"/>
+    </row>
+    <row r="115" spans="1:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="19"/>
+      <c r="B115" s="23"/>
+      <c r="C115" s="22"/>
+      <c r="D115" s="13">
+        <v>2</v>
+      </c>
+      <c r="E115" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F115" s="23"/>
+      <c r="G115" s="24"/>
+      <c r="H115" s="24"/>
+      <c r="I115" s="24"/>
+      <c r="J115" s="24"/>
+      <c r="K115" s="3"/>
+    </row>
+    <row r="116" spans="1:11" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="19"/>
+      <c r="B116" s="23"/>
+      <c r="C116" s="22"/>
+      <c r="D116" s="13">
+        <v>3</v>
+      </c>
+      <c r="E116" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F116" s="23"/>
+      <c r="G116" s="24"/>
+      <c r="H116" s="24"/>
+      <c r="I116" s="24"/>
+      <c r="J116" s="24"/>
+      <c r="K116" s="3"/>
+    </row>
+    <row r="117" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="19"/>
+      <c r="B117" s="23"/>
+      <c r="C117" s="22"/>
+      <c r="D117" s="13">
+        <v>4</v>
+      </c>
+      <c r="E117" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F117" s="23"/>
+      <c r="G117" s="24"/>
+      <c r="H117" s="24"/>
+      <c r="I117" s="24"/>
+      <c r="J117" s="24"/>
+      <c r="K117" s="3"/>
+    </row>
+    <row r="118" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="19"/>
+      <c r="B118" s="23"/>
+      <c r="C118" s="22"/>
+      <c r="D118" s="13">
+        <v>5</v>
+      </c>
+      <c r="E118" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F118" s="23"/>
+      <c r="G118" s="24"/>
+      <c r="H118" s="24"/>
+      <c r="I118" s="24"/>
+      <c r="J118" s="24"/>
+      <c r="K118" s="3"/>
+    </row>
+    <row r="119" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="B119" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="C119" s="22"/>
+      <c r="D119" s="13">
+        <v>1</v>
+      </c>
+      <c r="E119" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="F119" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="G119" s="24"/>
+      <c r="H119" s="24"/>
+      <c r="I119" s="24"/>
+      <c r="J119" s="24"/>
+      <c r="K119" s="3"/>
+    </row>
+    <row r="120" spans="1:11" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="22"/>
+      <c r="B120" s="23"/>
+      <c r="C120" s="22"/>
+      <c r="D120" s="13">
+        <v>2</v>
+      </c>
+      <c r="E120" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F120" s="23"/>
+      <c r="G120" s="24"/>
+      <c r="H120" s="24"/>
+      <c r="I120" s="24"/>
+      <c r="J120" s="24"/>
+      <c r="K120" s="3"/>
+    </row>
+    <row r="121" spans="1:11" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="22"/>
+      <c r="B121" s="23"/>
+      <c r="C121" s="22"/>
+      <c r="D121" s="13">
+        <v>3</v>
+      </c>
+      <c r="E121" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F121" s="23"/>
+      <c r="G121" s="24"/>
+      <c r="H121" s="24"/>
+      <c r="I121" s="24"/>
+      <c r="J121" s="24"/>
+      <c r="K121" s="3"/>
+    </row>
+    <row r="122" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="22"/>
+      <c r="B122" s="23"/>
+      <c r="C122" s="22"/>
+      <c r="D122" s="13">
+        <v>4</v>
+      </c>
+      <c r="E122" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F122" s="23"/>
+      <c r="G122" s="24"/>
+      <c r="H122" s="24"/>
+      <c r="I122" s="24"/>
+      <c r="J122" s="24"/>
+      <c r="K122" s="3"/>
+    </row>
+    <row r="123" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="22"/>
+      <c r="B123" s="23"/>
+      <c r="C123" s="22"/>
+      <c r="D123" s="13">
+        <v>5</v>
+      </c>
+      <c r="E123" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F123" s="23"/>
+      <c r="G123" s="24"/>
+      <c r="H123" s="24"/>
+      <c r="I123" s="24"/>
+      <c r="J123" s="24"/>
+      <c r="K123" s="3"/>
+    </row>
+    <row r="124" spans="1:11" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="B124" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="C124" s="22"/>
+      <c r="D124" s="13">
+        <v>1</v>
+      </c>
+      <c r="E124" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="F124" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="G124" s="24"/>
+      <c r="H124" s="24"/>
+      <c r="I124" s="24"/>
+      <c r="J124" s="24"/>
+      <c r="K124" s="3"/>
+    </row>
+    <row r="125" spans="1:11" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="19"/>
+      <c r="B125" s="23"/>
+      <c r="C125" s="22"/>
+      <c r="D125" s="13">
+        <v>2</v>
+      </c>
+      <c r="E125" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F125" s="23"/>
+      <c r="G125" s="24"/>
+      <c r="H125" s="24"/>
+      <c r="I125" s="24"/>
+      <c r="J125" s="24"/>
+      <c r="K125" s="3"/>
+    </row>
+    <row r="126" spans="1:11" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="19"/>
+      <c r="B126" s="23"/>
+      <c r="C126" s="22"/>
+      <c r="D126" s="13">
+        <v>3</v>
+      </c>
+      <c r="E126" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F126" s="23"/>
+      <c r="G126" s="24"/>
+      <c r="H126" s="24"/>
+      <c r="I126" s="24"/>
+      <c r="J126" s="24"/>
+      <c r="K126" s="3"/>
+    </row>
+    <row r="127" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="19"/>
+      <c r="B127" s="23"/>
+      <c r="C127" s="22"/>
+      <c r="D127" s="13">
+        <v>4</v>
+      </c>
+      <c r="E127" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F127" s="23"/>
+      <c r="G127" s="24"/>
+      <c r="H127" s="24"/>
+      <c r="I127" s="24"/>
+      <c r="J127" s="24"/>
+      <c r="K127" s="3"/>
+    </row>
+    <row r="128" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="19"/>
+      <c r="B128" s="23"/>
+      <c r="C128" s="22"/>
+      <c r="D128" s="13">
+        <v>5</v>
+      </c>
+      <c r="E128" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F128" s="23"/>
+      <c r="G128" s="24"/>
+      <c r="H128" s="24"/>
+      <c r="I128" s="24"/>
+      <c r="J128" s="24"/>
+      <c r="K128" s="3"/>
+    </row>
+    <row r="129" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="B129" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="C129" s="22"/>
+      <c r="D129" s="13">
+        <v>1</v>
+      </c>
+      <c r="E129" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="F129" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="G129" s="24"/>
+      <c r="H129" s="24"/>
+      <c r="I129" s="24"/>
+      <c r="J129" s="24"/>
+      <c r="K129" s="3"/>
+    </row>
+    <row r="130" spans="1:11" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="22"/>
+      <c r="B130" s="23"/>
+      <c r="C130" s="22"/>
+      <c r="D130" s="13">
+        <v>2</v>
+      </c>
+      <c r="E130" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F130" s="23"/>
+      <c r="G130" s="24"/>
+      <c r="H130" s="24"/>
+      <c r="I130" s="24"/>
+      <c r="J130" s="24"/>
+      <c r="K130" s="3"/>
+    </row>
+    <row r="131" spans="1:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="22"/>
+      <c r="B131" s="23"/>
+      <c r="C131" s="22"/>
+      <c r="D131" s="13">
+        <v>3</v>
+      </c>
+      <c r="E131" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F131" s="23"/>
+      <c r="G131" s="24"/>
+      <c r="H131" s="24"/>
+      <c r="I131" s="24"/>
+      <c r="J131" s="24"/>
+      <c r="K131" s="3"/>
+    </row>
+    <row r="132" spans="1:11" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="22"/>
+      <c r="B132" s="23"/>
+      <c r="C132" s="22"/>
+      <c r="D132" s="13">
+        <v>4</v>
+      </c>
+      <c r="E132" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F132" s="23"/>
+      <c r="G132" s="24"/>
+      <c r="H132" s="24"/>
+      <c r="I132" s="24"/>
+      <c r="J132" s="24"/>
+      <c r="K132" s="3"/>
+    </row>
+    <row r="133" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="22"/>
+      <c r="B133" s="23"/>
+      <c r="C133" s="22"/>
+      <c r="D133" s="13">
+        <v>5</v>
+      </c>
+      <c r="E133" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F133" s="23"/>
+      <c r="G133" s="24"/>
+      <c r="H133" s="24"/>
+      <c r="I133" s="24"/>
+      <c r="J133" s="24"/>
+      <c r="K133" s="3"/>
+    </row>
+    <row r="134" spans="1:11" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="B134" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="C134" s="22"/>
+      <c r="D134" s="13">
+        <v>1</v>
+      </c>
+      <c r="E134" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="F134" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="G134" s="24"/>
+      <c r="H134" s="24"/>
+      <c r="I134" s="24"/>
+      <c r="J134" s="24"/>
+      <c r="K134" s="3"/>
+    </row>
+    <row r="135" spans="1:11" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="19"/>
+      <c r="B135" s="23"/>
+      <c r="C135" s="22"/>
+      <c r="D135" s="13">
+        <v>2</v>
+      </c>
+      <c r="E135" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F135" s="23"/>
+      <c r="G135" s="24"/>
+      <c r="H135" s="24"/>
+      <c r="I135" s="24"/>
+      <c r="J135" s="24"/>
+      <c r="K135" s="3"/>
+    </row>
+    <row r="136" spans="1:11" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="19"/>
+      <c r="B136" s="23"/>
+      <c r="C136" s="22"/>
+      <c r="D136" s="13">
+        <v>3</v>
+      </c>
+      <c r="E136" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F136" s="23"/>
+      <c r="G136" s="24"/>
+      <c r="H136" s="24"/>
+      <c r="I136" s="24"/>
+      <c r="J136" s="24"/>
+      <c r="K136" s="3"/>
+    </row>
+    <row r="137" spans="1:11" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="19"/>
+      <c r="B137" s="23"/>
+      <c r="C137" s="22"/>
+      <c r="D137" s="13">
+        <v>4</v>
+      </c>
+      <c r="E137" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F137" s="23"/>
+      <c r="G137" s="24"/>
+      <c r="H137" s="24"/>
+      <c r="I137" s="24"/>
+      <c r="J137" s="24"/>
+      <c r="K137" s="3"/>
+    </row>
+    <row r="138" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="19"/>
+      <c r="B138" s="23"/>
+      <c r="C138" s="22"/>
+      <c r="D138" s="13">
+        <v>5</v>
+      </c>
+      <c r="E138" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F138" s="23"/>
+      <c r="G138" s="24"/>
+      <c r="H138" s="24"/>
+      <c r="I138" s="24"/>
+      <c r="J138" s="24"/>
+      <c r="K138" s="3"/>
+    </row>
+    <row r="139" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="B139" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="C139" s="22"/>
+      <c r="D139" s="13">
+        <v>1</v>
+      </c>
+      <c r="E139" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="F139" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="G139" s="24"/>
+      <c r="H139" s="24"/>
+      <c r="I139" s="24"/>
+      <c r="J139" s="24"/>
+      <c r="K139" s="3"/>
+    </row>
+    <row r="140" spans="1:11" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="22"/>
+      <c r="B140" s="23"/>
+      <c r="C140" s="22"/>
+      <c r="D140" s="13">
+        <v>2</v>
+      </c>
+      <c r="E140" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F140" s="23"/>
+      <c r="G140" s="24"/>
+      <c r="H140" s="24"/>
+      <c r="I140" s="24"/>
+      <c r="J140" s="24"/>
+      <c r="K140" s="3"/>
+    </row>
+    <row r="141" spans="1:11" ht="31.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="22"/>
+      <c r="B141" s="23"/>
+      <c r="C141" s="22"/>
+      <c r="D141" s="13">
+        <v>3</v>
+      </c>
+      <c r="E141" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F141" s="23"/>
+      <c r="G141" s="24"/>
+      <c r="H141" s="24"/>
+      <c r="I141" s="24"/>
+      <c r="J141" s="24"/>
+      <c r="K141" s="3"/>
+    </row>
+    <row r="142" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="22"/>
+      <c r="B142" s="23"/>
+      <c r="C142" s="22"/>
+      <c r="D142" s="13">
+        <v>4</v>
+      </c>
+      <c r="E142" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F142" s="23"/>
+      <c r="G142" s="24"/>
+      <c r="H142" s="24"/>
+      <c r="I142" s="24"/>
+      <c r="J142" s="24"/>
+      <c r="K142" s="3"/>
+    </row>
+    <row r="143" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="22"/>
+      <c r="B143" s="23"/>
+      <c r="C143" s="22"/>
+      <c r="D143" s="13">
+        <v>5</v>
+      </c>
+      <c r="E143" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F143" s="23"/>
+      <c r="G143" s="24"/>
+      <c r="H143" s="24"/>
+      <c r="I143" s="24"/>
+      <c r="J143" s="24"/>
+      <c r="K143" s="3"/>
+    </row>
+    <row r="144" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="B144" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="C144" s="22"/>
+      <c r="D144" s="13">
+        <v>1</v>
+      </c>
+      <c r="E144" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="F144" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="G144" s="24"/>
+      <c r="H144" s="24"/>
+      <c r="I144" s="24"/>
+      <c r="J144" s="24"/>
+      <c r="K144" s="3"/>
+    </row>
+    <row r="145" spans="1:11" ht="31.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="19"/>
+      <c r="B145" s="23"/>
+      <c r="C145" s="22"/>
+      <c r="D145" s="13">
+        <v>2</v>
+      </c>
+      <c r="E145" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F145" s="23"/>
+      <c r="G145" s="24"/>
+      <c r="H145" s="24"/>
+      <c r="I145" s="24"/>
+      <c r="J145" s="24"/>
+      <c r="K145" s="3"/>
+    </row>
+    <row r="146" spans="1:11" ht="31.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="19"/>
+      <c r="B146" s="23"/>
+      <c r="C146" s="22"/>
+      <c r="D146" s="13">
+        <v>3</v>
+      </c>
+      <c r="E146" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F146" s="23"/>
+      <c r="G146" s="24"/>
+      <c r="H146" s="24"/>
+      <c r="I146" s="24"/>
+      <c r="J146" s="24"/>
+      <c r="K146" s="3"/>
+    </row>
+    <row r="147" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A147" s="19"/>
+      <c r="B147" s="23"/>
+      <c r="C147" s="22"/>
+      <c r="D147" s="13">
+        <v>4</v>
+      </c>
+      <c r="E147" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F147" s="23"/>
+      <c r="G147" s="24"/>
+      <c r="H147" s="24"/>
+      <c r="I147" s="24"/>
+      <c r="J147" s="24"/>
+      <c r="K147" s="3"/>
+    </row>
+    <row r="148" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A148" s="19"/>
+      <c r="B148" s="23"/>
+      <c r="C148" s="22"/>
+      <c r="D148" s="13">
+        <v>5</v>
+      </c>
+      <c r="E148" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F148" s="23"/>
+      <c r="G148" s="24"/>
+      <c r="H148" s="24"/>
+      <c r="I148" s="24"/>
+      <c r="J148" s="24"/>
+      <c r="K148" s="3"/>
+    </row>
+    <row r="149" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A149" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="B149" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="C149" s="22"/>
+      <c r="D149" s="13">
+        <v>1</v>
+      </c>
+      <c r="E149" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="F149" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="G149" s="24"/>
+      <c r="H149" s="24"/>
+      <c r="I149" s="24"/>
+      <c r="J149" s="24"/>
+      <c r="K149" s="3"/>
+    </row>
+    <row r="150" spans="1:11" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="22"/>
+      <c r="B150" s="23"/>
+      <c r="C150" s="22"/>
+      <c r="D150" s="13">
+        <v>2</v>
+      </c>
+      <c r="E150" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F150" s="23"/>
+      <c r="G150" s="24"/>
+      <c r="H150" s="24"/>
+      <c r="I150" s="24"/>
+      <c r="J150" s="24"/>
+      <c r="K150" s="3"/>
+    </row>
+    <row r="151" spans="1:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A151" s="22"/>
+      <c r="B151" s="23"/>
+      <c r="C151" s="22"/>
+      <c r="D151" s="13">
+        <v>3</v>
+      </c>
+      <c r="E151" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F151" s="23"/>
+      <c r="G151" s="24"/>
+      <c r="H151" s="24"/>
+      <c r="I151" s="24"/>
+      <c r="J151" s="24"/>
+      <c r="K151" s="3"/>
+    </row>
+    <row r="152" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="22"/>
+      <c r="B152" s="23"/>
+      <c r="C152" s="22"/>
+      <c r="D152" s="13">
+        <v>4</v>
+      </c>
+      <c r="E152" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F152" s="23"/>
+      <c r="G152" s="24"/>
+      <c r="H152" s="24"/>
+      <c r="I152" s="24"/>
+      <c r="J152" s="24"/>
+      <c r="K152" s="3"/>
+    </row>
+    <row r="153" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A153" s="22"/>
+      <c r="B153" s="23"/>
+      <c r="C153" s="22"/>
+      <c r="D153" s="13">
+        <v>5</v>
+      </c>
+      <c r="E153" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F153" s="23"/>
+      <c r="G153" s="24"/>
+      <c r="H153" s="24"/>
+      <c r="I153" s="24"/>
+      <c r="J153" s="24"/>
+      <c r="K153" s="3"/>
+    </row>
+    <row r="154" spans="1:11" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A154" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="B154" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="C154" s="22"/>
+      <c r="D154" s="13">
+        <v>1</v>
+      </c>
+      <c r="E154" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="F154" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="G154" s="25"/>
+      <c r="H154" s="25"/>
+      <c r="I154" s="25"/>
+      <c r="J154" s="25"/>
+      <c r="K154" s="3"/>
+    </row>
+    <row r="155" spans="1:11" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A155" s="19"/>
+      <c r="B155" s="23"/>
+      <c r="C155" s="22"/>
+      <c r="D155" s="13">
+        <v>2</v>
+      </c>
+      <c r="E155" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F155" s="21"/>
+      <c r="G155" s="25"/>
+      <c r="H155" s="25"/>
+      <c r="I155" s="25"/>
+      <c r="J155" s="25"/>
+      <c r="K155" s="3"/>
+    </row>
+    <row r="156" spans="1:11" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A156" s="19"/>
+      <c r="B156" s="23"/>
+      <c r="C156" s="22"/>
+      <c r="D156" s="13">
+        <v>3</v>
+      </c>
+      <c r="E156" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F156" s="21"/>
+      <c r="G156" s="25"/>
+      <c r="H156" s="25"/>
+      <c r="I156" s="25"/>
+      <c r="J156" s="25"/>
+      <c r="K156" s="3"/>
+    </row>
+    <row r="157" spans="1:11" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A157" s="19"/>
+      <c r="B157" s="23"/>
+      <c r="C157" s="22"/>
+      <c r="D157" s="13">
+        <v>4</v>
+      </c>
+      <c r="E157" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F157" s="21"/>
+      <c r="G157" s="25"/>
+      <c r="H157" s="25"/>
+      <c r="I157" s="25"/>
+      <c r="J157" s="25"/>
+      <c r="K157" s="3"/>
+    </row>
+    <row r="158" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A158" s="19"/>
+      <c r="B158" s="23"/>
+      <c r="C158" s="22"/>
+      <c r="D158" s="13">
+        <v>5</v>
+      </c>
+      <c r="E158" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F158" s="21"/>
+      <c r="G158" s="25"/>
+      <c r="H158" s="25"/>
+      <c r="I158" s="25"/>
+      <c r="J158" s="25"/>
+      <c r="K158" s="3"/>
+    </row>
+    <row r="159" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A159" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="B159" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="C159" s="22"/>
+      <c r="D159" s="13">
+        <v>1</v>
+      </c>
+      <c r="E159" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="F159" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="G159" s="25"/>
+      <c r="H159" s="25"/>
+      <c r="I159" s="25"/>
+      <c r="J159" s="25"/>
+      <c r="K159" s="3"/>
+    </row>
+    <row r="160" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A160" s="22"/>
+      <c r="B160" s="23"/>
+      <c r="C160" s="22"/>
+      <c r="D160" s="13">
+        <v>2</v>
+      </c>
+      <c r="E160" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F160" s="23"/>
+      <c r="G160" s="25"/>
+      <c r="H160" s="25"/>
+      <c r="I160" s="25"/>
+      <c r="J160" s="25"/>
+      <c r="K160" s="3"/>
+    </row>
+    <row r="161" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A161" s="22"/>
+      <c r="B161" s="23"/>
+      <c r="C161" s="22"/>
+      <c r="D161" s="13">
+        <v>3</v>
+      </c>
+      <c r="E161" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F161" s="23"/>
+      <c r="G161" s="25"/>
+      <c r="H161" s="25"/>
+      <c r="I161" s="25"/>
+      <c r="J161" s="25"/>
+      <c r="K161" s="3"/>
+    </row>
+    <row r="162" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A162" s="22"/>
+      <c r="B162" s="23"/>
+      <c r="C162" s="22"/>
+      <c r="D162" s="13">
+        <v>4</v>
+      </c>
+      <c r="E162" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F162" s="23"/>
+      <c r="G162" s="25"/>
+      <c r="H162" s="25"/>
+      <c r="I162" s="25"/>
+      <c r="J162" s="25"/>
+      <c r="K162" s="3"/>
+    </row>
+    <row r="163" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A163" s="22"/>
+      <c r="B163" s="23"/>
+      <c r="C163" s="22"/>
+      <c r="D163" s="13">
+        <v>5</v>
+      </c>
+      <c r="E163" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F163" s="23"/>
+      <c r="G163" s="25"/>
+      <c r="H163" s="25"/>
+      <c r="I163" s="25"/>
+      <c r="J163" s="25"/>
+      <c r="K163" s="3"/>
+    </row>
+    <row r="164" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A164" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="B164" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="C164" s="22"/>
+      <c r="D164" s="26">
+        <v>1</v>
+      </c>
+      <c r="E164" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="F164" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="G164" s="25"/>
+      <c r="H164" s="25"/>
+      <c r="I164" s="25"/>
+      <c r="J164" s="25"/>
+      <c r="K164" s="3"/>
+    </row>
+    <row r="165" spans="1:11" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A165" s="22"/>
+      <c r="B165" s="23"/>
+      <c r="C165" s="22"/>
+      <c r="D165" s="26">
+        <v>2</v>
+      </c>
+      <c r="E165" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="F165" s="23"/>
+      <c r="G165" s="25"/>
+      <c r="H165" s="25"/>
+      <c r="I165" s="25"/>
+      <c r="J165" s="25"/>
+      <c r="K165" s="3"/>
+    </row>
+    <row r="166" spans="1:11" ht="31.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A166" s="22"/>
+      <c r="B166" s="23"/>
+      <c r="C166" s="22"/>
+      <c r="D166" s="26">
+        <v>3</v>
+      </c>
+      <c r="E166" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="F166" s="23"/>
+      <c r="G166" s="25"/>
+      <c r="H166" s="25"/>
+      <c r="I166" s="25"/>
+      <c r="J166" s="25"/>
+      <c r="K166" s="3"/>
+    </row>
+    <row r="167" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A167" s="22"/>
+      <c r="B167" s="23"/>
+      <c r="C167" s="22"/>
+      <c r="D167" s="26">
+        <v>4</v>
+      </c>
+      <c r="E167" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="F167" s="23"/>
+      <c r="G167" s="25"/>
+      <c r="H167" s="25"/>
+      <c r="I167" s="25"/>
+      <c r="J167" s="25"/>
+      <c r="K167" s="3"/>
+    </row>
+    <row r="168" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A168" s="22"/>
+      <c r="B168" s="23"/>
+      <c r="C168" s="22"/>
+      <c r="D168" s="26">
+        <v>5</v>
+      </c>
+      <c r="E168" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="F168" s="23"/>
+      <c r="G168" s="25"/>
+      <c r="H168" s="25"/>
+      <c r="I168" s="25"/>
+      <c r="J168" s="25"/>
+      <c r="K168" s="3"/>
+    </row>
+    <row r="169" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A169" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="B169" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="C169" s="22"/>
+      <c r="D169" s="26"/>
+      <c r="E169" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="F169" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="G169" s="25"/>
+      <c r="H169" s="25"/>
+      <c r="I169" s="25"/>
+      <c r="J169" s="25"/>
+      <c r="K169" s="3"/>
+    </row>
+    <row r="170" spans="1:11" ht="31.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A170" s="22"/>
+      <c r="B170" s="23"/>
+      <c r="C170" s="22"/>
+      <c r="D170" s="26">
+        <v>2</v>
+      </c>
+      <c r="E170" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="F170" s="21"/>
+      <c r="G170" s="25"/>
+      <c r="H170" s="25"/>
+      <c r="I170" s="25"/>
+      <c r="J170" s="25"/>
+      <c r="K170" s="3"/>
+    </row>
+    <row r="171" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A171" s="22"/>
+      <c r="B171" s="23"/>
+      <c r="C171" s="22"/>
+      <c r="D171" s="26">
+        <v>3</v>
+      </c>
+      <c r="E171" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="F171" s="21"/>
+      <c r="G171" s="25"/>
+      <c r="H171" s="25"/>
+      <c r="I171" s="25"/>
+      <c r="J171" s="25"/>
+      <c r="K171" s="3"/>
+    </row>
+    <row r="172" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A172" s="22"/>
+      <c r="B172" s="23"/>
+      <c r="C172" s="22"/>
+      <c r="D172" s="26">
+        <v>4</v>
+      </c>
+      <c r="E172" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="F172" s="21"/>
+      <c r="G172" s="25"/>
+      <c r="H172" s="25"/>
+      <c r="I172" s="25"/>
+      <c r="J172" s="25"/>
+      <c r="K172" s="3"/>
+    </row>
+    <row r="173" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A173" s="22"/>
+      <c r="B173" s="23"/>
+      <c r="C173" s="22"/>
+      <c r="D173" s="26">
+        <v>5</v>
+      </c>
+      <c r="E173" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="F173" s="21"/>
+      <c r="G173" s="25"/>
+      <c r="H173" s="25"/>
+      <c r="I173" s="25"/>
+      <c r="J173" s="25"/>
+      <c r="K173" s="3"/>
+    </row>
+    <row r="174" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A174" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="B174" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="C174" s="22"/>
+      <c r="D174" s="26"/>
+      <c r="E174" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="F174" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="G174" s="25"/>
+      <c r="H174" s="25"/>
+      <c r="I174" s="25"/>
+      <c r="J174" s="25"/>
+      <c r="K174" s="3"/>
+    </row>
+    <row r="175" spans="1:11" ht="31.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A175" s="22"/>
+      <c r="B175" s="23"/>
+      <c r="C175" s="22"/>
+      <c r="D175" s="26">
+        <v>2</v>
+      </c>
+      <c r="E175" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="F175" s="23"/>
+      <c r="G175" s="25"/>
+      <c r="H175" s="25"/>
+      <c r="I175" s="25"/>
+      <c r="J175" s="25"/>
+      <c r="K175" s="3"/>
+    </row>
+    <row r="176" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A176" s="22"/>
+      <c r="B176" s="23"/>
+      <c r="C176" s="22"/>
+      <c r="D176" s="26">
+        <v>3</v>
+      </c>
+      <c r="E176" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="F176" s="23"/>
+      <c r="G176" s="25"/>
+      <c r="H176" s="25"/>
+      <c r="I176" s="25"/>
+      <c r="J176" s="25"/>
+      <c r="K176" s="3"/>
+    </row>
+    <row r="177" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A177" s="22"/>
+      <c r="B177" s="23"/>
+      <c r="C177" s="22"/>
+      <c r="D177" s="26">
+        <v>4</v>
+      </c>
+      <c r="E177" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="F177" s="23"/>
+      <c r="G177" s="25"/>
+      <c r="H177" s="25"/>
+      <c r="I177" s="25"/>
+      <c r="J177" s="25"/>
+      <c r="K177" s="3"/>
+    </row>
+    <row r="178" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A178" s="22"/>
+      <c r="B178" s="23"/>
+      <c r="C178" s="22"/>
+      <c r="D178" s="26">
+        <v>5</v>
+      </c>
+      <c r="E178" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="F178" s="23"/>
+      <c r="G178" s="25"/>
+      <c r="H178" s="25"/>
+      <c r="I178" s="25"/>
+      <c r="J178" s="25"/>
+      <c r="K178" s="3"/>
+    </row>
+    <row r="179" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A179" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="B179" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="C179" s="22"/>
+      <c r="D179" s="26"/>
+      <c r="E179" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="F179" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="G179" s="25"/>
+      <c r="H179" s="25"/>
+      <c r="I179" s="25"/>
+      <c r="J179" s="25"/>
+      <c r="K179" s="3"/>
+    </row>
+    <row r="180" spans="1:11" ht="31.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A180" s="22"/>
+      <c r="B180" s="23"/>
+      <c r="C180" s="22"/>
+      <c r="D180" s="26">
+        <v>2</v>
+      </c>
+      <c r="E180" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="F180" s="23"/>
+      <c r="G180" s="25"/>
+      <c r="H180" s="25"/>
+      <c r="I180" s="25"/>
+      <c r="J180" s="25"/>
+      <c r="K180" s="3"/>
+    </row>
+    <row r="181" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A181" s="22"/>
+      <c r="B181" s="23"/>
+      <c r="C181" s="22"/>
+      <c r="D181" s="26">
+        <v>3</v>
+      </c>
+      <c r="E181" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="F181" s="23"/>
+      <c r="G181" s="25"/>
+      <c r="H181" s="25"/>
+      <c r="I181" s="25"/>
+      <c r="J181" s="25"/>
+      <c r="K181" s="3"/>
+    </row>
+    <row r="182" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A182" s="22"/>
+      <c r="B182" s="23"/>
+      <c r="C182" s="22"/>
+      <c r="D182" s="26">
+        <v>4</v>
+      </c>
+      <c r="E182" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="F182" s="23"/>
+      <c r="G182" s="25"/>
+      <c r="H182" s="25"/>
+      <c r="I182" s="25"/>
+      <c r="J182" s="25"/>
+      <c r="K182" s="3"/>
+    </row>
+    <row r="183" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A183" s="22"/>
+      <c r="B183" s="23"/>
+      <c r="C183" s="22"/>
+      <c r="D183" s="26">
+        <v>5</v>
+      </c>
+      <c r="E183" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="F183" s="23"/>
+      <c r="G183" s="25"/>
+      <c r="H183" s="25"/>
+      <c r="I183" s="25"/>
+      <c r="J183" s="25"/>
+      <c r="K183" s="3"/>
+    </row>
+    <row r="184" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A184" s="7"/>
+      <c r="B184" s="7"/>
+      <c r="C184" s="7"/>
+      <c r="D184" s="7"/>
+      <c r="E184" s="7"/>
+      <c r="F184" s="7"/>
+      <c r="G184" s="7"/>
+      <c r="H184" s="7"/>
+      <c r="I184" s="7"/>
+      <c r="J184" s="7"/>
+    </row>
+    <row r="185" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="186" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="187" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="188" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="189" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="190" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="191" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="192" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2949,13 +5786,212 @@
     <row r="1073" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1074" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1075" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1076" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1077" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1078" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1079" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1080" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1081" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1082" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1083" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1084" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1085" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1086" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1087" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1088" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1089" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1090" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1091" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1092" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1093" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1094" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1095" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1096" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1097" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1098" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1099" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1100" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1101" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1103" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1104" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1105" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1106" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1107" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1108" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1109" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1110" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1111" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1113" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1114" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1115" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1116" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1118" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1119" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1120" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1121" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1122" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1123" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1124" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1125" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1126" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1127" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1128" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1129" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1130" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1131" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1132" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1134" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1135" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1136" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1137" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1138" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1139" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1140" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="31">
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="A19:A23"/>
-    <mergeCell ref="C19:C23"/>
-    <mergeCell ref="F19:F23"/>
-    <mergeCell ref="H9:H13"/>
+  <mergeCells count="159">
+    <mergeCell ref="A164:A168"/>
+    <mergeCell ref="A169:A173"/>
+    <mergeCell ref="A174:A178"/>
+    <mergeCell ref="A179:A183"/>
+    <mergeCell ref="B174:B178"/>
+    <mergeCell ref="C174:C178"/>
+    <mergeCell ref="F174:F178"/>
+    <mergeCell ref="B179:B183"/>
+    <mergeCell ref="C179:C183"/>
+    <mergeCell ref="F179:F183"/>
+    <mergeCell ref="B164:B168"/>
+    <mergeCell ref="C164:C168"/>
+    <mergeCell ref="F164:F168"/>
+    <mergeCell ref="B169:B173"/>
+    <mergeCell ref="C169:C173"/>
+    <mergeCell ref="F169:F173"/>
+    <mergeCell ref="A139:A143"/>
+    <mergeCell ref="A144:A148"/>
+    <mergeCell ref="A149:A153"/>
+    <mergeCell ref="A154:A158"/>
+    <mergeCell ref="A159:A163"/>
+    <mergeCell ref="A114:A118"/>
+    <mergeCell ref="A119:A123"/>
+    <mergeCell ref="A124:A128"/>
+    <mergeCell ref="A129:A133"/>
+    <mergeCell ref="A134:A138"/>
+    <mergeCell ref="B154:B158"/>
+    <mergeCell ref="C154:C158"/>
+    <mergeCell ref="F154:F158"/>
+    <mergeCell ref="B159:B163"/>
+    <mergeCell ref="C159:C163"/>
+    <mergeCell ref="F159:F163"/>
+    <mergeCell ref="B144:B148"/>
+    <mergeCell ref="C144:C148"/>
+    <mergeCell ref="F144:F148"/>
+    <mergeCell ref="B149:B153"/>
+    <mergeCell ref="C149:C153"/>
+    <mergeCell ref="F149:F153"/>
+    <mergeCell ref="B134:B138"/>
+    <mergeCell ref="C134:C138"/>
+    <mergeCell ref="F134:F138"/>
+    <mergeCell ref="B139:B143"/>
+    <mergeCell ref="C139:C143"/>
+    <mergeCell ref="F139:F143"/>
+    <mergeCell ref="A84:A88"/>
+    <mergeCell ref="B84:B88"/>
+    <mergeCell ref="C84:C88"/>
+    <mergeCell ref="F84:F88"/>
+    <mergeCell ref="B109:B113"/>
+    <mergeCell ref="C109:C113"/>
+    <mergeCell ref="F109:F113"/>
+    <mergeCell ref="A89:A93"/>
+    <mergeCell ref="A94:A98"/>
+    <mergeCell ref="A99:A103"/>
+    <mergeCell ref="A104:A108"/>
+    <mergeCell ref="A109:A113"/>
+    <mergeCell ref="B124:B128"/>
+    <mergeCell ref="C124:C128"/>
+    <mergeCell ref="F124:F128"/>
+    <mergeCell ref="B129:B133"/>
+    <mergeCell ref="C129:C133"/>
+    <mergeCell ref="F129:F133"/>
+    <mergeCell ref="B114:B118"/>
+    <mergeCell ref="C114:C118"/>
+    <mergeCell ref="F114:F118"/>
+    <mergeCell ref="B119:B123"/>
+    <mergeCell ref="C119:C123"/>
+    <mergeCell ref="F119:F123"/>
+    <mergeCell ref="B99:B103"/>
+    <mergeCell ref="C99:C103"/>
+    <mergeCell ref="F99:F103"/>
+    <mergeCell ref="B104:B108"/>
+    <mergeCell ref="C104:C108"/>
+    <mergeCell ref="F104:F108"/>
+    <mergeCell ref="B89:B93"/>
+    <mergeCell ref="C89:C93"/>
+    <mergeCell ref="F89:F93"/>
+    <mergeCell ref="B94:B98"/>
+    <mergeCell ref="C94:C98"/>
+    <mergeCell ref="F94:F98"/>
+    <mergeCell ref="B79:B83"/>
+    <mergeCell ref="C79:C83"/>
+    <mergeCell ref="F79:F83"/>
+    <mergeCell ref="A74:A78"/>
+    <mergeCell ref="A79:A83"/>
+    <mergeCell ref="B69:B73"/>
+    <mergeCell ref="C69:C73"/>
+    <mergeCell ref="F69:F73"/>
+    <mergeCell ref="A69:A73"/>
+    <mergeCell ref="B74:B78"/>
+    <mergeCell ref="C74:C78"/>
+    <mergeCell ref="F74:F78"/>
+    <mergeCell ref="A59:A63"/>
+    <mergeCell ref="B59:B63"/>
+    <mergeCell ref="C59:C63"/>
+    <mergeCell ref="F59:F63"/>
+    <mergeCell ref="B64:B68"/>
+    <mergeCell ref="F64:F68"/>
+    <mergeCell ref="C64:C68"/>
+    <mergeCell ref="A64:A68"/>
+    <mergeCell ref="A49:A53"/>
+    <mergeCell ref="B49:B53"/>
+    <mergeCell ref="C49:C53"/>
+    <mergeCell ref="F49:F53"/>
+    <mergeCell ref="A54:A58"/>
+    <mergeCell ref="B54:B58"/>
+    <mergeCell ref="C54:C58"/>
+    <mergeCell ref="F54:F58"/>
+    <mergeCell ref="F39:F43"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="C39:C43"/>
+    <mergeCell ref="A39:A43"/>
+    <mergeCell ref="B44:B48"/>
+    <mergeCell ref="F44:F48"/>
+    <mergeCell ref="C44:C48"/>
+    <mergeCell ref="A44:A48"/>
+    <mergeCell ref="F34:F38"/>
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="C34:C38"/>
+    <mergeCell ref="A34:A38"/>
+    <mergeCell ref="A29:A33"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="F24:F28"/>
+    <mergeCell ref="C24:C28"/>
+    <mergeCell ref="A24:A28"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="F29:F33"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="C4:C8"/>
+    <mergeCell ref="F4:F8"/>
+    <mergeCell ref="G4:G8"/>
+    <mergeCell ref="H4:H8"/>
+    <mergeCell ref="I4:I8"/>
+    <mergeCell ref="J4:J8"/>
+    <mergeCell ref="D5:D8"/>
+    <mergeCell ref="E5:E8"/>
     <mergeCell ref="I9:I13"/>
     <mergeCell ref="J9:J13"/>
     <mergeCell ref="A14:A18"/>
@@ -2971,18 +6007,13 @@
     <mergeCell ref="C9:C13"/>
     <mergeCell ref="F9:F13"/>
     <mergeCell ref="G9:G13"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="C4:C8"/>
-    <mergeCell ref="F4:F8"/>
-    <mergeCell ref="G4:G8"/>
-    <mergeCell ref="H4:H8"/>
-    <mergeCell ref="I4:I8"/>
-    <mergeCell ref="J4:J8"/>
-    <mergeCell ref="D5:D8"/>
-    <mergeCell ref="E5:E8"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="C19:C23"/>
+    <mergeCell ref="F19:F23"/>
+    <mergeCell ref="H9:H13"/>
   </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>

--- a/1спринт/2часть/Филипчик_ТК_часть2.xlsx
+++ b/1спринт/2часть/Филипчик_ТК_часть2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Study\Y.Routes\1спринт\2часть\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24DC2FBB-2E71-4BD7-B1E0-9AD304ADFB4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DE2C12E-3BEB-4ED9-93D6-05A56F5E4120}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="165">
   <si>
     <t>Удали содержимое и используй как шаблон</t>
   </si>
@@ -944,6 +944,33 @@
   </si>
   <si>
     <t>YR034</t>
+  </si>
+  <si>
+    <t>Выбери время начала поездки 23.59</t>
+  </si>
+  <si>
+    <t>Выбери время начала поездки 00.00</t>
+  </si>
+  <si>
+    <t>Выбери время начала поездки 00.01</t>
+  </si>
+  <si>
+    <t>Стоимость и время поездки корректно рассчитывается ночью (23.59) (смена даты)</t>
+  </si>
+  <si>
+    <t>Стоимость и время поездки корректно рассчитывается ночью (00.01) (смена даты)</t>
+  </si>
+  <si>
+    <t>Стоимость и время поездки корректно рассчитывается ночью (00.00) (смена даты)</t>
+  </si>
+  <si>
+    <t>YR035</t>
+  </si>
+  <si>
+    <t>YR036</t>
+  </si>
+  <si>
+    <t>YR037</t>
   </si>
 </sst>
 </file>
@@ -1007,7 +1034,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1024,6 +1051,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFF2CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1145,7 +1178,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1168,37 +1201,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1210,6 +1220,35 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1594,10 +1633,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K1140"/>
+  <dimension ref="A1:K1155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19:J23"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C94" sqref="C94:C98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1615,18 +1654,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
@@ -1674,13 +1713,13 @@
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:11" ht="57.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="20">
+      <c r="A4" s="23">
         <v>1</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="25" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="9">
@@ -1689,257 +1728,257 @@
       <c r="E4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="F4" s="29" t="s">
         <v>14</v>
       </c>
       <c r="G4" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="22"/>
-      <c r="I4" s="25" t="s">
+      <c r="H4" s="25"/>
+      <c r="I4" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="22" t="s">
+      <c r="J4" s="25" t="s">
         <v>17</v>
       </c>
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="20"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="26">
+      <c r="A5" s="23"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="17">
         <v>2</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="20"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
+      <c r="A6" s="23"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
       <c r="K6" s="2"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="20"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
+      <c r="A7" s="23"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
       <c r="K7" s="2"/>
     </row>
     <row r="8" spans="1:11" ht="61.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="20"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
+      <c r="A8" s="23"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
       <c r="K8" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="23" t="s">
         <v>20</v>
       </c>
       <c r="B9" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="22"/>
+      <c r="C9" s="25"/>
       <c r="D9" s="9">
         <v>1</v>
       </c>
       <c r="E9" s="9"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
       <c r="K9" s="2"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="20"/>
+      <c r="A10" s="23"/>
       <c r="B10" s="24"/>
-      <c r="C10" s="22"/>
+      <c r="C10" s="25"/>
       <c r="D10" s="9">
         <v>2</v>
       </c>
       <c r="E10" s="9"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
       <c r="K10" s="2"/>
     </row>
     <row r="11" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="20"/>
+      <c r="A11" s="23"/>
       <c r="B11" s="24"/>
-      <c r="C11" s="22"/>
+      <c r="C11" s="25"/>
       <c r="D11" s="9">
         <v>3</v>
       </c>
       <c r="E11" s="9"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
       <c r="K11" s="2"/>
     </row>
     <row r="12" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="20"/>
+      <c r="A12" s="23"/>
       <c r="B12" s="24"/>
-      <c r="C12" s="22"/>
+      <c r="C12" s="25"/>
       <c r="D12" s="9">
         <v>4</v>
       </c>
       <c r="E12" s="9"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
       <c r="K12" s="2"/>
     </row>
     <row r="13" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="20"/>
+      <c r="A13" s="23"/>
       <c r="B13" s="24"/>
-      <c r="C13" s="22"/>
+      <c r="C13" s="25"/>
       <c r="D13" s="9">
         <v>5</v>
       </c>
       <c r="E13" s="9"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
       <c r="K13" s="2"/>
     </row>
     <row r="14" spans="1:11" ht="45.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="17"/>
+      <c r="C14" s="22"/>
       <c r="D14" s="9">
         <v>1</v>
       </c>
       <c r="E14" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F14" s="16" t="s">
+      <c r="F14" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
       <c r="K14" s="2"/>
     </row>
     <row r="15" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="17"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="17"/>
+      <c r="A15" s="22"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="22"/>
       <c r="D15" s="9">
         <v>2</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
       <c r="K15" s="2"/>
     </row>
     <row r="16" spans="1:11" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="17"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="17"/>
+      <c r="A16" s="22"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="22"/>
       <c r="D16" s="9">
         <v>3</v>
       </c>
       <c r="E16" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
       <c r="K16" s="2"/>
     </row>
     <row r="17" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="17"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="17"/>
+      <c r="A17" s="22"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="22"/>
       <c r="D17" s="9">
         <v>4</v>
       </c>
       <c r="E17" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
       <c r="K17" s="2"/>
     </row>
     <row r="18" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="17"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="17"/>
+      <c r="A18" s="22"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="22"/>
       <c r="D18" s="9">
         <v>5</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
       <c r="K18" s="2"/>
     </row>
     <row r="19" spans="1:11" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="16" t="s">
         <v>56</v>
       </c>
       <c r="B19" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="14"/>
+      <c r="C19" s="16"/>
       <c r="D19" s="9">
         <v>1</v>
       </c>
@@ -1949,16 +1988,16 @@
       <c r="F19" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="27"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
       <c r="K19" s="2"/>
     </row>
     <row r="20" spans="1:11" ht="35.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
+      <c r="A20" s="16"/>
       <c r="B20" s="15"/>
-      <c r="C20" s="14"/>
+      <c r="C20" s="16"/>
       <c r="D20" s="9">
         <v>2</v>
       </c>
@@ -1966,16 +2005,16 @@
         <v>34</v>
       </c>
       <c r="F20" s="15"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
       <c r="K20" s="2"/>
     </row>
     <row r="21" spans="1:11" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
+      <c r="A21" s="16"/>
       <c r="B21" s="15"/>
-      <c r="C21" s="14"/>
+      <c r="C21" s="16"/>
       <c r="D21" s="9">
         <v>3</v>
       </c>
@@ -1983,16 +2022,16 @@
         <v>31</v>
       </c>
       <c r="F21" s="15"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
       <c r="K21" s="2"/>
     </row>
     <row r="22" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
+      <c r="A22" s="16"/>
       <c r="B22" s="15"/>
-      <c r="C22" s="14"/>
+      <c r="C22" s="16"/>
       <c r="D22" s="9">
         <v>4</v>
       </c>
@@ -2000,16 +2039,16 @@
         <v>26</v>
       </c>
       <c r="F22" s="15"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
       <c r="K22" s="2"/>
     </row>
     <row r="23" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
+      <c r="A23" s="16"/>
       <c r="B23" s="15"/>
-      <c r="C23" s="14"/>
+      <c r="C23" s="16"/>
       <c r="D23" s="9">
         <v>5</v>
       </c>
@@ -2017,20 +2056,20 @@
         <v>27</v>
       </c>
       <c r="F23" s="15"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="29"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
       <c r="K23" s="2"/>
     </row>
     <row r="24" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="17" t="s">
+      <c r="A24" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="C24" s="14"/>
+      <c r="C24" s="16"/>
       <c r="D24" s="9">
         <v>1</v>
       </c>
@@ -2047,9 +2086,9 @@
       <c r="K24" s="2"/>
     </row>
     <row r="25" spans="1:11" ht="35.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="17"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="14"/>
+      <c r="A25" s="22"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="16"/>
       <c r="D25" s="9">
         <v>2</v>
       </c>
@@ -2064,9 +2103,9 @@
       <c r="K25" s="2"/>
     </row>
     <row r="26" spans="1:11" ht="31.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="17"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="14"/>
+      <c r="A26" s="22"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="16"/>
       <c r="D26" s="9">
         <v>3</v>
       </c>
@@ -2081,9 +2120,9 @@
       <c r="K26" s="2"/>
     </row>
     <row r="27" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="17"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="14"/>
+      <c r="A27" s="22"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="16"/>
       <c r="D27" s="9">
         <v>4</v>
       </c>
@@ -2098,9 +2137,9 @@
       <c r="K27" s="2"/>
     </row>
     <row r="28" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="17"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="14"/>
+      <c r="A28" s="22"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="16"/>
       <c r="D28" s="9">
         <v>5</v>
       </c>
@@ -2115,13 +2154,13 @@
       <c r="K28" s="2"/>
     </row>
     <row r="29" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="14" t="s">
+      <c r="A29" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="B29" s="18" t="s">
+      <c r="B29" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="14"/>
+      <c r="C29" s="16"/>
       <c r="D29" s="9">
         <v>1</v>
       </c>
@@ -2138,9 +2177,9 @@
       <c r="K29" s="2"/>
     </row>
     <row r="30" spans="1:11" ht="31.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="14"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="14"/>
+      <c r="A30" s="16"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="16"/>
       <c r="D30" s="9">
         <v>2</v>
       </c>
@@ -2155,9 +2194,9 @@
       <c r="K30" s="2"/>
     </row>
     <row r="31" spans="1:11" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="14"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="14"/>
+      <c r="A31" s="16"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="16"/>
       <c r="D31" s="9">
         <v>3</v>
       </c>
@@ -2172,9 +2211,9 @@
       <c r="K31" s="2"/>
     </row>
     <row r="32" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="14"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="14"/>
+      <c r="A32" s="16"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="16"/>
       <c r="D32" s="9">
         <v>4</v>
       </c>
@@ -2189,9 +2228,9 @@
       <c r="K32" s="2"/>
     </row>
     <row r="33" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="14"/>
-      <c r="B33" s="18"/>
-      <c r="C33" s="14"/>
+      <c r="A33" s="16"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="16"/>
       <c r="D33" s="9">
         <v>5</v>
       </c>
@@ -2206,13 +2245,13 @@
       <c r="K33" s="2"/>
     </row>
     <row r="34" spans="1:11" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="17" t="s">
+      <c r="A34" s="22" t="s">
         <v>59</v>
       </c>
       <c r="B34" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="C34" s="14"/>
+      <c r="C34" s="16"/>
       <c r="D34" s="9">
         <v>1</v>
       </c>
@@ -2229,9 +2268,9 @@
       <c r="K34" s="2"/>
     </row>
     <row r="35" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="17"/>
+      <c r="A35" s="22"/>
       <c r="B35" s="15"/>
-      <c r="C35" s="14"/>
+      <c r="C35" s="16"/>
       <c r="D35" s="9">
         <v>2</v>
       </c>
@@ -2246,9 +2285,9 @@
       <c r="K35" s="2"/>
     </row>
     <row r="36" spans="1:11" ht="23.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="17"/>
+      <c r="A36" s="22"/>
       <c r="B36" s="15"/>
-      <c r="C36" s="14"/>
+      <c r="C36" s="16"/>
       <c r="D36" s="9">
         <v>3</v>
       </c>
@@ -2263,9 +2302,9 @@
       <c r="K36" s="2"/>
     </row>
     <row r="37" spans="1:11" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="17"/>
+      <c r="A37" s="22"/>
       <c r="B37" s="15"/>
-      <c r="C37" s="14"/>
+      <c r="C37" s="16"/>
       <c r="D37" s="9">
         <v>4</v>
       </c>
@@ -2280,9 +2319,9 @@
       <c r="K37" s="2"/>
     </row>
     <row r="38" spans="1:11" ht="37.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="17"/>
+      <c r="A38" s="22"/>
       <c r="B38" s="15"/>
-      <c r="C38" s="14"/>
+      <c r="C38" s="16"/>
       <c r="D38" s="9">
         <v>5</v>
       </c>
@@ -2297,13 +2336,13 @@
       <c r="K38" s="2"/>
     </row>
     <row r="39" spans="1:11" ht="36.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="14" t="s">
+      <c r="A39" s="16" t="s">
         <v>60</v>
       </c>
       <c r="B39" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="C39" s="14"/>
+      <c r="C39" s="16"/>
       <c r="D39" s="9">
         <v>1</v>
       </c>
@@ -2320,9 +2359,9 @@
       <c r="K39" s="2"/>
     </row>
     <row r="40" spans="1:11" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="14"/>
+      <c r="A40" s="16"/>
       <c r="B40" s="15"/>
-      <c r="C40" s="14"/>
+      <c r="C40" s="16"/>
       <c r="D40" s="9">
         <v>2</v>
       </c>
@@ -2337,9 +2376,9 @@
       <c r="K40" s="2"/>
     </row>
     <row r="41" spans="1:11" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="14"/>
+      <c r="A41" s="16"/>
       <c r="B41" s="15"/>
-      <c r="C41" s="14"/>
+      <c r="C41" s="16"/>
       <c r="D41" s="9">
         <v>3</v>
       </c>
@@ -2354,9 +2393,9 @@
       <c r="K41" s="2"/>
     </row>
     <row r="42" spans="1:11" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="14"/>
+      <c r="A42" s="16"/>
       <c r="B42" s="15"/>
-      <c r="C42" s="14"/>
+      <c r="C42" s="16"/>
       <c r="D42" s="9">
         <v>4</v>
       </c>
@@ -2371,9 +2410,9 @@
       <c r="K42" s="2"/>
     </row>
     <row r="43" spans="1:11" ht="32.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="14"/>
+      <c r="A43" s="16"/>
       <c r="B43" s="15"/>
-      <c r="C43" s="14"/>
+      <c r="C43" s="16"/>
       <c r="D43" s="9">
         <v>5</v>
       </c>
@@ -2388,13 +2427,13 @@
       <c r="K43" s="2"/>
     </row>
     <row r="44" spans="1:11" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="17" t="s">
+      <c r="A44" s="22" t="s">
         <v>61</v>
       </c>
       <c r="B44" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="C44" s="14"/>
+      <c r="C44" s="16"/>
       <c r="D44" s="9">
         <v>1</v>
       </c>
@@ -2411,9 +2450,9 @@
       <c r="K44" s="2"/>
     </row>
     <row r="45" spans="1:11" ht="26.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="17"/>
+      <c r="A45" s="22"/>
       <c r="B45" s="15"/>
-      <c r="C45" s="14"/>
+      <c r="C45" s="16"/>
       <c r="D45" s="9">
         <v>2</v>
       </c>
@@ -2428,9 +2467,9 @@
       <c r="K45" s="2"/>
     </row>
     <row r="46" spans="1:11" ht="32.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="17"/>
+      <c r="A46" s="22"/>
       <c r="B46" s="15"/>
-      <c r="C46" s="14"/>
+      <c r="C46" s="16"/>
       <c r="D46" s="9">
         <v>3</v>
       </c>
@@ -2445,9 +2484,9 @@
       <c r="K46" s="2"/>
     </row>
     <row r="47" spans="1:11" ht="23.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="17"/>
+      <c r="A47" s="22"/>
       <c r="B47" s="15"/>
-      <c r="C47" s="14"/>
+      <c r="C47" s="16"/>
       <c r="D47" s="9">
         <v>4</v>
       </c>
@@ -2462,9 +2501,9 @@
       <c r="K47" s="2"/>
     </row>
     <row r="48" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="17"/>
+      <c r="A48" s="22"/>
       <c r="B48" s="15"/>
-      <c r="C48" s="14"/>
+      <c r="C48" s="16"/>
       <c r="D48" s="9">
         <v>5</v>
       </c>
@@ -2479,13 +2518,13 @@
       <c r="K48" s="2"/>
     </row>
     <row r="49" spans="1:11" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="14" t="s">
+      <c r="A49" s="16" t="s">
         <v>62</v>
       </c>
       <c r="B49" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="C49" s="14"/>
+      <c r="C49" s="16"/>
       <c r="D49" s="9">
         <v>1</v>
       </c>
@@ -2502,9 +2541,9 @@
       <c r="K49" s="2"/>
     </row>
     <row r="50" spans="1:11" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="14"/>
+      <c r="A50" s="16"/>
       <c r="B50" s="15"/>
-      <c r="C50" s="14"/>
+      <c r="C50" s="16"/>
       <c r="D50" s="9">
         <v>2</v>
       </c>
@@ -2519,9 +2558,9 @@
       <c r="K50" s="2"/>
     </row>
     <row r="51" spans="1:11" ht="32.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="14"/>
+      <c r="A51" s="16"/>
       <c r="B51" s="15"/>
-      <c r="C51" s="14"/>
+      <c r="C51" s="16"/>
       <c r="D51" s="9">
         <v>3</v>
       </c>
@@ -2536,9 +2575,9 @@
       <c r="K51" s="2"/>
     </row>
     <row r="52" spans="1:11" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="14"/>
+      <c r="A52" s="16"/>
       <c r="B52" s="15"/>
-      <c r="C52" s="14"/>
+      <c r="C52" s="16"/>
       <c r="D52" s="9">
         <v>4</v>
       </c>
@@ -2553,9 +2592,9 @@
       <c r="K52" s="2"/>
     </row>
     <row r="53" spans="1:11" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="14"/>
+      <c r="A53" s="16"/>
       <c r="B53" s="15"/>
-      <c r="C53" s="14"/>
+      <c r="C53" s="16"/>
       <c r="D53" s="9">
         <v>5</v>
       </c>
@@ -2570,13 +2609,13 @@
       <c r="K53" s="2"/>
     </row>
     <row r="54" spans="1:11" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="17" t="s">
+      <c r="A54" s="22" t="s">
         <v>63</v>
       </c>
       <c r="B54" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C54" s="14"/>
+      <c r="C54" s="16"/>
       <c r="D54" s="9">
         <v>1</v>
       </c>
@@ -2593,9 +2632,9 @@
       <c r="K54" s="2"/>
     </row>
     <row r="55" spans="1:11" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="17"/>
+      <c r="A55" s="22"/>
       <c r="B55" s="15"/>
-      <c r="C55" s="14"/>
+      <c r="C55" s="16"/>
       <c r="D55" s="9">
         <v>2</v>
       </c>
@@ -2610,9 +2649,9 @@
       <c r="K55" s="2"/>
     </row>
     <row r="56" spans="1:11" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="17"/>
+      <c r="A56" s="22"/>
       <c r="B56" s="15"/>
-      <c r="C56" s="14"/>
+      <c r="C56" s="16"/>
       <c r="D56" s="9">
         <v>3</v>
       </c>
@@ -2627,9 +2666,9 @@
       <c r="K56" s="2"/>
     </row>
     <row r="57" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="17"/>
+      <c r="A57" s="22"/>
       <c r="B57" s="15"/>
-      <c r="C57" s="14"/>
+      <c r="C57" s="16"/>
       <c r="D57" s="9">
         <v>4</v>
       </c>
@@ -2644,9 +2683,9 @@
       <c r="K57" s="2"/>
     </row>
     <row r="58" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="17"/>
+      <c r="A58" s="22"/>
       <c r="B58" s="15"/>
-      <c r="C58" s="14"/>
+      <c r="C58" s="16"/>
       <c r="D58" s="9">
         <v>5</v>
       </c>
@@ -2661,13 +2700,13 @@
       <c r="K58" s="2"/>
     </row>
     <row r="59" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="14" t="s">
+      <c r="A59" s="16" t="s">
         <v>64</v>
       </c>
       <c r="B59" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="C59" s="14"/>
+      <c r="C59" s="16"/>
       <c r="D59" s="9">
         <v>1</v>
       </c>
@@ -2684,9 +2723,9 @@
       <c r="K59" s="2"/>
     </row>
     <row r="60" spans="1:11" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="14"/>
+      <c r="A60" s="16"/>
       <c r="B60" s="15"/>
-      <c r="C60" s="14"/>
+      <c r="C60" s="16"/>
       <c r="D60" s="9">
         <v>2</v>
       </c>
@@ -2701,9 +2740,9 @@
       <c r="K60" s="2"/>
     </row>
     <row r="61" spans="1:11" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="14"/>
+      <c r="A61" s="16"/>
       <c r="B61" s="15"/>
-      <c r="C61" s="14"/>
+      <c r="C61" s="16"/>
       <c r="D61" s="9">
         <v>3</v>
       </c>
@@ -2718,9 +2757,9 @@
       <c r="K61" s="2"/>
     </row>
     <row r="62" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="14"/>
+      <c r="A62" s="16"/>
       <c r="B62" s="15"/>
-      <c r="C62" s="14"/>
+      <c r="C62" s="16"/>
       <c r="D62" s="9">
         <v>4</v>
       </c>
@@ -2735,9 +2774,9 @@
       <c r="K62" s="2"/>
     </row>
     <row r="63" spans="1:11" ht="28.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="14"/>
+      <c r="A63" s="16"/>
       <c r="B63" s="15"/>
-      <c r="C63" s="14"/>
+      <c r="C63" s="16"/>
       <c r="D63" s="9">
         <v>5</v>
       </c>
@@ -2752,13 +2791,13 @@
       <c r="K63" s="2"/>
     </row>
     <row r="64" spans="1:11" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="17" t="s">
+      <c r="A64" s="22" t="s">
         <v>65</v>
       </c>
       <c r="B64" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="C64" s="14"/>
+      <c r="C64" s="16"/>
       <c r="D64" s="9">
         <v>1</v>
       </c>
@@ -2775,9 +2814,9 @@
       <c r="K64" s="2"/>
     </row>
     <row r="65" spans="1:11" ht="26.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="17"/>
+      <c r="A65" s="22"/>
       <c r="B65" s="15"/>
-      <c r="C65" s="14"/>
+      <c r="C65" s="16"/>
       <c r="D65" s="9">
         <v>2</v>
       </c>
@@ -2792,9 +2831,9 @@
       <c r="K65" s="2"/>
     </row>
     <row r="66" spans="1:11" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="17"/>
+      <c r="A66" s="22"/>
       <c r="B66" s="15"/>
-      <c r="C66" s="14"/>
+      <c r="C66" s="16"/>
       <c r="D66" s="9">
         <v>3</v>
       </c>
@@ -2809,9 +2848,9 @@
       <c r="K66" s="2"/>
     </row>
     <row r="67" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="17"/>
+      <c r="A67" s="22"/>
       <c r="B67" s="15"/>
-      <c r="C67" s="14"/>
+      <c r="C67" s="16"/>
       <c r="D67" s="9">
         <v>4</v>
       </c>
@@ -2826,9 +2865,9 @@
       <c r="K67" s="2"/>
     </row>
     <row r="68" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="17"/>
+      <c r="A68" s="22"/>
       <c r="B68" s="15"/>
-      <c r="C68" s="14"/>
+      <c r="C68" s="16"/>
       <c r="D68" s="9">
         <v>5</v>
       </c>
@@ -2843,13 +2882,13 @@
       <c r="K68" s="2"/>
     </row>
     <row r="69" spans="1:11" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="14" t="s">
+      <c r="A69" s="16" t="s">
         <v>116</v>
       </c>
       <c r="B69" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="C69" s="14"/>
+      <c r="C69" s="16"/>
       <c r="D69" s="9">
         <v>1</v>
       </c>
@@ -2866,9 +2905,9 @@
       <c r="K69" s="2"/>
     </row>
     <row r="70" spans="1:11" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="14"/>
+      <c r="A70" s="16"/>
       <c r="B70" s="15"/>
-      <c r="C70" s="14"/>
+      <c r="C70" s="16"/>
       <c r="D70" s="9">
         <v>2</v>
       </c>
@@ -2883,9 +2922,9 @@
       <c r="K70" s="2"/>
     </row>
     <row r="71" spans="1:11" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="14"/>
+      <c r="A71" s="16"/>
       <c r="B71" s="15"/>
-      <c r="C71" s="14"/>
+      <c r="C71" s="16"/>
       <c r="D71" s="9">
         <v>3</v>
       </c>
@@ -2900,9 +2939,9 @@
       <c r="K71" s="2"/>
     </row>
     <row r="72" spans="1:11" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="14"/>
+      <c r="A72" s="16"/>
       <c r="B72" s="15"/>
-      <c r="C72" s="14"/>
+      <c r="C72" s="16"/>
       <c r="D72" s="9">
         <v>4</v>
       </c>
@@ -2917,9 +2956,9 @@
       <c r="K72" s="2"/>
     </row>
     <row r="73" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="14"/>
+      <c r="A73" s="16"/>
       <c r="B73" s="15"/>
-      <c r="C73" s="14"/>
+      <c r="C73" s="16"/>
       <c r="D73" s="9">
         <v>5</v>
       </c>
@@ -2934,13 +2973,13 @@
       <c r="K73" s="2"/>
     </row>
     <row r="74" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="17" t="s">
+      <c r="A74" s="22" t="s">
         <v>117</v>
       </c>
       <c r="B74" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="C74" s="14"/>
+      <c r="C74" s="16"/>
       <c r="D74" s="9">
         <v>1</v>
       </c>
@@ -2957,9 +2996,9 @@
       <c r="K74" s="2"/>
     </row>
     <row r="75" spans="1:11" ht="35.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="17"/>
+      <c r="A75" s="22"/>
       <c r="B75" s="15"/>
-      <c r="C75" s="14"/>
+      <c r="C75" s="16"/>
       <c r="D75" s="9">
         <v>2</v>
       </c>
@@ -2974,9 +3013,9 @@
       <c r="K75" s="2"/>
     </row>
     <row r="76" spans="1:11" ht="31.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="17"/>
+      <c r="A76" s="22"/>
       <c r="B76" s="15"/>
-      <c r="C76" s="14"/>
+      <c r="C76" s="16"/>
       <c r="D76" s="9">
         <v>3</v>
       </c>
@@ -2991,9 +3030,9 @@
       <c r="K76" s="2"/>
     </row>
     <row r="77" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="17"/>
+      <c r="A77" s="22"/>
       <c r="B77" s="15"/>
-      <c r="C77" s="14"/>
+      <c r="C77" s="16"/>
       <c r="D77" s="9">
         <v>4</v>
       </c>
@@ -3008,9 +3047,9 @@
       <c r="K77" s="2"/>
     </row>
     <row r="78" spans="1:11" ht="23.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="17"/>
+      <c r="A78" s="22"/>
       <c r="B78" s="15"/>
-      <c r="C78" s="14"/>
+      <c r="C78" s="16"/>
       <c r="D78" s="9">
         <v>5</v>
       </c>
@@ -3025,13 +3064,13 @@
       <c r="K78" s="2"/>
     </row>
     <row r="79" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="14" t="s">
+      <c r="A79" s="16" t="s">
         <v>118</v>
       </c>
       <c r="B79" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="C79" s="14"/>
+      <c r="C79" s="16"/>
       <c r="D79" s="9">
         <v>1</v>
       </c>
@@ -3048,9 +3087,9 @@
       <c r="K79" s="2"/>
     </row>
     <row r="80" spans="1:11" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="14"/>
+      <c r="A80" s="16"/>
       <c r="B80" s="15"/>
-      <c r="C80" s="14"/>
+      <c r="C80" s="16"/>
       <c r="D80" s="9">
         <v>2</v>
       </c>
@@ -3065,9 +3104,9 @@
       <c r="K80" s="2"/>
     </row>
     <row r="81" spans="1:11" ht="31.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="14"/>
+      <c r="A81" s="16"/>
       <c r="B81" s="15"/>
-      <c r="C81" s="14"/>
+      <c r="C81" s="16"/>
       <c r="D81" s="9">
         <v>3</v>
       </c>
@@ -3082,9 +3121,9 @@
       <c r="K81" s="2"/>
     </row>
     <row r="82" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="14"/>
+      <c r="A82" s="16"/>
       <c r="B82" s="15"/>
-      <c r="C82" s="14"/>
+      <c r="C82" s="16"/>
       <c r="D82" s="9">
         <v>4</v>
       </c>
@@ -3099,9 +3138,9 @@
       <c r="K82" s="2"/>
     </row>
     <row r="83" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="14"/>
+      <c r="A83" s="16"/>
       <c r="B83" s="15"/>
-      <c r="C83" s="14"/>
+      <c r="C83" s="16"/>
       <c r="D83" s="9">
         <v>5</v>
       </c>
@@ -3116,18 +3155,18 @@
       <c r="K83" s="2"/>
     </row>
     <row r="84" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="17" t="s">
+      <c r="A84" s="31" t="s">
         <v>119</v>
       </c>
       <c r="B84" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="C84" s="14"/>
-      <c r="D84" s="9">
+        <v>159</v>
+      </c>
+      <c r="C84" s="18"/>
+      <c r="D84" s="14">
         <v>1</v>
       </c>
-      <c r="E84" s="9" t="s">
-        <v>89</v>
+      <c r="E84" s="14" t="s">
+        <v>156</v>
       </c>
       <c r="F84" s="15" t="s">
         <v>94</v>
@@ -3138,14 +3177,14 @@
       <c r="J84" s="11"/>
       <c r="K84" s="2"/>
     </row>
-    <row r="85" spans="1:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="17"/>
+    <row r="85" spans="1:11" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="31"/>
       <c r="B85" s="15"/>
-      <c r="C85" s="14"/>
-      <c r="D85" s="9">
+      <c r="C85" s="19"/>
+      <c r="D85" s="14">
         <v>2</v>
       </c>
-      <c r="E85" s="9" t="s">
+      <c r="E85" s="14" t="s">
         <v>54</v>
       </c>
       <c r="F85" s="15"/>
@@ -3155,14 +3194,14 @@
       <c r="J85" s="11"/>
       <c r="K85" s="2"/>
     </row>
-    <row r="86" spans="1:11" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="17"/>
+    <row r="86" spans="1:11" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="31"/>
       <c r="B86" s="15"/>
-      <c r="C86" s="14"/>
-      <c r="D86" s="9">
+      <c r="C86" s="19"/>
+      <c r="D86" s="14">
         <v>3</v>
       </c>
-      <c r="E86" s="9" t="s">
+      <c r="E86" s="14" t="s">
         <v>55</v>
       </c>
       <c r="F86" s="15"/>
@@ -3172,14 +3211,14 @@
       <c r="J86" s="11"/>
       <c r="K86" s="2"/>
     </row>
-    <row r="87" spans="1:11" ht="28.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="17"/>
+    <row r="87" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="31"/>
       <c r="B87" s="15"/>
-      <c r="C87" s="14"/>
-      <c r="D87" s="9">
+      <c r="C87" s="19"/>
+      <c r="D87" s="14">
         <v>4</v>
       </c>
-      <c r="E87" s="9" t="s">
+      <c r="E87" s="14" t="s">
         <v>39</v>
       </c>
       <c r="F87" s="15"/>
@@ -3190,13 +3229,13 @@
       <c r="K87" s="2"/>
     </row>
     <row r="88" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="17"/>
+      <c r="A88" s="31"/>
       <c r="B88" s="15"/>
-      <c r="C88" s="14"/>
-      <c r="D88" s="9">
+      <c r="C88" s="20"/>
+      <c r="D88" s="14">
         <v>5</v>
       </c>
-      <c r="E88" s="9" t="s">
+      <c r="E88" s="14" t="s">
         <v>27</v>
       </c>
       <c r="F88" s="15"/>
@@ -3207,21 +3246,21 @@
       <c r="K88" s="2"/>
     </row>
     <row r="89" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="14" t="s">
+      <c r="A89" s="31" t="s">
         <v>120</v>
       </c>
       <c r="B89" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="C89" s="14"/>
-      <c r="D89" s="9">
+        <v>160</v>
+      </c>
+      <c r="C89" s="18"/>
+      <c r="D89" s="14">
         <v>1</v>
       </c>
-      <c r="E89" s="9" t="s">
-        <v>73</v>
+      <c r="E89" s="14" t="s">
+        <v>158</v>
       </c>
       <c r="F89" s="15" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G89" s="11"/>
       <c r="H89" s="11"/>
@@ -3229,14 +3268,14 @@
       <c r="J89" s="11"/>
       <c r="K89" s="2"/>
     </row>
-    <row r="90" spans="1:11" ht="28.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="14"/>
+    <row r="90" spans="1:11" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="31"/>
       <c r="B90" s="15"/>
-      <c r="C90" s="14"/>
-      <c r="D90" s="9">
+      <c r="C90" s="19"/>
+      <c r="D90" s="14">
         <v>2</v>
       </c>
-      <c r="E90" s="9" t="s">
+      <c r="E90" s="14" t="s">
         <v>54</v>
       </c>
       <c r="F90" s="15"/>
@@ -3246,14 +3285,14 @@
       <c r="J90" s="11"/>
       <c r="K90" s="2"/>
     </row>
-    <row r="91" spans="1:11" ht="28.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="14"/>
+    <row r="91" spans="1:11" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="31"/>
       <c r="B91" s="15"/>
-      <c r="C91" s="14"/>
-      <c r="D91" s="9">
+      <c r="C91" s="19"/>
+      <c r="D91" s="14">
         <v>3</v>
       </c>
-      <c r="E91" s="9" t="s">
+      <c r="E91" s="14" t="s">
         <v>55</v>
       </c>
       <c r="F91" s="15"/>
@@ -3264,13 +3303,13 @@
       <c r="K91" s="2"/>
     </row>
     <row r="92" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="14"/>
+      <c r="A92" s="31"/>
       <c r="B92" s="15"/>
-      <c r="C92" s="14"/>
-      <c r="D92" s="9">
+      <c r="C92" s="19"/>
+      <c r="D92" s="14">
         <v>4</v>
       </c>
-      <c r="E92" s="9" t="s">
+      <c r="E92" s="14" t="s">
         <v>39</v>
       </c>
       <c r="F92" s="15"/>
@@ -3281,13 +3320,13 @@
       <c r="K92" s="2"/>
     </row>
     <row r="93" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="14"/>
+      <c r="A93" s="31"/>
       <c r="B93" s="15"/>
-      <c r="C93" s="14"/>
-      <c r="D93" s="9">
+      <c r="C93" s="20"/>
+      <c r="D93" s="14">
         <v>5</v>
       </c>
-      <c r="E93" s="9" t="s">
+      <c r="E93" s="14" t="s">
         <v>27</v>
       </c>
       <c r="F93" s="15"/>
@@ -3298,21 +3337,21 @@
       <c r="K93" s="2"/>
     </row>
     <row r="94" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="17" t="s">
+      <c r="A94" s="31" t="s">
         <v>121</v>
       </c>
       <c r="B94" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="C94" s="14"/>
-      <c r="D94" s="9">
+        <v>161</v>
+      </c>
+      <c r="C94" s="18"/>
+      <c r="D94" s="14">
         <v>1</v>
       </c>
-      <c r="E94" s="9" t="s">
-        <v>82</v>
+      <c r="E94" s="14" t="s">
+        <v>157</v>
       </c>
       <c r="F94" s="15" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G94" s="11"/>
       <c r="H94" s="11"/>
@@ -3320,14 +3359,14 @@
       <c r="J94" s="11"/>
       <c r="K94" s="2"/>
     </row>
-    <row r="95" spans="1:11" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="17"/>
+    <row r="95" spans="1:11" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="31"/>
       <c r="B95" s="15"/>
-      <c r="C95" s="14"/>
-      <c r="D95" s="9">
+      <c r="C95" s="19"/>
+      <c r="D95" s="14">
         <v>2</v>
       </c>
-      <c r="E95" s="9" t="s">
+      <c r="E95" s="14" t="s">
         <v>54</v>
       </c>
       <c r="F95" s="15"/>
@@ -3337,14 +3376,14 @@
       <c r="J95" s="11"/>
       <c r="K95" s="2"/>
     </row>
-    <row r="96" spans="1:11" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="17"/>
+    <row r="96" spans="1:11" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="31"/>
       <c r="B96" s="15"/>
-      <c r="C96" s="14"/>
-      <c r="D96" s="9">
+      <c r="C96" s="19"/>
+      <c r="D96" s="14">
         <v>3</v>
       </c>
-      <c r="E96" s="9" t="s">
+      <c r="E96" s="14" t="s">
         <v>55</v>
       </c>
       <c r="F96" s="15"/>
@@ -3354,14 +3393,14 @@
       <c r="J96" s="11"/>
       <c r="K96" s="2"/>
     </row>
-    <row r="97" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="17"/>
+    <row r="97" spans="1:11" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="31"/>
       <c r="B97" s="15"/>
-      <c r="C97" s="14"/>
-      <c r="D97" s="9">
+      <c r="C97" s="19"/>
+      <c r="D97" s="14">
         <v>4</v>
       </c>
-      <c r="E97" s="9" t="s">
+      <c r="E97" s="14" t="s">
         <v>39</v>
       </c>
       <c r="F97" s="15"/>
@@ -3372,13 +3411,13 @@
       <c r="K97" s="2"/>
     </row>
     <row r="98" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="17"/>
+      <c r="A98" s="31"/>
       <c r="B98" s="15"/>
-      <c r="C98" s="14"/>
-      <c r="D98" s="9">
+      <c r="C98" s="20"/>
+      <c r="D98" s="14">
         <v>5</v>
       </c>
-      <c r="E98" s="9" t="s">
+      <c r="E98" s="14" t="s">
         <v>27</v>
       </c>
       <c r="F98" s="15"/>
@@ -3389,21 +3428,21 @@
       <c r="K98" s="2"/>
     </row>
     <row r="99" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="14" t="s">
+      <c r="A99" s="16" t="s">
         <v>122</v>
       </c>
       <c r="B99" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="C99" s="14"/>
+        <v>88</v>
+      </c>
+      <c r="C99" s="16"/>
       <c r="D99" s="9">
         <v>1</v>
       </c>
       <c r="E99" s="9" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="F99" s="15" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G99" s="11"/>
       <c r="H99" s="11"/>
@@ -3411,10 +3450,10 @@
       <c r="J99" s="11"/>
       <c r="K99" s="2"/>
     </row>
-    <row r="100" spans="1:11" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="14"/>
+    <row r="100" spans="1:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="16"/>
       <c r="B100" s="15"/>
-      <c r="C100" s="14"/>
+      <c r="C100" s="16"/>
       <c r="D100" s="9">
         <v>2</v>
       </c>
@@ -3428,10 +3467,10 @@
       <c r="J100" s="11"/>
       <c r="K100" s="2"/>
     </row>
-    <row r="101" spans="1:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="14"/>
+    <row r="101" spans="1:11" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="16"/>
       <c r="B101" s="15"/>
-      <c r="C101" s="14"/>
+      <c r="C101" s="16"/>
       <c r="D101" s="9">
         <v>3</v>
       </c>
@@ -3445,10 +3484,10 @@
       <c r="J101" s="11"/>
       <c r="K101" s="2"/>
     </row>
-    <row r="102" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="14"/>
+    <row r="102" spans="1:11" ht="28.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="16"/>
       <c r="B102" s="15"/>
-      <c r="C102" s="14"/>
+      <c r="C102" s="16"/>
       <c r="D102" s="9">
         <v>4</v>
       </c>
@@ -3463,9 +3502,9 @@
       <c r="K102" s="2"/>
     </row>
     <row r="103" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="14"/>
+      <c r="A103" s="16"/>
       <c r="B103" s="15"/>
-      <c r="C103" s="14"/>
+      <c r="C103" s="16"/>
       <c r="D103" s="9">
         <v>5</v>
       </c>
@@ -3480,21 +3519,21 @@
       <c r="K103" s="2"/>
     </row>
     <row r="104" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="17" t="s">
+      <c r="A104" s="16" t="s">
         <v>123</v>
       </c>
       <c r="B104" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="C104" s="14"/>
+        <v>72</v>
+      </c>
+      <c r="C104" s="16"/>
       <c r="D104" s="9">
         <v>1</v>
       </c>
       <c r="E104" s="9" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="F104" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G104" s="11"/>
       <c r="H104" s="11"/>
@@ -3502,10 +3541,10 @@
       <c r="J104" s="11"/>
       <c r="K104" s="2"/>
     </row>
-    <row r="105" spans="1:11" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="17"/>
+    <row r="105" spans="1:11" ht="28.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="16"/>
       <c r="B105" s="15"/>
-      <c r="C105" s="14"/>
+      <c r="C105" s="16"/>
       <c r="D105" s="9">
         <v>2</v>
       </c>
@@ -3519,10 +3558,10 @@
       <c r="J105" s="11"/>
       <c r="K105" s="2"/>
     </row>
-    <row r="106" spans="1:11" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="17"/>
+    <row r="106" spans="1:11" ht="28.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="16"/>
       <c r="B106" s="15"/>
-      <c r="C106" s="14"/>
+      <c r="C106" s="16"/>
       <c r="D106" s="9">
         <v>3</v>
       </c>
@@ -3536,10 +3575,10 @@
       <c r="J106" s="11"/>
       <c r="K106" s="2"/>
     </row>
-    <row r="107" spans="1:11" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="17"/>
+    <row r="107" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="16"/>
       <c r="B107" s="15"/>
-      <c r="C107" s="14"/>
+      <c r="C107" s="16"/>
       <c r="D107" s="9">
         <v>4</v>
       </c>
@@ -3554,9 +3593,9 @@
       <c r="K107" s="2"/>
     </row>
     <row r="108" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="17"/>
+      <c r="A108" s="16"/>
       <c r="B108" s="15"/>
-      <c r="C108" s="14"/>
+      <c r="C108" s="16"/>
       <c r="D108" s="9">
         <v>5</v>
       </c>
@@ -3571,18 +3610,18 @@
       <c r="K108" s="2"/>
     </row>
     <row r="109" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="14" t="s">
+      <c r="A109" s="16" t="s">
         <v>124</v>
       </c>
       <c r="B109" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="C109" s="14"/>
+        <v>76</v>
+      </c>
+      <c r="C109" s="16"/>
       <c r="D109" s="9">
         <v>1</v>
       </c>
       <c r="E109" s="9" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="F109" s="15" t="s">
         <v>92</v>
@@ -3593,10 +3632,10 @@
       <c r="J109" s="11"/>
       <c r="K109" s="2"/>
     </row>
-    <row r="110" spans="1:11" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="14"/>
+    <row r="110" spans="1:11" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="16"/>
       <c r="B110" s="15"/>
-      <c r="C110" s="14"/>
+      <c r="C110" s="16"/>
       <c r="D110" s="9">
         <v>2</v>
       </c>
@@ -3610,10 +3649,10 @@
       <c r="J110" s="11"/>
       <c r="K110" s="2"/>
     </row>
-    <row r="111" spans="1:11" ht="28.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="14"/>
+    <row r="111" spans="1:11" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="16"/>
       <c r="B111" s="15"/>
-      <c r="C111" s="14"/>
+      <c r="C111" s="16"/>
       <c r="D111" s="9">
         <v>3</v>
       </c>
@@ -3628,9 +3667,9 @@
       <c r="K111" s="2"/>
     </row>
     <row r="112" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="14"/>
+      <c r="A112" s="16"/>
       <c r="B112" s="15"/>
-      <c r="C112" s="14"/>
+      <c r="C112" s="16"/>
       <c r="D112" s="9">
         <v>4</v>
       </c>
@@ -3645,9 +3684,9 @@
       <c r="K112" s="2"/>
     </row>
     <row r="113" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="14"/>
+      <c r="A113" s="16"/>
       <c r="B113" s="15"/>
-      <c r="C113" s="14"/>
+      <c r="C113" s="16"/>
       <c r="D113" s="9">
         <v>5</v>
       </c>
@@ -3662,21 +3701,21 @@
       <c r="K113" s="2"/>
     </row>
     <row r="114" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="17" t="s">
+      <c r="A114" s="16" t="s">
         <v>125</v>
       </c>
       <c r="B114" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="C114" s="14"/>
+        <v>75</v>
+      </c>
+      <c r="C114" s="16"/>
       <c r="D114" s="9">
         <v>1</v>
       </c>
       <c r="E114" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F114" s="15" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="G114" s="11"/>
       <c r="H114" s="11"/>
@@ -3684,10 +3723,10 @@
       <c r="J114" s="11"/>
       <c r="K114" s="2"/>
     </row>
-    <row r="115" spans="1:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="17"/>
+    <row r="115" spans="1:11" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="16"/>
       <c r="B115" s="15"/>
-      <c r="C115" s="14"/>
+      <c r="C115" s="16"/>
       <c r="D115" s="9">
         <v>2</v>
       </c>
@@ -3701,10 +3740,10 @@
       <c r="J115" s="11"/>
       <c r="K115" s="2"/>
     </row>
-    <row r="116" spans="1:11" ht="25.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="17"/>
+    <row r="116" spans="1:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="16"/>
       <c r="B116" s="15"/>
-      <c r="C116" s="14"/>
+      <c r="C116" s="16"/>
       <c r="D116" s="9">
         <v>3</v>
       </c>
@@ -3719,9 +3758,9 @@
       <c r="K116" s="2"/>
     </row>
     <row r="117" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="17"/>
+      <c r="A117" s="16"/>
       <c r="B117" s="15"/>
-      <c r="C117" s="14"/>
+      <c r="C117" s="16"/>
       <c r="D117" s="9">
         <v>4</v>
       </c>
@@ -3736,9 +3775,9 @@
       <c r="K117" s="2"/>
     </row>
     <row r="118" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="17"/>
+      <c r="A118" s="16"/>
       <c r="B118" s="15"/>
-      <c r="C118" s="14"/>
+      <c r="C118" s="16"/>
       <c r="D118" s="9">
         <v>5</v>
       </c>
@@ -3753,21 +3792,21 @@
       <c r="K118" s="2"/>
     </row>
     <row r="119" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="14" t="s">
+      <c r="A119" s="16" t="s">
         <v>126</v>
       </c>
       <c r="B119" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="C119" s="14"/>
+        <v>74</v>
+      </c>
+      <c r="C119" s="16"/>
       <c r="D119" s="9">
         <v>1</v>
       </c>
       <c r="E119" s="9" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F119" s="15" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="G119" s="11"/>
       <c r="H119" s="11"/>
@@ -3775,10 +3814,10 @@
       <c r="J119" s="11"/>
       <c r="K119" s="2"/>
     </row>
-    <row r="120" spans="1:11" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="14"/>
+    <row r="120" spans="1:11" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="16"/>
       <c r="B120" s="15"/>
-      <c r="C120" s="14"/>
+      <c r="C120" s="16"/>
       <c r="D120" s="9">
         <v>2</v>
       </c>
@@ -3792,10 +3831,10 @@
       <c r="J120" s="11"/>
       <c r="K120" s="2"/>
     </row>
-    <row r="121" spans="1:11" ht="34.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="14"/>
+    <row r="121" spans="1:11" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="16"/>
       <c r="B121" s="15"/>
-      <c r="C121" s="14"/>
+      <c r="C121" s="16"/>
       <c r="D121" s="9">
         <v>3</v>
       </c>
@@ -3809,10 +3848,10 @@
       <c r="J121" s="11"/>
       <c r="K121" s="2"/>
     </row>
-    <row r="122" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="14"/>
+    <row r="122" spans="1:11" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="16"/>
       <c r="B122" s="15"/>
-      <c r="C122" s="14"/>
+      <c r="C122" s="16"/>
       <c r="D122" s="9">
         <v>4</v>
       </c>
@@ -3827,9 +3866,9 @@
       <c r="K122" s="2"/>
     </row>
     <row r="123" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="14"/>
+      <c r="A123" s="16"/>
       <c r="B123" s="15"/>
-      <c r="C123" s="14"/>
+      <c r="C123" s="16"/>
       <c r="D123" s="9">
         <v>5</v>
       </c>
@@ -3843,22 +3882,22 @@
       <c r="J123" s="11"/>
       <c r="K123" s="2"/>
     </row>
-    <row r="124" spans="1:11" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="17" t="s">
+    <row r="124" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="16" t="s">
         <v>127</v>
       </c>
       <c r="B124" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="C124" s="14"/>
+        <v>90</v>
+      </c>
+      <c r="C124" s="16"/>
       <c r="D124" s="9">
         <v>1</v>
       </c>
       <c r="E124" s="9" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="F124" s="15" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="G124" s="11"/>
       <c r="H124" s="11"/>
@@ -3866,10 +3905,10 @@
       <c r="J124" s="11"/>
       <c r="K124" s="2"/>
     </row>
-    <row r="125" spans="1:11" ht="25.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="17"/>
+    <row r="125" spans="1:11" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="16"/>
       <c r="B125" s="15"/>
-      <c r="C125" s="14"/>
+      <c r="C125" s="16"/>
       <c r="D125" s="9">
         <v>2</v>
       </c>
@@ -3883,10 +3922,10 @@
       <c r="J125" s="11"/>
       <c r="K125" s="2"/>
     </row>
-    <row r="126" spans="1:11" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="17"/>
+    <row r="126" spans="1:11" ht="28.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="16"/>
       <c r="B126" s="15"/>
-      <c r="C126" s="14"/>
+      <c r="C126" s="16"/>
       <c r="D126" s="9">
         <v>3</v>
       </c>
@@ -3901,9 +3940,9 @@
       <c r="K126" s="2"/>
     </row>
     <row r="127" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="17"/>
+      <c r="A127" s="16"/>
       <c r="B127" s="15"/>
-      <c r="C127" s="14"/>
+      <c r="C127" s="16"/>
       <c r="D127" s="9">
         <v>4</v>
       </c>
@@ -3918,9 +3957,9 @@
       <c r="K127" s="2"/>
     </row>
     <row r="128" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="17"/>
+      <c r="A128" s="16"/>
       <c r="B128" s="15"/>
-      <c r="C128" s="14"/>
+      <c r="C128" s="16"/>
       <c r="D128" s="9">
         <v>5</v>
       </c>
@@ -3935,21 +3974,21 @@
       <c r="K128" s="2"/>
     </row>
     <row r="129" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="14" t="s">
+      <c r="A129" s="16" t="s">
         <v>128</v>
       </c>
       <c r="B129" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="C129" s="14"/>
+        <v>77</v>
+      </c>
+      <c r="C129" s="16"/>
       <c r="D129" s="9">
         <v>1</v>
       </c>
       <c r="E129" s="9" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F129" s="15" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G129" s="11"/>
       <c r="H129" s="11"/>
@@ -3957,10 +3996,10 @@
       <c r="J129" s="11"/>
       <c r="K129" s="2"/>
     </row>
-    <row r="130" spans="1:11" ht="25.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="14"/>
+    <row r="130" spans="1:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="16"/>
       <c r="B130" s="15"/>
-      <c r="C130" s="14"/>
+      <c r="C130" s="16"/>
       <c r="D130" s="9">
         <v>2</v>
       </c>
@@ -3974,10 +4013,10 @@
       <c r="J130" s="11"/>
       <c r="K130" s="2"/>
     </row>
-    <row r="131" spans="1:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="14"/>
+    <row r="131" spans="1:11" ht="25.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="16"/>
       <c r="B131" s="15"/>
-      <c r="C131" s="14"/>
+      <c r="C131" s="16"/>
       <c r="D131" s="9">
         <v>3</v>
       </c>
@@ -3991,10 +4030,10 @@
       <c r="J131" s="11"/>
       <c r="K131" s="2"/>
     </row>
-    <row r="132" spans="1:11" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="14"/>
+    <row r="132" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="16"/>
       <c r="B132" s="15"/>
-      <c r="C132" s="14"/>
+      <c r="C132" s="16"/>
       <c r="D132" s="9">
         <v>4</v>
       </c>
@@ -4009,9 +4048,9 @@
       <c r="K132" s="2"/>
     </row>
     <row r="133" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="14"/>
+      <c r="A133" s="16"/>
       <c r="B133" s="15"/>
-      <c r="C133" s="14"/>
+      <c r="C133" s="16"/>
       <c r="D133" s="9">
         <v>5</v>
       </c>
@@ -4025,22 +4064,22 @@
       <c r="J133" s="11"/>
       <c r="K133" s="2"/>
     </row>
-    <row r="134" spans="1:11" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="17" t="s">
+    <row r="134" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="16" t="s">
         <v>129</v>
       </c>
       <c r="B134" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="C134" s="14"/>
+        <v>78</v>
+      </c>
+      <c r="C134" s="16"/>
       <c r="D134" s="9">
         <v>1</v>
       </c>
       <c r="E134" s="9" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="F134" s="15" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G134" s="11"/>
       <c r="H134" s="11"/>
@@ -4048,10 +4087,10 @@
       <c r="J134" s="11"/>
       <c r="K134" s="2"/>
     </row>
-    <row r="135" spans="1:11" ht="25.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="17"/>
+    <row r="135" spans="1:11" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="16"/>
       <c r="B135" s="15"/>
-      <c r="C135" s="14"/>
+      <c r="C135" s="16"/>
       <c r="D135" s="9">
         <v>2</v>
       </c>
@@ -4065,10 +4104,10 @@
       <c r="J135" s="11"/>
       <c r="K135" s="2"/>
     </row>
-    <row r="136" spans="1:11" ht="25.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="17"/>
+    <row r="136" spans="1:11" ht="34.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="16"/>
       <c r="B136" s="15"/>
-      <c r="C136" s="14"/>
+      <c r="C136" s="16"/>
       <c r="D136" s="9">
         <v>3</v>
       </c>
@@ -4082,10 +4121,10 @@
       <c r="J136" s="11"/>
       <c r="K136" s="2"/>
     </row>
-    <row r="137" spans="1:11" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="17"/>
+    <row r="137" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="16"/>
       <c r="B137" s="15"/>
-      <c r="C137" s="14"/>
+      <c r="C137" s="16"/>
       <c r="D137" s="9">
         <v>4</v>
       </c>
@@ -4100,9 +4139,9 @@
       <c r="K137" s="2"/>
     </row>
     <row r="138" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="17"/>
+      <c r="A138" s="16"/>
       <c r="B138" s="15"/>
-      <c r="C138" s="14"/>
+      <c r="C138" s="16"/>
       <c r="D138" s="9">
         <v>5</v>
       </c>
@@ -4116,22 +4155,22 @@
       <c r="J138" s="11"/>
       <c r="K138" s="2"/>
     </row>
-    <row r="139" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="14" t="s">
+    <row r="139" spans="1:11" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="16" t="s">
         <v>130</v>
       </c>
       <c r="B139" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="C139" s="14"/>
+        <v>79</v>
+      </c>
+      <c r="C139" s="16"/>
       <c r="D139" s="9">
         <v>1</v>
       </c>
       <c r="E139" s="9" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="F139" s="15" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="G139" s="11"/>
       <c r="H139" s="11"/>
@@ -4139,10 +4178,10 @@
       <c r="J139" s="11"/>
       <c r="K139" s="2"/>
     </row>
-    <row r="140" spans="1:11" ht="28.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="14"/>
+    <row r="140" spans="1:11" ht="25.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="16"/>
       <c r="B140" s="15"/>
-      <c r="C140" s="14"/>
+      <c r="C140" s="16"/>
       <c r="D140" s="9">
         <v>2</v>
       </c>
@@ -4156,10 +4195,10 @@
       <c r="J140" s="11"/>
       <c r="K140" s="2"/>
     </row>
-    <row r="141" spans="1:11" ht="31.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="14"/>
+    <row r="141" spans="1:11" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="16"/>
       <c r="B141" s="15"/>
-      <c r="C141" s="14"/>
+      <c r="C141" s="16"/>
       <c r="D141" s="9">
         <v>3</v>
       </c>
@@ -4174,9 +4213,9 @@
       <c r="K141" s="2"/>
     </row>
     <row r="142" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="14"/>
+      <c r="A142" s="16"/>
       <c r="B142" s="15"/>
-      <c r="C142" s="14"/>
+      <c r="C142" s="16"/>
       <c r="D142" s="9">
         <v>4</v>
       </c>
@@ -4191,9 +4230,9 @@
       <c r="K142" s="2"/>
     </row>
     <row r="143" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="14"/>
+      <c r="A143" s="16"/>
       <c r="B143" s="15"/>
-      <c r="C143" s="14"/>
+      <c r="C143" s="16"/>
       <c r="D143" s="9">
         <v>5</v>
       </c>
@@ -4208,21 +4247,21 @@
       <c r="K143" s="2"/>
     </row>
     <row r="144" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="17" t="s">
+      <c r="A144" s="16" t="s">
         <v>131</v>
       </c>
       <c r="B144" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="C144" s="14"/>
+        <v>80</v>
+      </c>
+      <c r="C144" s="16"/>
       <c r="D144" s="9">
         <v>1</v>
       </c>
       <c r="E144" s="9" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="F144" s="15" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="G144" s="11"/>
       <c r="H144" s="11"/>
@@ -4230,10 +4269,10 @@
       <c r="J144" s="11"/>
       <c r="K144" s="2"/>
     </row>
-    <row r="145" spans="1:11" ht="31.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="17"/>
+    <row r="145" spans="1:11" ht="25.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="16"/>
       <c r="B145" s="15"/>
-      <c r="C145" s="14"/>
+      <c r="C145" s="16"/>
       <c r="D145" s="9">
         <v>2</v>
       </c>
@@ -4247,10 +4286,10 @@
       <c r="J145" s="11"/>
       <c r="K145" s="2"/>
     </row>
-    <row r="146" spans="1:11" ht="31.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="17"/>
+    <row r="146" spans="1:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="16"/>
       <c r="B146" s="15"/>
-      <c r="C146" s="14"/>
+      <c r="C146" s="16"/>
       <c r="D146" s="9">
         <v>3</v>
       </c>
@@ -4264,10 +4303,10 @@
       <c r="J146" s="11"/>
       <c r="K146" s="2"/>
     </row>
-    <row r="147" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="17"/>
+    <row r="147" spans="1:11" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="16"/>
       <c r="B147" s="15"/>
-      <c r="C147" s="14"/>
+      <c r="C147" s="16"/>
       <c r="D147" s="9">
         <v>4</v>
       </c>
@@ -4282,9 +4321,9 @@
       <c r="K147" s="2"/>
     </row>
     <row r="148" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="17"/>
+      <c r="A148" s="16"/>
       <c r="B148" s="15"/>
-      <c r="C148" s="14"/>
+      <c r="C148" s="16"/>
       <c r="D148" s="9">
         <v>5</v>
       </c>
@@ -4298,22 +4337,22 @@
       <c r="J148" s="11"/>
       <c r="K148" s="2"/>
     </row>
-    <row r="149" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="14" t="s">
+    <row r="149" spans="1:11" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="16" t="s">
         <v>132</v>
       </c>
       <c r="B149" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="C149" s="14"/>
+        <v>99</v>
+      </c>
+      <c r="C149" s="16"/>
       <c r="D149" s="9">
         <v>1</v>
       </c>
       <c r="E149" s="9" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="F149" s="15" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="G149" s="11"/>
       <c r="H149" s="11"/>
@@ -4321,10 +4360,10 @@
       <c r="J149" s="11"/>
       <c r="K149" s="2"/>
     </row>
-    <row r="150" spans="1:11" ht="28.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="14"/>
+    <row r="150" spans="1:11" ht="25.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="16"/>
       <c r="B150" s="15"/>
-      <c r="C150" s="14"/>
+      <c r="C150" s="16"/>
       <c r="D150" s="9">
         <v>2</v>
       </c>
@@ -4338,10 +4377,10 @@
       <c r="J150" s="11"/>
       <c r="K150" s="2"/>
     </row>
-    <row r="151" spans="1:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="14"/>
+    <row r="151" spans="1:11" ht="25.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="16"/>
       <c r="B151" s="15"/>
-      <c r="C151" s="14"/>
+      <c r="C151" s="16"/>
       <c r="D151" s="9">
         <v>3</v>
       </c>
@@ -4355,10 +4394,10 @@
       <c r="J151" s="11"/>
       <c r="K151" s="2"/>
     </row>
-    <row r="152" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="14"/>
+    <row r="152" spans="1:11" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="16"/>
       <c r="B152" s="15"/>
-      <c r="C152" s="14"/>
+      <c r="C152" s="16"/>
       <c r="D152" s="9">
         <v>4</v>
       </c>
@@ -4373,9 +4412,9 @@
       <c r="K152" s="2"/>
     </row>
     <row r="153" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="14"/>
+      <c r="A153" s="16"/>
       <c r="B153" s="15"/>
-      <c r="C153" s="14"/>
+      <c r="C153" s="16"/>
       <c r="D153" s="9">
         <v>5</v>
       </c>
@@ -4389,124 +4428,124 @@
       <c r="J153" s="11"/>
       <c r="K153" s="2"/>
     </row>
-    <row r="154" spans="1:11" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="17" t="s">
+    <row r="154" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="16" t="s">
         <v>133</v>
       </c>
       <c r="B154" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="C154" s="14"/>
+        <v>103</v>
+      </c>
+      <c r="C154" s="16"/>
       <c r="D154" s="9">
         <v>1</v>
       </c>
       <c r="E154" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="F154" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="G154" s="12"/>
-      <c r="H154" s="12"/>
-      <c r="I154" s="12"/>
-      <c r="J154" s="12"/>
+        <v>115</v>
+      </c>
+      <c r="F154" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="G154" s="11"/>
+      <c r="H154" s="11"/>
+      <c r="I154" s="11"/>
+      <c r="J154" s="11"/>
       <c r="K154" s="2"/>
     </row>
-    <row r="155" spans="1:11" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="17"/>
+    <row r="155" spans="1:11" ht="28.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="16"/>
       <c r="B155" s="15"/>
-      <c r="C155" s="14"/>
+      <c r="C155" s="16"/>
       <c r="D155" s="9">
         <v>2</v>
       </c>
       <c r="E155" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="F155" s="16"/>
-      <c r="G155" s="12"/>
-      <c r="H155" s="12"/>
-      <c r="I155" s="12"/>
-      <c r="J155" s="12"/>
+      <c r="F155" s="15"/>
+      <c r="G155" s="11"/>
+      <c r="H155" s="11"/>
+      <c r="I155" s="11"/>
+      <c r="J155" s="11"/>
       <c r="K155" s="2"/>
     </row>
-    <row r="156" spans="1:11" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="17"/>
+    <row r="156" spans="1:11" ht="31.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="16"/>
       <c r="B156" s="15"/>
-      <c r="C156" s="14"/>
+      <c r="C156" s="16"/>
       <c r="D156" s="9">
         <v>3</v>
       </c>
       <c r="E156" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="F156" s="16"/>
-      <c r="G156" s="12"/>
-      <c r="H156" s="12"/>
-      <c r="I156" s="12"/>
-      <c r="J156" s="12"/>
+      <c r="F156" s="15"/>
+      <c r="G156" s="11"/>
+      <c r="H156" s="11"/>
+      <c r="I156" s="11"/>
+      <c r="J156" s="11"/>
       <c r="K156" s="2"/>
     </row>
-    <row r="157" spans="1:11" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="17"/>
+    <row r="157" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="16"/>
       <c r="B157" s="15"/>
-      <c r="C157" s="14"/>
+      <c r="C157" s="16"/>
       <c r="D157" s="9">
         <v>4</v>
       </c>
       <c r="E157" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="F157" s="16"/>
-      <c r="G157" s="12"/>
-      <c r="H157" s="12"/>
-      <c r="I157" s="12"/>
-      <c r="J157" s="12"/>
+      <c r="F157" s="15"/>
+      <c r="G157" s="11"/>
+      <c r="H157" s="11"/>
+      <c r="I157" s="11"/>
+      <c r="J157" s="11"/>
       <c r="K157" s="2"/>
     </row>
     <row r="158" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="17"/>
+      <c r="A158" s="16"/>
       <c r="B158" s="15"/>
-      <c r="C158" s="14"/>
+      <c r="C158" s="16"/>
       <c r="D158" s="9">
         <v>5</v>
       </c>
       <c r="E158" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F158" s="16"/>
-      <c r="G158" s="12"/>
-      <c r="H158" s="12"/>
-      <c r="I158" s="12"/>
-      <c r="J158" s="12"/>
+      <c r="F158" s="15"/>
+      <c r="G158" s="11"/>
+      <c r="H158" s="11"/>
+      <c r="I158" s="11"/>
+      <c r="J158" s="11"/>
       <c r="K158" s="2"/>
     </row>
     <row r="159" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="14" t="s">
+      <c r="A159" s="16" t="s">
         <v>134</v>
       </c>
       <c r="B159" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="C159" s="14"/>
+        <v>104</v>
+      </c>
+      <c r="C159" s="16"/>
       <c r="D159" s="9">
         <v>1</v>
       </c>
       <c r="E159" s="9" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="F159" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="G159" s="12"/>
-      <c r="H159" s="12"/>
-      <c r="I159" s="12"/>
-      <c r="J159" s="12"/>
+        <v>109</v>
+      </c>
+      <c r="G159" s="11"/>
+      <c r="H159" s="11"/>
+      <c r="I159" s="11"/>
+      <c r="J159" s="11"/>
       <c r="K159" s="2"/>
     </row>
-    <row r="160" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="14"/>
+    <row r="160" spans="1:11" ht="31.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="16"/>
       <c r="B160" s="15"/>
-      <c r="C160" s="14"/>
+      <c r="C160" s="16"/>
       <c r="D160" s="9">
         <v>2</v>
       </c>
@@ -4514,16 +4553,16 @@
         <v>54</v>
       </c>
       <c r="F160" s="15"/>
-      <c r="G160" s="12"/>
-      <c r="H160" s="12"/>
-      <c r="I160" s="12"/>
-      <c r="J160" s="12"/>
+      <c r="G160" s="11"/>
+      <c r="H160" s="11"/>
+      <c r="I160" s="11"/>
+      <c r="J160" s="11"/>
       <c r="K160" s="2"/>
     </row>
-    <row r="161" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="14"/>
+    <row r="161" spans="1:11" ht="31.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="16"/>
       <c r="B161" s="15"/>
-      <c r="C161" s="14"/>
+      <c r="C161" s="16"/>
       <c r="D161" s="9">
         <v>3</v>
       </c>
@@ -4531,16 +4570,16 @@
         <v>55</v>
       </c>
       <c r="F161" s="15"/>
-      <c r="G161" s="12"/>
-      <c r="H161" s="12"/>
-      <c r="I161" s="12"/>
-      <c r="J161" s="12"/>
+      <c r="G161" s="11"/>
+      <c r="H161" s="11"/>
+      <c r="I161" s="11"/>
+      <c r="J161" s="11"/>
       <c r="K161" s="2"/>
     </row>
-    <row r="162" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="14"/>
+    <row r="162" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="16"/>
       <c r="B162" s="15"/>
-      <c r="C162" s="14"/>
+      <c r="C162" s="16"/>
       <c r="D162" s="9">
         <v>4</v>
       </c>
@@ -4548,16 +4587,16 @@
         <v>39</v>
       </c>
       <c r="F162" s="15"/>
-      <c r="G162" s="12"/>
-      <c r="H162" s="12"/>
-      <c r="I162" s="12"/>
-      <c r="J162" s="12"/>
+      <c r="G162" s="11"/>
+      <c r="H162" s="11"/>
+      <c r="I162" s="11"/>
+      <c r="J162" s="11"/>
       <c r="K162" s="2"/>
     </row>
-    <row r="163" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="14"/>
+    <row r="163" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="16"/>
       <c r="B163" s="15"/>
-      <c r="C163" s="14"/>
+      <c r="C163" s="16"/>
       <c r="D163" s="9">
         <v>5</v>
       </c>
@@ -4565,117 +4604,119 @@
         <v>27</v>
       </c>
       <c r="F163" s="15"/>
-      <c r="G163" s="12"/>
-      <c r="H163" s="12"/>
-      <c r="I163" s="12"/>
-      <c r="J163" s="12"/>
+      <c r="G163" s="11"/>
+      <c r="H163" s="11"/>
+      <c r="I163" s="11"/>
+      <c r="J163" s="11"/>
       <c r="K163" s="2"/>
     </row>
     <row r="164" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="14" t="s">
+      <c r="A164" s="16" t="s">
         <v>152</v>
       </c>
       <c r="B164" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="C164" s="14"/>
-      <c r="D164" s="13">
+        <v>105</v>
+      </c>
+      <c r="C164" s="16"/>
+      <c r="D164" s="9">
         <v>1</v>
       </c>
-      <c r="E164" s="13" t="s">
-        <v>139</v>
+      <c r="E164" s="9" t="s">
+        <v>113</v>
       </c>
       <c r="F164" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="G164" s="12"/>
-      <c r="H164" s="12"/>
-      <c r="I164" s="12"/>
-      <c r="J164" s="12"/>
+        <v>109</v>
+      </c>
+      <c r="G164" s="11"/>
+      <c r="H164" s="11"/>
+      <c r="I164" s="11"/>
+      <c r="J164" s="11"/>
       <c r="K164" s="2"/>
     </row>
-    <row r="165" spans="1:11" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="14"/>
+    <row r="165" spans="1:11" ht="28.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="16"/>
       <c r="B165" s="15"/>
-      <c r="C165" s="14"/>
-      <c r="D165" s="13">
+      <c r="C165" s="16"/>
+      <c r="D165" s="9">
         <v>2</v>
       </c>
-      <c r="E165" s="13" t="s">
-        <v>140</v>
+      <c r="E165" s="9" t="s">
+        <v>54</v>
       </c>
       <c r="F165" s="15"/>
-      <c r="G165" s="12"/>
-      <c r="H165" s="12"/>
-      <c r="I165" s="12"/>
-      <c r="J165" s="12"/>
+      <c r="G165" s="11"/>
+      <c r="H165" s="11"/>
+      <c r="I165" s="11"/>
+      <c r="J165" s="11"/>
       <c r="K165" s="2"/>
     </row>
-    <row r="166" spans="1:11" ht="31.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="14"/>
+    <row r="166" spans="1:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="16"/>
       <c r="B166" s="15"/>
-      <c r="C166" s="14"/>
-      <c r="D166" s="13">
+      <c r="C166" s="16"/>
+      <c r="D166" s="9">
         <v>3</v>
       </c>
-      <c r="E166" s="13" t="s">
-        <v>141</v>
+      <c r="E166" s="9" t="s">
+        <v>55</v>
       </c>
       <c r="F166" s="15"/>
-      <c r="G166" s="12"/>
-      <c r="H166" s="12"/>
-      <c r="I166" s="12"/>
-      <c r="J166" s="12"/>
+      <c r="G166" s="11"/>
+      <c r="H166" s="11"/>
+      <c r="I166" s="11"/>
+      <c r="J166" s="11"/>
       <c r="K166" s="2"/>
     </row>
     <row r="167" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="14"/>
+      <c r="A167" s="16"/>
       <c r="B167" s="15"/>
-      <c r="C167" s="14"/>
-      <c r="D167" s="13">
+      <c r="C167" s="16"/>
+      <c r="D167" s="9">
         <v>4</v>
       </c>
-      <c r="E167" s="13" t="s">
+      <c r="E167" s="9" t="s">
         <v>39</v>
       </c>
       <c r="F167" s="15"/>
-      <c r="G167" s="12"/>
-      <c r="H167" s="12"/>
-      <c r="I167" s="12"/>
-      <c r="J167" s="12"/>
+      <c r="G167" s="11"/>
+      <c r="H167" s="11"/>
+      <c r="I167" s="11"/>
+      <c r="J167" s="11"/>
       <c r="K167" s="2"/>
     </row>
     <row r="168" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="14"/>
+      <c r="A168" s="16"/>
       <c r="B168" s="15"/>
-      <c r="C168" s="14"/>
-      <c r="D168" s="13">
+      <c r="C168" s="16"/>
+      <c r="D168" s="9">
         <v>5</v>
       </c>
-      <c r="E168" s="13" t="s">
+      <c r="E168" s="9" t="s">
         <v>27</v>
       </c>
       <c r="F168" s="15"/>
-      <c r="G168" s="12"/>
-      <c r="H168" s="12"/>
-      <c r="I168" s="12"/>
-      <c r="J168" s="12"/>
+      <c r="G168" s="11"/>
+      <c r="H168" s="11"/>
+      <c r="I168" s="11"/>
+      <c r="J168" s="11"/>
       <c r="K168" s="2"/>
     </row>
-    <row r="169" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="14" t="s">
+    <row r="169" spans="1:11" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="16" t="s">
         <v>153</v>
       </c>
       <c r="B169" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="C169" s="14"/>
-      <c r="D169" s="13"/>
-      <c r="E169" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="F169" s="16" t="s">
-        <v>150</v>
+        <v>106</v>
+      </c>
+      <c r="C169" s="16"/>
+      <c r="D169" s="9">
+        <v>1</v>
+      </c>
+      <c r="E169" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F169" s="21" t="s">
+        <v>108</v>
       </c>
       <c r="G169" s="12"/>
       <c r="H169" s="12"/>
@@ -4683,51 +4724,51 @@
       <c r="J169" s="12"/>
       <c r="K169" s="2"/>
     </row>
-    <row r="170" spans="1:11" ht="31.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="14"/>
+    <row r="170" spans="1:11" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A170" s="16"/>
       <c r="B170" s="15"/>
-      <c r="C170" s="14"/>
-      <c r="D170" s="13">
+      <c r="C170" s="16"/>
+      <c r="D170" s="9">
         <v>2</v>
       </c>
-      <c r="E170" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="F170" s="16"/>
+      <c r="E170" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F170" s="21"/>
       <c r="G170" s="12"/>
       <c r="H170" s="12"/>
       <c r="I170" s="12"/>
       <c r="J170" s="12"/>
       <c r="K170" s="2"/>
     </row>
-    <row r="171" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="14"/>
+    <row r="171" spans="1:11" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="16"/>
       <c r="B171" s="15"/>
-      <c r="C171" s="14"/>
-      <c r="D171" s="13">
+      <c r="C171" s="16"/>
+      <c r="D171" s="9">
         <v>3</v>
       </c>
-      <c r="E171" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="F171" s="16"/>
+      <c r="E171" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F171" s="21"/>
       <c r="G171" s="12"/>
       <c r="H171" s="12"/>
       <c r="I171" s="12"/>
       <c r="J171" s="12"/>
       <c r="K171" s="2"/>
     </row>
-    <row r="172" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="14"/>
+    <row r="172" spans="1:11" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="16"/>
       <c r="B172" s="15"/>
-      <c r="C172" s="14"/>
-      <c r="D172" s="13">
+      <c r="C172" s="16"/>
+      <c r="D172" s="9">
         <v>4</v>
       </c>
-      <c r="E172" s="13" t="s">
+      <c r="E172" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="F172" s="16"/>
+      <c r="F172" s="21"/>
       <c r="G172" s="12"/>
       <c r="H172" s="12"/>
       <c r="I172" s="12"/>
@@ -4735,16 +4776,16 @@
       <c r="K172" s="2"/>
     </row>
     <row r="173" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="14"/>
+      <c r="A173" s="16"/>
       <c r="B173" s="15"/>
-      <c r="C173" s="14"/>
-      <c r="D173" s="13">
+      <c r="C173" s="16"/>
+      <c r="D173" s="9">
         <v>5</v>
       </c>
-      <c r="E173" s="13" t="s">
+      <c r="E173" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F173" s="16"/>
+      <c r="F173" s="21"/>
       <c r="G173" s="12"/>
       <c r="H173" s="12"/>
       <c r="I173" s="12"/>
@@ -4752,19 +4793,21 @@
       <c r="K173" s="2"/>
     </row>
     <row r="174" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="14" t="s">
+      <c r="A174" s="16" t="s">
         <v>154</v>
       </c>
       <c r="B174" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="C174" s="14"/>
-      <c r="D174" s="13"/>
-      <c r="E174" s="13" t="s">
-        <v>145</v>
+        <v>107</v>
+      </c>
+      <c r="C174" s="16"/>
+      <c r="D174" s="9">
+        <v>1</v>
+      </c>
+      <c r="E174" s="9" t="s">
+        <v>111</v>
       </c>
       <c r="F174" s="15" t="s">
-        <v>138</v>
+        <v>108</v>
       </c>
       <c r="G174" s="12"/>
       <c r="H174" s="12"/>
@@ -4772,15 +4815,15 @@
       <c r="J174" s="12"/>
       <c r="K174" s="2"/>
     </row>
-    <row r="175" spans="1:11" ht="31.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="14"/>
+    <row r="175" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="16"/>
       <c r="B175" s="15"/>
-      <c r="C175" s="14"/>
-      <c r="D175" s="13">
+      <c r="C175" s="16"/>
+      <c r="D175" s="9">
         <v>2</v>
       </c>
-      <c r="E175" s="13" t="s">
-        <v>140</v>
+      <c r="E175" s="9" t="s">
+        <v>54</v>
       </c>
       <c r="F175" s="15"/>
       <c r="G175" s="12"/>
@@ -4789,15 +4832,15 @@
       <c r="J175" s="12"/>
       <c r="K175" s="2"/>
     </row>
-    <row r="176" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="14"/>
+    <row r="176" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="16"/>
       <c r="B176" s="15"/>
-      <c r="C176" s="14"/>
-      <c r="D176" s="13">
+      <c r="C176" s="16"/>
+      <c r="D176" s="9">
         <v>3</v>
       </c>
-      <c r="E176" s="13" t="s">
-        <v>141</v>
+      <c r="E176" s="9" t="s">
+        <v>55</v>
       </c>
       <c r="F176" s="15"/>
       <c r="G176" s="12"/>
@@ -4806,14 +4849,14 @@
       <c r="J176" s="12"/>
       <c r="K176" s="2"/>
     </row>
-    <row r="177" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="14"/>
+    <row r="177" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A177" s="16"/>
       <c r="B177" s="15"/>
-      <c r="C177" s="14"/>
-      <c r="D177" s="13">
+      <c r="C177" s="16"/>
+      <c r="D177" s="9">
         <v>4</v>
       </c>
-      <c r="E177" s="13" t="s">
+      <c r="E177" s="9" t="s">
         <v>39</v>
       </c>
       <c r="F177" s="15"/>
@@ -4823,14 +4866,14 @@
       <c r="J177" s="12"/>
       <c r="K177" s="2"/>
     </row>
-    <row r="178" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="14"/>
+    <row r="178" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="16"/>
       <c r="B178" s="15"/>
-      <c r="C178" s="14"/>
-      <c r="D178" s="13">
+      <c r="C178" s="16"/>
+      <c r="D178" s="9">
         <v>5</v>
       </c>
-      <c r="E178" s="13" t="s">
+      <c r="E178" s="9" t="s">
         <v>27</v>
       </c>
       <c r="F178" s="15"/>
@@ -4841,19 +4884,21 @@
       <c r="K178" s="2"/>
     </row>
     <row r="179" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="14" t="s">
+      <c r="A179" s="16" t="s">
         <v>155</v>
       </c>
       <c r="B179" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="C179" s="14"/>
-      <c r="D179" s="13"/>
+        <v>142</v>
+      </c>
+      <c r="C179" s="16"/>
+      <c r="D179" s="13">
+        <v>1</v>
+      </c>
       <c r="E179" s="13" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="F179" s="15" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G179" s="12"/>
       <c r="H179" s="12"/>
@@ -4861,10 +4906,10 @@
       <c r="J179" s="12"/>
       <c r="K179" s="2"/>
     </row>
-    <row r="180" spans="1:11" ht="31.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="14"/>
+    <row r="180" spans="1:11" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="16"/>
       <c r="B180" s="15"/>
-      <c r="C180" s="14"/>
+      <c r="C180" s="16"/>
       <c r="D180" s="13">
         <v>2</v>
       </c>
@@ -4878,10 +4923,10 @@
       <c r="J180" s="12"/>
       <c r="K180" s="2"/>
     </row>
-    <row r="181" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="14"/>
+    <row r="181" spans="1:11" ht="31.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A181" s="16"/>
       <c r="B181" s="15"/>
-      <c r="C181" s="14"/>
+      <c r="C181" s="16"/>
       <c r="D181" s="13">
         <v>3</v>
       </c>
@@ -4896,9 +4941,9 @@
       <c r="K181" s="2"/>
     </row>
     <row r="182" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="14"/>
+      <c r="A182" s="16"/>
       <c r="B182" s="15"/>
-      <c r="C182" s="14"/>
+      <c r="C182" s="16"/>
       <c r="D182" s="13">
         <v>4</v>
       </c>
@@ -4913,9 +4958,9 @@
       <c r="K182" s="2"/>
     </row>
     <row r="183" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="14"/>
+      <c r="A183" s="16"/>
       <c r="B183" s="15"/>
-      <c r="C183" s="14"/>
+      <c r="C183" s="16"/>
       <c r="D183" s="13">
         <v>5</v>
       </c>
@@ -4929,42 +4974,294 @@
       <c r="J183" s="12"/>
       <c r="K183" s="2"/>
     </row>
-    <row r="184" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A184" s="6"/>
-      <c r="B184" s="6"/>
-      <c r="C184" s="6"/>
-      <c r="D184" s="6"/>
-      <c r="E184" s="6"/>
-      <c r="F184" s="6"/>
-      <c r="G184" s="6"/>
-      <c r="H184" s="6"/>
-      <c r="I184" s="6"/>
-      <c r="J184" s="6"/>
-    </row>
-    <row r="185" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="186" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="187" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="188" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="189" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="190" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="191" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="192" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="184" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A184" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="B184" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="C184" s="16"/>
+      <c r="D184" s="13"/>
+      <c r="E184" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="F184" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="G184" s="12"/>
+      <c r="H184" s="12"/>
+      <c r="I184" s="12"/>
+      <c r="J184" s="12"/>
+      <c r="K184" s="2"/>
+    </row>
+    <row r="185" spans="1:11" ht="31.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A185" s="16"/>
+      <c r="B185" s="15"/>
+      <c r="C185" s="16"/>
+      <c r="D185" s="13">
+        <v>2</v>
+      </c>
+      <c r="E185" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="F185" s="21"/>
+      <c r="G185" s="12"/>
+      <c r="H185" s="12"/>
+      <c r="I185" s="12"/>
+      <c r="J185" s="12"/>
+      <c r="K185" s="2"/>
+    </row>
+    <row r="186" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A186" s="16"/>
+      <c r="B186" s="15"/>
+      <c r="C186" s="16"/>
+      <c r="D186" s="13">
+        <v>3</v>
+      </c>
+      <c r="E186" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="F186" s="21"/>
+      <c r="G186" s="12"/>
+      <c r="H186" s="12"/>
+      <c r="I186" s="12"/>
+      <c r="J186" s="12"/>
+      <c r="K186" s="2"/>
+    </row>
+    <row r="187" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A187" s="16"/>
+      <c r="B187" s="15"/>
+      <c r="C187" s="16"/>
+      <c r="D187" s="13">
+        <v>4</v>
+      </c>
+      <c r="E187" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F187" s="21"/>
+      <c r="G187" s="12"/>
+      <c r="H187" s="12"/>
+      <c r="I187" s="12"/>
+      <c r="J187" s="12"/>
+      <c r="K187" s="2"/>
+    </row>
+    <row r="188" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A188" s="16"/>
+      <c r="B188" s="15"/>
+      <c r="C188" s="16"/>
+      <c r="D188" s="13">
+        <v>5</v>
+      </c>
+      <c r="E188" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F188" s="21"/>
+      <c r="G188" s="12"/>
+      <c r="H188" s="12"/>
+      <c r="I188" s="12"/>
+      <c r="J188" s="12"/>
+      <c r="K188" s="2"/>
+    </row>
+    <row r="189" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A189" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="B189" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="C189" s="16"/>
+      <c r="D189" s="13"/>
+      <c r="E189" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="F189" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="G189" s="12"/>
+      <c r="H189" s="12"/>
+      <c r="I189" s="12"/>
+      <c r="J189" s="12"/>
+      <c r="K189" s="2"/>
+    </row>
+    <row r="190" spans="1:11" ht="31.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A190" s="16"/>
+      <c r="B190" s="15"/>
+      <c r="C190" s="16"/>
+      <c r="D190" s="13">
+        <v>2</v>
+      </c>
+      <c r="E190" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="F190" s="15"/>
+      <c r="G190" s="12"/>
+      <c r="H190" s="12"/>
+      <c r="I190" s="12"/>
+      <c r="J190" s="12"/>
+      <c r="K190" s="2"/>
+    </row>
+    <row r="191" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A191" s="16"/>
+      <c r="B191" s="15"/>
+      <c r="C191" s="16"/>
+      <c r="D191" s="13">
+        <v>3</v>
+      </c>
+      <c r="E191" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="F191" s="15"/>
+      <c r="G191" s="12"/>
+      <c r="H191" s="12"/>
+      <c r="I191" s="12"/>
+      <c r="J191" s="12"/>
+      <c r="K191" s="2"/>
+    </row>
+    <row r="192" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A192" s="16"/>
+      <c r="B192" s="15"/>
+      <c r="C192" s="16"/>
+      <c r="D192" s="13">
+        <v>4</v>
+      </c>
+      <c r="E192" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F192" s="15"/>
+      <c r="G192" s="12"/>
+      <c r="H192" s="12"/>
+      <c r="I192" s="12"/>
+      <c r="J192" s="12"/>
+      <c r="K192" s="2"/>
+    </row>
+    <row r="193" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A193" s="16"/>
+      <c r="B193" s="15"/>
+      <c r="C193" s="16"/>
+      <c r="D193" s="13">
+        <v>5</v>
+      </c>
+      <c r="E193" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F193" s="15"/>
+      <c r="G193" s="12"/>
+      <c r="H193" s="12"/>
+      <c r="I193" s="12"/>
+      <c r="J193" s="12"/>
+      <c r="K193" s="2"/>
+    </row>
+    <row r="194" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A194" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="B194" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="C194" s="16"/>
+      <c r="D194" s="13"/>
+      <c r="E194" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="F194" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="G194" s="12"/>
+      <c r="H194" s="12"/>
+      <c r="I194" s="12"/>
+      <c r="J194" s="12"/>
+      <c r="K194" s="2"/>
+    </row>
+    <row r="195" spans="1:11" ht="31.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A195" s="16"/>
+      <c r="B195" s="15"/>
+      <c r="C195" s="16"/>
+      <c r="D195" s="13">
+        <v>2</v>
+      </c>
+      <c r="E195" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="F195" s="15"/>
+      <c r="G195" s="12"/>
+      <c r="H195" s="12"/>
+      <c r="I195" s="12"/>
+      <c r="J195" s="12"/>
+      <c r="K195" s="2"/>
+    </row>
+    <row r="196" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A196" s="16"/>
+      <c r="B196" s="15"/>
+      <c r="C196" s="16"/>
+      <c r="D196" s="13">
+        <v>3</v>
+      </c>
+      <c r="E196" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="F196" s="15"/>
+      <c r="G196" s="12"/>
+      <c r="H196" s="12"/>
+      <c r="I196" s="12"/>
+      <c r="J196" s="12"/>
+      <c r="K196" s="2"/>
+    </row>
+    <row r="197" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A197" s="16"/>
+      <c r="B197" s="15"/>
+      <c r="C197" s="16"/>
+      <c r="D197" s="13">
+        <v>4</v>
+      </c>
+      <c r="E197" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F197" s="15"/>
+      <c r="G197" s="12"/>
+      <c r="H197" s="12"/>
+      <c r="I197" s="12"/>
+      <c r="J197" s="12"/>
+      <c r="K197" s="2"/>
+    </row>
+    <row r="198" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A198" s="16"/>
+      <c r="B198" s="15"/>
+      <c r="C198" s="16"/>
+      <c r="D198" s="13">
+        <v>5</v>
+      </c>
+      <c r="E198" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F198" s="15"/>
+      <c r="G198" s="12"/>
+      <c r="H198" s="12"/>
+      <c r="I198" s="12"/>
+      <c r="J198" s="12"/>
+      <c r="K198" s="2"/>
+    </row>
+    <row r="199" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A199" s="6"/>
+      <c r="B199" s="6"/>
+      <c r="C199" s="6"/>
+      <c r="D199" s="6"/>
+      <c r="E199" s="6"/>
+      <c r="F199" s="6"/>
+      <c r="G199" s="6"/>
+      <c r="H199" s="6"/>
+      <c r="I199" s="6"/>
+      <c r="J199" s="6"/>
+    </row>
+    <row r="200" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="201" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="202" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="203" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="204" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="205" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="206" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="207" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="208" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5897,27 +6194,155 @@
     <row r="1138" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1139" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1140" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1141" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1142" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1143" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1144" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1145" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1146" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1147" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1148" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1149" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1150" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1151" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1152" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1153" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1154" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1155" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="163">
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="A19:A23"/>
-    <mergeCell ref="C19:C23"/>
-    <mergeCell ref="F19:F23"/>
-    <mergeCell ref="H9:H13"/>
-    <mergeCell ref="G19:G23"/>
-    <mergeCell ref="H19:H23"/>
-    <mergeCell ref="I19:I23"/>
-    <mergeCell ref="J19:J23"/>
-    <mergeCell ref="F14:F18"/>
-    <mergeCell ref="G14:G18"/>
-    <mergeCell ref="H14:H18"/>
-    <mergeCell ref="I14:I18"/>
-    <mergeCell ref="J14:J18"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="C9:C13"/>
-    <mergeCell ref="F9:F13"/>
-    <mergeCell ref="G9:G13"/>
+  <mergeCells count="175">
+    <mergeCell ref="A84:A88"/>
+    <mergeCell ref="A89:A93"/>
+    <mergeCell ref="A94:A98"/>
+    <mergeCell ref="A179:A183"/>
+    <mergeCell ref="A184:A188"/>
+    <mergeCell ref="A189:A193"/>
+    <mergeCell ref="A194:A198"/>
+    <mergeCell ref="B189:B193"/>
+    <mergeCell ref="C189:C193"/>
+    <mergeCell ref="F189:F193"/>
+    <mergeCell ref="B194:B198"/>
+    <mergeCell ref="C194:C198"/>
+    <mergeCell ref="F194:F198"/>
+    <mergeCell ref="B179:B183"/>
+    <mergeCell ref="C179:C183"/>
+    <mergeCell ref="F179:F183"/>
+    <mergeCell ref="B184:B188"/>
+    <mergeCell ref="C184:C188"/>
+    <mergeCell ref="F184:F188"/>
+    <mergeCell ref="A154:A158"/>
+    <mergeCell ref="A159:A163"/>
+    <mergeCell ref="A164:A168"/>
+    <mergeCell ref="A169:A173"/>
+    <mergeCell ref="A174:A178"/>
+    <mergeCell ref="A129:A133"/>
+    <mergeCell ref="A134:A138"/>
+    <mergeCell ref="A139:A143"/>
+    <mergeCell ref="A144:A148"/>
+    <mergeCell ref="A149:A153"/>
+    <mergeCell ref="B169:B173"/>
+    <mergeCell ref="C169:C173"/>
+    <mergeCell ref="F169:F173"/>
+    <mergeCell ref="B174:B178"/>
+    <mergeCell ref="C174:C178"/>
+    <mergeCell ref="F174:F178"/>
+    <mergeCell ref="B159:B163"/>
+    <mergeCell ref="C159:C163"/>
+    <mergeCell ref="F159:F163"/>
+    <mergeCell ref="B164:B168"/>
+    <mergeCell ref="C164:C168"/>
+    <mergeCell ref="F164:F168"/>
+    <mergeCell ref="B149:B153"/>
+    <mergeCell ref="C149:C153"/>
+    <mergeCell ref="F149:F153"/>
+    <mergeCell ref="B154:B158"/>
+    <mergeCell ref="C154:C158"/>
+    <mergeCell ref="F154:F158"/>
+    <mergeCell ref="A99:A103"/>
+    <mergeCell ref="B99:B103"/>
+    <mergeCell ref="C99:C103"/>
+    <mergeCell ref="F99:F103"/>
+    <mergeCell ref="B124:B128"/>
+    <mergeCell ref="C124:C128"/>
+    <mergeCell ref="F124:F128"/>
+    <mergeCell ref="A104:A108"/>
+    <mergeCell ref="A109:A113"/>
+    <mergeCell ref="A114:A118"/>
+    <mergeCell ref="A119:A123"/>
+    <mergeCell ref="A124:A128"/>
+    <mergeCell ref="B139:B143"/>
+    <mergeCell ref="C139:C143"/>
+    <mergeCell ref="F139:F143"/>
+    <mergeCell ref="B144:B148"/>
+    <mergeCell ref="C144:C148"/>
+    <mergeCell ref="F144:F148"/>
+    <mergeCell ref="B129:B133"/>
+    <mergeCell ref="C129:C133"/>
+    <mergeCell ref="F129:F133"/>
+    <mergeCell ref="B134:B138"/>
+    <mergeCell ref="C134:C138"/>
+    <mergeCell ref="F134:F138"/>
+    <mergeCell ref="B114:B118"/>
+    <mergeCell ref="C114:C118"/>
+    <mergeCell ref="F114:F118"/>
+    <mergeCell ref="B119:B123"/>
+    <mergeCell ref="C119:C123"/>
+    <mergeCell ref="F119:F123"/>
+    <mergeCell ref="B104:B108"/>
+    <mergeCell ref="C104:C108"/>
+    <mergeCell ref="F104:F108"/>
+    <mergeCell ref="B109:B113"/>
+    <mergeCell ref="C109:C113"/>
+    <mergeCell ref="F109:F113"/>
+    <mergeCell ref="B79:B83"/>
+    <mergeCell ref="C79:C83"/>
+    <mergeCell ref="F79:F83"/>
+    <mergeCell ref="B84:B88"/>
+    <mergeCell ref="B89:B93"/>
+    <mergeCell ref="B94:B98"/>
+    <mergeCell ref="C84:C88"/>
+    <mergeCell ref="C89:C93"/>
+    <mergeCell ref="C94:C98"/>
+    <mergeCell ref="F84:F88"/>
+    <mergeCell ref="F89:F93"/>
+    <mergeCell ref="F94:F98"/>
+    <mergeCell ref="A74:A78"/>
+    <mergeCell ref="A79:A83"/>
+    <mergeCell ref="B69:B73"/>
+    <mergeCell ref="C69:C73"/>
+    <mergeCell ref="F69:F73"/>
+    <mergeCell ref="A69:A73"/>
+    <mergeCell ref="B74:B78"/>
+    <mergeCell ref="C74:C78"/>
+    <mergeCell ref="F74:F78"/>
+    <mergeCell ref="A59:A63"/>
+    <mergeCell ref="B59:B63"/>
+    <mergeCell ref="C59:C63"/>
+    <mergeCell ref="F59:F63"/>
+    <mergeCell ref="B64:B68"/>
+    <mergeCell ref="F64:F68"/>
+    <mergeCell ref="C64:C68"/>
+    <mergeCell ref="A64:A68"/>
+    <mergeCell ref="A49:A53"/>
+    <mergeCell ref="B49:B53"/>
+    <mergeCell ref="C49:C53"/>
+    <mergeCell ref="F49:F53"/>
+    <mergeCell ref="A54:A58"/>
+    <mergeCell ref="B54:B58"/>
+    <mergeCell ref="C54:C58"/>
+    <mergeCell ref="F54:F58"/>
+    <mergeCell ref="F39:F43"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="C39:C43"/>
+    <mergeCell ref="A39:A43"/>
+    <mergeCell ref="B44:B48"/>
+    <mergeCell ref="F44:F48"/>
+    <mergeCell ref="C44:C48"/>
+    <mergeCell ref="A44:A48"/>
+    <mergeCell ref="F34:F38"/>
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="C34:C38"/>
+    <mergeCell ref="A34:A38"/>
     <mergeCell ref="A29:A33"/>
     <mergeCell ref="B24:B28"/>
     <mergeCell ref="F24:F28"/>
@@ -5942,126 +6367,25 @@
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="B14:B18"/>
     <mergeCell ref="C14:C18"/>
-    <mergeCell ref="F39:F43"/>
-    <mergeCell ref="B39:B43"/>
-    <mergeCell ref="C39:C43"/>
-    <mergeCell ref="A39:A43"/>
-    <mergeCell ref="B44:B48"/>
-    <mergeCell ref="F44:F48"/>
-    <mergeCell ref="C44:C48"/>
-    <mergeCell ref="A44:A48"/>
-    <mergeCell ref="F34:F38"/>
-    <mergeCell ref="B34:B38"/>
-    <mergeCell ref="C34:C38"/>
-    <mergeCell ref="A34:A38"/>
-    <mergeCell ref="A59:A63"/>
-    <mergeCell ref="B59:B63"/>
-    <mergeCell ref="C59:C63"/>
-    <mergeCell ref="F59:F63"/>
-    <mergeCell ref="B64:B68"/>
-    <mergeCell ref="F64:F68"/>
-    <mergeCell ref="C64:C68"/>
-    <mergeCell ref="A64:A68"/>
-    <mergeCell ref="A49:A53"/>
-    <mergeCell ref="B49:B53"/>
-    <mergeCell ref="C49:C53"/>
-    <mergeCell ref="F49:F53"/>
-    <mergeCell ref="A54:A58"/>
-    <mergeCell ref="B54:B58"/>
-    <mergeCell ref="C54:C58"/>
-    <mergeCell ref="F54:F58"/>
-    <mergeCell ref="A74:A78"/>
-    <mergeCell ref="A79:A83"/>
-    <mergeCell ref="B69:B73"/>
-    <mergeCell ref="C69:C73"/>
-    <mergeCell ref="F69:F73"/>
-    <mergeCell ref="A69:A73"/>
-    <mergeCell ref="B74:B78"/>
-    <mergeCell ref="C74:C78"/>
-    <mergeCell ref="F74:F78"/>
-    <mergeCell ref="B89:B93"/>
-    <mergeCell ref="C89:C93"/>
-    <mergeCell ref="F89:F93"/>
-    <mergeCell ref="B94:B98"/>
-    <mergeCell ref="C94:C98"/>
-    <mergeCell ref="F94:F98"/>
-    <mergeCell ref="B79:B83"/>
-    <mergeCell ref="C79:C83"/>
-    <mergeCell ref="F79:F83"/>
-    <mergeCell ref="B114:B118"/>
-    <mergeCell ref="C114:C118"/>
-    <mergeCell ref="F114:F118"/>
-    <mergeCell ref="B119:B123"/>
-    <mergeCell ref="C119:C123"/>
-    <mergeCell ref="F119:F123"/>
-    <mergeCell ref="B99:B103"/>
-    <mergeCell ref="C99:C103"/>
-    <mergeCell ref="F99:F103"/>
-    <mergeCell ref="B104:B108"/>
-    <mergeCell ref="C104:C108"/>
-    <mergeCell ref="F104:F108"/>
-    <mergeCell ref="B134:B138"/>
-    <mergeCell ref="C134:C138"/>
-    <mergeCell ref="F134:F138"/>
-    <mergeCell ref="B139:B143"/>
-    <mergeCell ref="C139:C143"/>
-    <mergeCell ref="F139:F143"/>
-    <mergeCell ref="A84:A88"/>
-    <mergeCell ref="B84:B88"/>
-    <mergeCell ref="C84:C88"/>
-    <mergeCell ref="F84:F88"/>
-    <mergeCell ref="B109:B113"/>
-    <mergeCell ref="C109:C113"/>
-    <mergeCell ref="F109:F113"/>
-    <mergeCell ref="A89:A93"/>
-    <mergeCell ref="A94:A98"/>
-    <mergeCell ref="A99:A103"/>
-    <mergeCell ref="A104:A108"/>
-    <mergeCell ref="A109:A113"/>
-    <mergeCell ref="B124:B128"/>
-    <mergeCell ref="C124:C128"/>
-    <mergeCell ref="F124:F128"/>
-    <mergeCell ref="B129:B133"/>
-    <mergeCell ref="C129:C133"/>
-    <mergeCell ref="F129:F133"/>
-    <mergeCell ref="B154:B158"/>
-    <mergeCell ref="C154:C158"/>
-    <mergeCell ref="F154:F158"/>
-    <mergeCell ref="B159:B163"/>
-    <mergeCell ref="C159:C163"/>
-    <mergeCell ref="F159:F163"/>
-    <mergeCell ref="B144:B148"/>
-    <mergeCell ref="C144:C148"/>
-    <mergeCell ref="F144:F148"/>
-    <mergeCell ref="B149:B153"/>
-    <mergeCell ref="C149:C153"/>
-    <mergeCell ref="F149:F153"/>
-    <mergeCell ref="A139:A143"/>
-    <mergeCell ref="A144:A148"/>
-    <mergeCell ref="A149:A153"/>
-    <mergeCell ref="A154:A158"/>
-    <mergeCell ref="A159:A163"/>
-    <mergeCell ref="A114:A118"/>
-    <mergeCell ref="A119:A123"/>
-    <mergeCell ref="A124:A128"/>
-    <mergeCell ref="A129:A133"/>
-    <mergeCell ref="A134:A138"/>
-    <mergeCell ref="A164:A168"/>
-    <mergeCell ref="A169:A173"/>
-    <mergeCell ref="A174:A178"/>
-    <mergeCell ref="A179:A183"/>
-    <mergeCell ref="B174:B178"/>
-    <mergeCell ref="C174:C178"/>
-    <mergeCell ref="F174:F178"/>
-    <mergeCell ref="B179:B183"/>
-    <mergeCell ref="C179:C183"/>
-    <mergeCell ref="F179:F183"/>
-    <mergeCell ref="B164:B168"/>
-    <mergeCell ref="C164:C168"/>
-    <mergeCell ref="F164:F168"/>
-    <mergeCell ref="B169:B173"/>
-    <mergeCell ref="C169:C173"/>
-    <mergeCell ref="F169:F173"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="C19:C23"/>
+    <mergeCell ref="F19:F23"/>
+    <mergeCell ref="H9:H13"/>
+    <mergeCell ref="G19:G23"/>
+    <mergeCell ref="H19:H23"/>
+    <mergeCell ref="I19:I23"/>
+    <mergeCell ref="J19:J23"/>
+    <mergeCell ref="F14:F18"/>
+    <mergeCell ref="G14:G18"/>
+    <mergeCell ref="H14:H18"/>
+    <mergeCell ref="I14:I18"/>
+    <mergeCell ref="J14:J18"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="C9:C13"/>
+    <mergeCell ref="F9:F13"/>
+    <mergeCell ref="G9:G13"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
